--- a/IoT-points-schedule.xlsx
+++ b/IoT-points-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jczec\Pulpit\IoT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416EA7F3-4ECE-4457-B605-BA46076B8123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E49D2E-01E0-499F-839A-85FF50BCA507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F85F5544-1FE8-4920-A5D4-192A98B113BD}"/>
   </bookViews>
@@ -1179,41 +1179,41 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1677,23 +1677,23 @@
       <c r="R3" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
       <c r="I5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="49" t="s">
+      <c r="K5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="51"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="48"/>
       <c r="P5" s="4" t="s">
         <v>74</v>
       </c>
@@ -1775,28 +1775,28 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="45"/>
+      <c r="C9" s="49"/>
       <c r="E9" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="46">
+      <c r="B10" s="50">
         <f>_xlfn.CEILING.MATH(SUM(B7:G7,I7,K7:N7,P7),1,1)</f>
         <v>110</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="E10" s="55">
+      <c r="C10" s="50"/>
+      <c r="E10" s="51">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="E11" s="56"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="E11" s="52"/>
     </row>
     <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
@@ -1841,20 +1841,20 @@
       <c r="H15" s="44"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="F17" s="47" t="s">
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="F17" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="J17" s="45" t="s">
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="J17" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="45"/>
+      <c r="K17" s="49"/>
       <c r="M17" s="9" t="s">
         <v>67</v>
       </c>
@@ -1878,12 +1878,12 @@
       <c r="H18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="46">
+      <c r="J18" s="50">
         <f>SUM(B19:D19,F19:H19)</f>
         <v>93</v>
       </c>
-      <c r="K18" s="46"/>
-      <c r="M18" s="48">
+      <c r="K18" s="50"/>
+      <c r="M18" s="54">
         <v>5</v>
       </c>
     </row>
@@ -1906,9 +1906,9 @@
       <c r="H19" s="2">
         <v>4</v>
       </c>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="M19" s="48"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="M19" s="54"/>
     </row>
     <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
@@ -1959,20 +1959,20 @@
       <c r="K24" s="44"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="47"/>
-      <c r="E26" s="49" t="s">
+      <c r="C26" s="45"/>
+      <c r="E26" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="50"/>
-      <c r="G26" s="51"/>
-      <c r="I26" s="47" t="s">
+      <c r="F26" s="47"/>
+      <c r="G26" s="48"/>
+      <c r="I26" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
       <c r="M26" s="10" t="s">
         <v>22</v>
       </c>
@@ -2007,12 +2007,12 @@
       <c r="K27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M27" s="54">
+      <c r="M27" s="53">
         <f>SUM(B28:C28,E28:G28,I28:K28)</f>
         <v>36</v>
       </c>
       <c r="N27" s="7"/>
-      <c r="O27" s="48">
+      <c r="O27" s="54">
         <v>4</v>
       </c>
       <c r="P27" s="8"/>
@@ -2042,9 +2042,9 @@
       <c r="K28" s="2">
         <v>3.2</v>
       </c>
-      <c r="M28" s="54"/>
+      <c r="M28" s="53"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="48"/>
+      <c r="O28" s="54"/>
       <c r="P28" s="8"/>
     </row>
     <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2092,17 +2092,17 @@
       <c r="I33" s="44"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="F35" s="47" t="s">
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="F35" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
     </row>
@@ -2159,14 +2159,14 @@
       <c r="O37" s="7"/>
     </row>
     <row r="40" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="F40" s="46" t="s">
+      <c r="C40" s="56"/>
+      <c r="F40" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="46"/>
+      <c r="G40" s="50"/>
       <c r="I40" s="9" t="s">
         <v>22</v>
       </c>
@@ -2222,7 +2222,7 @@
       <c r="G43" s="2">
         <v>0.44</v>
       </c>
-      <c r="I43" s="45" t="s">
+      <c r="I43" s="49" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2239,7 +2239,7 @@
       <c r="G44" s="2">
         <v>1</v>
       </c>
-      <c r="I44" s="45"/>
+      <c r="I44" s="49"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
@@ -2423,27 +2423,27 @@
       <c r="R59" s="44"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B61" s="47" t="s">
+      <c r="B61" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="47"/>
-      <c r="M61" s="47" t="s">
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="45"/>
+      <c r="M61" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="N61" s="47"/>
-      <c r="O61" s="47"/>
-      <c r="Q61" s="47" t="s">
+      <c r="N61" s="45"/>
+      <c r="O61" s="45"/>
+      <c r="Q61" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="R61" s="47"/>
+      <c r="R61" s="45"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B62" s="2" t="s">
@@ -2540,28 +2540,28 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B66" s="45" t="s">
+      <c r="B66" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="45"/>
+      <c r="C66" s="49"/>
       <c r="E66" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B67" s="46">
+      <c r="B67" s="50">
         <f xml:space="preserve"> SUM(B63:K63,M63:O63,Q63:R63)</f>
         <v>85.5</v>
       </c>
-      <c r="C67" s="46"/>
-      <c r="E67" s="48">
+      <c r="C67" s="50"/>
+      <c r="E67" s="54">
         <v>4.5</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B68" s="46"/>
-      <c r="C68" s="46"/>
-      <c r="E68" s="48"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="50"/>
+      <c r="E68" s="54"/>
     </row>
     <row r="70" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="6"/>
@@ -2632,10 +2632,10 @@
       <c r="I75" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="K75" s="45" t="s">
+      <c r="K75" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L75" s="45"/>
+      <c r="L75" s="49"/>
       <c r="N75" s="9" t="s">
         <v>67</v>
       </c>
@@ -2665,11 +2665,11 @@
       <c r="I76" s="2">
         <v>5</v>
       </c>
-      <c r="K76" s="46">
+      <c r="K76" s="50">
         <f>SUM(B76:I76)</f>
         <v>96</v>
       </c>
-      <c r="L76" s="46"/>
+      <c r="L76" s="50"/>
       <c r="N76" s="13">
         <v>5</v>
       </c>
@@ -2697,20 +2697,16 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="B14:H15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K19"/>
-    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="B72:I73"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="B58:R59"/>
+    <mergeCell ref="B61:K61"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C68"/>
+    <mergeCell ref="E67:E68"/>
     <mergeCell ref="I43:I44"/>
     <mergeCell ref="B23:K24"/>
     <mergeCell ref="B26:C26"/>
@@ -2721,16 +2717,20 @@
     <mergeCell ref="F35:I35"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="F40:G40"/>
-    <mergeCell ref="B72:I73"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="B58:R59"/>
-    <mergeCell ref="B61:K61"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="B14:H15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2741,8 +2741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C86BD6-21E5-4E44-BF61-9A65607E6D85}">
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2808,23 +2808,23 @@
       <c r="R3" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
-      <c r="H5" s="49" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48"/>
+      <c r="H5" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="51"/>
-      <c r="K5" s="49" t="s">
+      <c r="I5" s="48"/>
+      <c r="K5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="51"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="48"/>
       <c r="P5" s="4" t="s">
         <v>74</v>
       </c>
@@ -2890,37 +2890,37 @@
       <c r="P7" s="2"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="45"/>
+      <c r="C9" s="49"/>
       <c r="E9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="45"/>
+      <c r="H9" s="49"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="46">
+      <c r="B10" s="50">
         <f>SUM(B7:F7,H7:I7,K7:N7,P7)</f>
         <v>14</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="E10" s="55"/>
-      <c r="G10" s="46">
+      <c r="C10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="G10" s="50">
         <f>66-SUM(B7:F7,H7:I7,K7:N7,P7)</f>
         <v>52</v>
       </c>
-      <c r="H10" s="46"/>
+      <c r="H10" s="50"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="E11" s="56"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="E11" s="52"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
@@ -2965,26 +2965,26 @@
       <c r="H15" s="62"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="H17" s="49" t="s">
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="H17" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
-      <c r="L17" s="45" t="s">
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
+      <c r="L17" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="45"/>
-      <c r="O17" s="45" t="s">
+      <c r="M17" s="49"/>
+      <c r="O17" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="45"/>
+      <c r="P17" s="49"/>
       <c r="R17" s="9" t="s">
         <v>67</v>
       </c>
@@ -3014,17 +3014,17 @@
       <c r="J18" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="L18" s="46">
+      <c r="L18" s="50">
         <f>SUM(B19:F19,H19:J19)</f>
         <v>21</v>
       </c>
-      <c r="M18" s="46"/>
-      <c r="O18" s="46">
+      <c r="M18" s="50"/>
+      <c r="O18" s="50">
         <f>50-SUM(B19:F19,H19:J19)</f>
         <v>29</v>
       </c>
-      <c r="P18" s="46"/>
-      <c r="R18" s="48"/>
+      <c r="P18" s="50"/>
+      <c r="R18" s="54"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
@@ -3037,11 +3037,11 @@
         <v>21</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="R19" s="48"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="R19" s="54"/>
     </row>
     <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
@@ -3079,10 +3079,10 @@
       <c r="J23" s="58"/>
       <c r="K23" s="58"/>
       <c r="L23" s="59"/>
-      <c r="N23" s="46" t="s">
+      <c r="N23" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="O23" s="46"/>
+      <c r="O23" s="50"/>
     </row>
     <row r="24" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="60"/>
@@ -3096,26 +3096,26 @@
       <c r="J24" s="61"/>
       <c r="K24" s="61"/>
       <c r="L24" s="62"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="F26" s="47" t="s">
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="F26" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="49" t="s">
+      <c r="K26" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="L26" s="51"/>
+      <c r="L26" s="48"/>
       <c r="N26" s="9" t="s">
         <v>67</v>
       </c>
@@ -3148,7 +3148,7 @@
       <c r="L27" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N27" s="55"/>
+      <c r="N27" s="51"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="N28" s="56"/>
+      <c r="N28" s="52"/>
     </row>
     <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
@@ -3219,17 +3219,17 @@
       <c r="I33" s="62"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="47"/>
+      <c r="C35" s="45"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="49" t="s">
+      <c r="E35" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="51"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="48"/>
     </row>
     <row r="36" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
@@ -3259,7 +3259,7 @@
       <c r="C37" s="2"/>
       <c r="E37" s="2">
         <f>C56</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F37" s="2">
         <f>G51</f>
@@ -3270,14 +3270,14 @@
       <c r="O37" s="7"/>
     </row>
     <row r="40" spans="2:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="F40" s="46" t="s">
+      <c r="C40" s="56"/>
+      <c r="F40" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="46"/>
+      <c r="G40" s="50"/>
       <c r="I40" s="9" t="s">
         <v>22</v>
       </c>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="I41" s="2">
         <f>SUM(B37:C37,E37:H37)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J41" s="7"/>
       <c r="L41" s="7"/>
@@ -3329,7 +3329,7 @@
         <v>119</v>
       </c>
       <c r="G43" s="2"/>
-      <c r="I43" s="45" t="s">
+      <c r="I43" s="49" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3344,7 +3344,7 @@
         <v>120</v>
       </c>
       <c r="G44" s="2"/>
-      <c r="I44" s="45"/>
+      <c r="I44" s="49"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
@@ -3395,7 +3395,7 @@
       <c r="G48" s="2"/>
       <c r="I48" s="2">
         <f>50-SUM(B37:C37,E37:H37)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
@@ -3420,7 +3420,9 @@
       <c r="B51" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51" s="2">
+        <v>2</v>
+      </c>
       <c r="F51" s="2" t="s">
         <v>48</v>
       </c>
@@ -3453,7 +3455,7 @@
       </c>
       <c r="C56" s="2">
         <f>SUM(C41:C54)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3521,28 +3523,28 @@
       <c r="S61" s="62"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B63" s="47" t="s">
+      <c r="B63" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-      <c r="J63" s="47"/>
-      <c r="K63" s="47"/>
-      <c r="M63" s="47" t="s">
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
+      <c r="J63" s="45"/>
+      <c r="K63" s="45"/>
+      <c r="M63" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="N63" s="47"/>
-      <c r="O63" s="47"/>
-      <c r="P63" s="47"/>
-      <c r="R63" s="47" t="s">
+      <c r="N63" s="45"/>
+      <c r="O63" s="45"/>
+      <c r="P63" s="45"/>
+      <c r="R63" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="S63" s="47"/>
+      <c r="S63" s="45"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B64" s="2" t="s">
@@ -3640,43 +3642,65 @@
       </c>
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B68" s="45" t="s">
+      <c r="B68" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C68" s="45"/>
+      <c r="C68" s="49"/>
       <c r="E68" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G68" s="45" t="s">
+      <c r="G68" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="H68" s="45"/>
+      <c r="H68" s="49"/>
       <c r="J68" s="1">
         <v>4.5</v>
       </c>
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B69" s="46">
+      <c r="B69" s="50">
         <f>SUM(B65:K65,M65:P65,R65:S65)+J68</f>
         <v>32.5</v>
       </c>
-      <c r="C69" s="46"/>
-      <c r="E69" s="48"/>
-      <c r="G69" s="46">
+      <c r="C69" s="50"/>
+      <c r="E69" s="54"/>
+      <c r="G69" s="50">
         <f>50-SUM(B65:K65,M65:P65,R65:S65,J68)</f>
         <v>17.5</v>
       </c>
-      <c r="H69" s="46"/>
+      <c r="H69" s="50"/>
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B70" s="46"/>
-      <c r="C70" s="46"/>
-      <c r="E70" s="48"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="46"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="50"/>
+      <c r="E70" s="54"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="B32:I33"/>
+    <mergeCell ref="B63:K63"/>
+    <mergeCell ref="B60:S61"/>
+    <mergeCell ref="M63:P63"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B23:L24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C70"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H70"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="B14:H15"/>
     <mergeCell ref="K5:N5"/>
@@ -3693,28 +3717,6 @@
     <mergeCell ref="E35:H35"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H11"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C70"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G69:H70"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B23:L24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="B32:I33"/>
-    <mergeCell ref="B63:K63"/>
-    <mergeCell ref="B60:S61"/>
-    <mergeCell ref="M63:P63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IoT-points-schedule.xlsx
+++ b/IoT-points-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jczec\Pulpit\IoT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E49D2E-01E0-499F-839A-85FF50BCA507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E04C3D-8B56-4E8B-A62A-0B9BB21AA4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F85F5544-1FE8-4920-A5D4-192A98B113BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{F85F5544-1FE8-4920-A5D4-192A98B113BD}"/>
   </bookViews>
   <sheets>
     <sheet name="I-semestr-24Z" sheetId="2" r:id="rId1"/>
@@ -1179,9 +1179,18 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1191,10 +1200,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1202,18 +1214,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1615,31 +1615,31 @@
       <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="1"/>
-    <col min="11" max="11" width="11.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="11.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" s="39" t="s">
         <v>133</v>
       </c>
@@ -1658,7 +1658,7 @@
       <c r="O2" s="40"/>
       <c r="P2" s="41"/>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
@@ -1676,29 +1676,29 @@
       <c r="P3" s="44"/>
       <c r="R3" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="45" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
       <c r="I5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="48"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="51"/>
       <c r="P5" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -1774,31 +1774,31 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="49" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="49"/>
+      <c r="C9" s="45"/>
       <c r="E9" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="50">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="46">
         <f>_xlfn.CEILING.MATH(SUM(B7:G7,I7,K7:N7,P7),1,1)</f>
         <v>110</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="E10" s="51">
+      <c r="C10" s="46"/>
+      <c r="E10" s="55">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="E11" s="52"/>
-    </row>
-    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="E11" s="56"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1819,8 +1819,8 @@
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
     </row>
-    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" s="39" t="s">
         <v>134</v>
       </c>
@@ -1831,7 +1831,7 @@
       <c r="G14" s="40"/>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
@@ -1840,26 +1840,26 @@
       <c r="G15" s="43"/>
       <c r="H15" s="44"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B17" s="45" t="s">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="F17" s="45" t="s">
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="F17" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="J17" s="49" t="s">
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="J17" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="49"/>
+      <c r="K17" s="45"/>
       <c r="M17" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>75</v>
       </c>
@@ -1878,16 +1878,16 @@
       <c r="H18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="50">
+      <c r="J18" s="46">
         <f>SUM(B19:D19,F19:H19)</f>
         <v>93</v>
       </c>
-      <c r="K18" s="50"/>
-      <c r="M18" s="54">
+      <c r="K18" s="46"/>
+      <c r="M18" s="48">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>46</v>
       </c>
@@ -1906,11 +1906,11 @@
       <c r="H19" s="2">
         <v>4</v>
       </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="M19" s="54"/>
-    </row>
-    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="M19" s="48"/>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1931,8 +1931,8 @@
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
     </row>
-    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B23" s="39" t="s">
         <v>135</v>
       </c>
@@ -1946,7 +1946,7 @@
       <c r="J23" s="40"/>
       <c r="K23" s="41"/>
     </row>
-    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="42"/>
       <c r="C24" s="43"/>
       <c r="D24" s="43"/>
@@ -1958,21 +1958,21 @@
       <c r="J24" s="43"/>
       <c r="K24" s="44"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B26" s="45" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="E26" s="46" t="s">
+      <c r="C26" s="47"/>
+      <c r="E26" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="47"/>
-      <c r="G26" s="48"/>
-      <c r="I26" s="45" t="s">
+      <c r="F26" s="50"/>
+      <c r="G26" s="51"/>
+      <c r="I26" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
       <c r="M26" s="10" t="s">
         <v>22</v>
       </c>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="P26" s="7"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>6</v>
       </c>
@@ -2007,17 +2007,17 @@
       <c r="K27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M27" s="53">
+      <c r="M27" s="54">
         <f>SUM(B28:C28,E28:G28,I28:K28)</f>
         <v>36</v>
       </c>
       <c r="N27" s="7"/>
-      <c r="O27" s="54">
+      <c r="O27" s="48">
         <v>4</v>
       </c>
       <c r="P27" s="8"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>8</v>
       </c>
@@ -2042,12 +2042,12 @@
       <c r="K28" s="2">
         <v>3.2</v>
       </c>
-      <c r="M28" s="53"/>
+      <c r="M28" s="54"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="54"/>
+      <c r="O28" s="48"/>
       <c r="P28" s="8"/>
     </row>
-    <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -2068,8 +2068,8 @@
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
     </row>
-    <row r="31" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B32" s="39" t="s">
         <v>136</v>
       </c>
@@ -2081,7 +2081,7 @@
       <c r="H32" s="40"/>
       <c r="I32" s="41"/>
     </row>
-    <row r="33" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="42"/>
       <c r="C33" s="43"/>
       <c r="D33" s="43"/>
@@ -2091,22 +2091,22 @@
       <c r="H33" s="43"/>
       <c r="I33" s="44"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="45" t="s">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="F35" s="45" t="s">
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="F35" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
     </row>
-    <row r="36" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>6</v>
       </c>
@@ -2131,7 +2131,7 @@
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>10</v>
       </c>
@@ -2158,22 +2158,22 @@
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
     </row>
-    <row r="40" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="55" t="s">
+    <row r="40" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="F40" s="50" t="s">
+      <c r="C40" s="53"/>
+      <c r="F40" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="50"/>
+      <c r="G40" s="46"/>
       <c r="I40" s="9" t="s">
         <v>22</v>
       </c>
       <c r="J40" s="11"/>
       <c r="L40" s="11"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>49</v>
       </c>
@@ -2193,7 +2193,7 @@
       <c r="J41" s="7"/>
       <c r="L41" s="7"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>50</v>
       </c>
@@ -2209,7 +2209,7 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>51</v>
       </c>
@@ -2222,11 +2222,11 @@
       <c r="G43" s="2">
         <v>0.44</v>
       </c>
-      <c r="I43" s="49" t="s">
+      <c r="I43" s="45" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>52</v>
       </c>
@@ -2239,9 +2239,9 @@
       <c r="G44" s="2">
         <v>1</v>
       </c>
-      <c r="I44" s="49"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I44" s="45"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>53</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>54</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>55</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>56</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>57</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>58</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>59</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>60</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>16</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -2381,8 +2381,8 @@
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
     </row>
-    <row r="57" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B58" s="39" t="s">
         <v>137</v>
       </c>
@@ -2403,7 +2403,7 @@
       <c r="Q58" s="40"/>
       <c r="R58" s="41"/>
     </row>
-    <row r="59" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="42"/>
       <c r="C59" s="43"/>
       <c r="D59" s="43"/>
@@ -2422,30 +2422,30 @@
       <c r="Q59" s="43"/>
       <c r="R59" s="44"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B61" s="45" t="s">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B61" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="45"/>
-      <c r="M61" s="45" t="s">
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="47"/>
+      <c r="M61" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="N61" s="45"/>
-      <c r="O61" s="45"/>
-      <c r="Q61" s="45" t="s">
+      <c r="N61" s="47"/>
+      <c r="O61" s="47"/>
+      <c r="Q61" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="R61" s="45"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R61" s="47"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>51</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
         <v>1</v>
       </c>
@@ -2539,31 +2539,31 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B66" s="49" t="s">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B66" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="49"/>
+      <c r="C66" s="45"/>
       <c r="E66" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B67" s="50">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B67" s="46">
         <f xml:space="preserve"> SUM(B63:K63,M63:O63,Q63:R63)</f>
         <v>85.5</v>
       </c>
-      <c r="C67" s="50"/>
-      <c r="E67" s="54">
+      <c r="C67" s="46"/>
+      <c r="E67" s="48">
         <v>4.5</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B68" s="50"/>
-      <c r="C68" s="50"/>
-      <c r="E68" s="54"/>
-    </row>
-    <row r="70" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="E68" s="48"/>
+    </row>
+    <row r="70" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -2584,8 +2584,8 @@
       <c r="R70" s="6"/>
       <c r="S70" s="6"/>
     </row>
-    <row r="71" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B72" s="39" t="s">
         <v>138</v>
       </c>
@@ -2597,7 +2597,7 @@
       <c r="H72" s="40"/>
       <c r="I72" s="41"/>
     </row>
-    <row r="73" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="42"/>
       <c r="C73" s="43"/>
       <c r="D73" s="43"/>
@@ -2607,7 +2607,7 @@
       <c r="H73" s="43"/>
       <c r="I73" s="44"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B75" s="4" t="s">
         <v>139</v>
       </c>
@@ -2632,15 +2632,15 @@
       <c r="I75" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="K75" s="49" t="s">
+      <c r="K75" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="L75" s="49"/>
+      <c r="L75" s="45"/>
       <c r="N75" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B76" s="2">
         <v>11</v>
       </c>
@@ -2665,16 +2665,16 @@
       <c r="I76" s="2">
         <v>5</v>
       </c>
-      <c r="K76" s="50">
+      <c r="K76" s="46">
         <f>SUM(B76:I76)</f>
         <v>96</v>
       </c>
-      <c r="L76" s="50"/>
+      <c r="L76" s="46"/>
       <c r="N76" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -2697,6 +2697,30 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="B14:H15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="B23:K24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B32:I33"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="F40:G40"/>
     <mergeCell ref="B72:I73"/>
     <mergeCell ref="K75:L75"/>
     <mergeCell ref="K76:L76"/>
@@ -2707,30 +2731,6 @@
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B67:C68"/>
     <mergeCell ref="E67:E68"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="B23:K24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="B32:I33"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="B14:H15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2741,36 +2741,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C86BD6-21E5-4E44-BF61-9A65607E6D85}">
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" s="57" t="s">
         <v>76</v>
       </c>
@@ -2789,7 +2789,7 @@
       <c r="O2" s="58"/>
       <c r="P2" s="59"/>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="60"/>
       <c r="C3" s="61"/>
       <c r="D3" s="61"/>
@@ -2807,29 +2807,29 @@
       <c r="P3" s="62"/>
       <c r="R3" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="46" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
-      <c r="H5" s="46" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
+      <c r="H5" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="K5" s="46" t="s">
+      <c r="I5" s="51"/>
+      <c r="K5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="48"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="51"/>
       <c r="P5" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>175</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -2889,40 +2889,40 @@
       </c>
       <c r="P7" s="2"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="49" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="49"/>
+      <c r="C9" s="45"/>
       <c r="E9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="49"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="50">
+      <c r="H9" s="45"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="46">
         <f>SUM(B7:F7,H7:I7,K7:N7,P7)</f>
         <v>14</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="G10" s="50">
+      <c r="C10" s="46"/>
+      <c r="E10" s="55"/>
+      <c r="G10" s="46">
         <f>66-SUM(B7:F7,H7:I7,K7:N7,P7)</f>
         <v>52</v>
       </c>
-      <c r="H10" s="50"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="E11" s="52"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-    </row>
-    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="46"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="E11" s="56"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -2943,8 +2943,8 @@
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
     </row>
-    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" s="57" t="s">
         <v>77</v>
       </c>
@@ -2955,7 +2955,7 @@
       <c r="G14" s="58"/>
       <c r="H14" s="59"/>
     </row>
-    <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="60"/>
       <c r="C15" s="61"/>
       <c r="D15" s="61"/>
@@ -2964,32 +2964,32 @@
       <c r="G15" s="61"/>
       <c r="H15" s="62"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B17" s="45" t="s">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="H17" s="46" t="s">
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="H17" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
-      <c r="L17" s="49" t="s">
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
+      <c r="L17" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="49"/>
-      <c r="O17" s="49" t="s">
+      <c r="M17" s="45"/>
+      <c r="O17" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="49"/>
+      <c r="P17" s="45"/>
       <c r="R17" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>159</v>
       </c>
@@ -3014,19 +3014,19 @@
       <c r="J18" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="L18" s="50">
+      <c r="L18" s="46">
         <f>SUM(B19:F19,H19:J19)</f>
         <v>21</v>
       </c>
-      <c r="M18" s="50"/>
-      <c r="O18" s="50">
+      <c r="M18" s="46"/>
+      <c r="O18" s="46">
         <f>50-SUM(B19:F19,H19:J19)</f>
         <v>29</v>
       </c>
-      <c r="P18" s="50"/>
-      <c r="R18" s="54"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P18" s="46"/>
+      <c r="R18" s="48"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -3037,13 +3037,13 @@
         <v>21</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="R19" s="54"/>
-    </row>
-    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="R19" s="48"/>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -3064,8 +3064,8 @@
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
     </row>
-    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="57" t="s">
         <v>79</v>
       </c>
@@ -3079,12 +3079,12 @@
       <c r="J23" s="58"/>
       <c r="K23" s="58"/>
       <c r="L23" s="59"/>
-      <c r="N23" s="50" t="s">
+      <c r="N23" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="O23" s="50"/>
-    </row>
-    <row r="24" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O23" s="46"/>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="60"/>
       <c r="C24" s="61"/>
       <c r="D24" s="61"/>
@@ -3096,31 +3096,31 @@
       <c r="J24" s="61"/>
       <c r="K24" s="61"/>
       <c r="L24" s="62"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B26" s="45" t="s">
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="F26" s="45" t="s">
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="F26" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="46" t="s">
+      <c r="K26" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="L26" s="48"/>
+      <c r="L26" s="51"/>
       <c r="N26" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>130</v>
       </c>
@@ -3148,9 +3148,9 @@
       <c r="L27" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N27" s="51"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N27" s="55"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>6.5</v>
       </c>
@@ -3172,9 +3172,9 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="N28" s="52"/>
-    </row>
-    <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N28" s="56"/>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -3195,8 +3195,8 @@
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
     </row>
-    <row r="31" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B32" s="57" t="s">
         <v>78</v>
       </c>
@@ -3208,7 +3208,7 @@
       <c r="H32" s="58"/>
       <c r="I32" s="59"/>
     </row>
-    <row r="33" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="60"/>
       <c r="C33" s="61"/>
       <c r="D33" s="61"/>
@@ -3218,20 +3218,20 @@
       <c r="H33" s="61"/>
       <c r="I33" s="62"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="45" t="s">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="45"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="46" t="s">
+      <c r="E35" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="48"/>
-    </row>
-    <row r="36" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="51"/>
+    </row>
+    <row r="36" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>6</v>
       </c>
@@ -3252,14 +3252,16 @@
       </c>
       <c r="O36" s="7"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>5</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="2">
+        <v>20</v>
+      </c>
       <c r="E37" s="2">
         <f>C56</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F37" s="2">
         <f>G51</f>
@@ -3269,22 +3271,22 @@
       <c r="H37" s="2"/>
       <c r="O37" s="7"/>
     </row>
-    <row r="40" spans="2:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="55" t="s">
+    <row r="40" spans="2:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="F40" s="50" t="s">
+      <c r="C40" s="53"/>
+      <c r="F40" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="50"/>
+      <c r="G40" s="46"/>
       <c r="I40" s="9" t="s">
         <v>22</v>
       </c>
       <c r="J40" s="11"/>
       <c r="L40" s="11"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>103</v>
       </c>
@@ -3299,16 +3301,18 @@
       </c>
       <c r="I41" s="2">
         <f>SUM(B37:C37,E37:H37)</f>
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="J41" s="7"/>
       <c r="L41" s="7"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42" s="2">
+        <v>2</v>
+      </c>
       <c r="F42" s="2" t="s">
         <v>118</v>
       </c>
@@ -3318,7 +3322,7 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>105</v>
       </c>
@@ -3329,11 +3333,11 @@
         <v>119</v>
       </c>
       <c r="G43" s="2"/>
-      <c r="I43" s="49" t="s">
+      <c r="I43" s="45" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>106</v>
       </c>
@@ -3344,9 +3348,9 @@
         <v>120</v>
       </c>
       <c r="G44" s="2"/>
-      <c r="I44" s="49"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I44" s="45"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>107</v>
       </c>
@@ -3359,7 +3363,7 @@
       <c r="G45" s="2"/>
       <c r="I45" s="13"/>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>108</v>
       </c>
@@ -3369,7 +3373,7 @@
       </c>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>109</v>
       </c>
@@ -3382,7 +3386,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>110</v>
       </c>
@@ -3395,10 +3399,10 @@
       <c r="G48" s="2"/>
       <c r="I48" s="2">
         <f>50-SUM(B37:C37,E37:H37)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>111</v>
       </c>
@@ -3408,7 +3412,7 @@
       </c>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>112</v>
       </c>
@@ -3416,7 +3420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>113</v>
       </c>
@@ -3431,34 +3435,36 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C52" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C54" s="2"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C56" s="2">
         <f>SUM(C41:C54)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -3479,8 +3485,8 @@
       <c r="R58" s="6"/>
       <c r="S58" s="6"/>
     </row>
-    <row r="59" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="57" t="s">
         <v>80</v>
       </c>
@@ -3502,7 +3508,7 @@
       <c r="R60" s="58"/>
       <c r="S60" s="59"/>
     </row>
-    <row r="61" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="60"/>
       <c r="C61" s="61"/>
       <c r="D61" s="61"/>
@@ -3522,31 +3528,31 @@
       <c r="R61" s="61"/>
       <c r="S61" s="62"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B63" s="45" t="s">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B63" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="45"/>
-      <c r="H63" s="45"/>
-      <c r="I63" s="45"/>
-      <c r="J63" s="45"/>
-      <c r="K63" s="45"/>
-      <c r="M63" s="45" t="s">
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
+      <c r="M63" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="N63" s="45"/>
-      <c r="O63" s="45"/>
-      <c r="P63" s="45"/>
-      <c r="R63" s="45" t="s">
+      <c r="N63" s="47"/>
+      <c r="O63" s="47"/>
+      <c r="P63" s="47"/>
+      <c r="R63" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="S63" s="45"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S63" s="47"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>49</v>
       </c>
@@ -3596,7 +3602,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B65" s="2">
         <v>2</v>
       </c>
@@ -3624,7 +3630,9 @@
       <c r="J65" s="2">
         <v>2</v>
       </c>
-      <c r="K65" s="2"/>
+      <c r="K65" s="2">
+        <v>2</v>
+      </c>
       <c r="M65" s="2">
         <v>5</v>
       </c>
@@ -3636,71 +3644,49 @@
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
       <c r="J67" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B68" s="49" t="s">
+    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B68" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C68" s="49"/>
+      <c r="C68" s="45"/>
       <c r="E68" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G68" s="49" t="s">
+      <c r="G68" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="H68" s="49"/>
+      <c r="H68" s="45"/>
       <c r="J68" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B69" s="50">
+    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B69" s="46">
         <f>SUM(B65:K65,M65:P65,R65:S65)+J68</f>
-        <v>32.5</v>
-      </c>
-      <c r="C69" s="50"/>
-      <c r="E69" s="54"/>
-      <c r="G69" s="50">
+        <v>34.5</v>
+      </c>
+      <c r="C69" s="46"/>
+      <c r="E69" s="48"/>
+      <c r="G69" s="46">
         <f>50-SUM(B65:K65,M65:P65,R65:S65,J68)</f>
-        <v>17.5</v>
-      </c>
-      <c r="H69" s="50"/>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B70" s="50"/>
-      <c r="C70" s="50"/>
-      <c r="E70" s="54"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="50"/>
+        <v>15.5</v>
+      </c>
+      <c r="H69" s="46"/>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B70" s="46"/>
+      <c r="C70" s="46"/>
+      <c r="E70" s="48"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="B32:I33"/>
-    <mergeCell ref="B63:K63"/>
-    <mergeCell ref="B60:S61"/>
-    <mergeCell ref="M63:P63"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B23:L24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C70"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G69:H70"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="B14:H15"/>
     <mergeCell ref="K5:N5"/>
@@ -3717,6 +3703,28 @@
     <mergeCell ref="E35:H35"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H11"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C70"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H70"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B23:L24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="B32:I33"/>
+    <mergeCell ref="B63:K63"/>
+    <mergeCell ref="B60:S61"/>
+    <mergeCell ref="M63:P63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3732,16 +3740,16 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.88671875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="16" customWidth="1"/>
     <col min="6" max="6" width="97" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="15" t="s">
         <v>148</v>
       </c>
@@ -3755,7 +3763,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="b">
         <v>1</v>
       </c>
@@ -3772,7 +3780,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="b">
         <v>0</v>
       </c>
@@ -3789,7 +3797,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="b">
         <v>0</v>
       </c>
@@ -3806,10 +3814,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C6" s="31"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="b">
         <v>1</v>
       </c>
@@ -3826,7 +3834,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="b">
         <v>1</v>
       </c>
@@ -3843,7 +3851,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="b">
         <v>1</v>
       </c>
@@ -3860,7 +3868,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="b">
         <v>0</v>
       </c>
@@ -3877,7 +3885,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="b">
         <v>0</v>
       </c>
@@ -3894,10 +3902,10 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C12" s="31"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="b">
         <v>1</v>
       </c>
@@ -3914,7 +3922,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="b">
         <v>1</v>
       </c>
@@ -3931,7 +3939,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="b">
         <v>1</v>
       </c>
@@ -3948,7 +3956,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="b">
         <v>0</v>
       </c>
@@ -3965,7 +3973,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="b">
         <v>0</v>
       </c>
@@ -3982,7 +3990,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="b">
         <v>0</v>
       </c>
@@ -3999,11 +4007,11 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C19" s="31"/>
       <c r="D19" s="22"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="b">
         <v>0</v>
       </c>
@@ -4017,7 +4025,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="19" t="b">
         <v>0</v>
       </c>
@@ -4031,11 +4039,11 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C22" s="31"/>
       <c r="D22" s="22"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="23" t="b">
         <v>1</v>
       </c>
@@ -4052,7 +4060,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="23" t="b">
         <v>1</v>
       </c>
@@ -4069,7 +4077,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="23" t="b">
         <v>1</v>
       </c>
@@ -4086,7 +4094,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="23" t="b">
         <v>1</v>
       </c>
@@ -4103,7 +4111,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="19" t="b">
         <v>1</v>
       </c>
@@ -4120,7 +4128,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="19" t="b">
         <v>0</v>
       </c>
@@ -4137,7 +4145,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="19" t="b">
         <v>0</v>
       </c>
@@ -4154,10 +4162,10 @@
         <v>212</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C30" s="31"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="23" t="b">
         <v>1</v>
       </c>
@@ -4174,10 +4182,10 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C32" s="31"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="23" t="b">
         <v>1</v>
       </c>
@@ -4194,7 +4202,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="19" t="b">
         <v>0</v>
       </c>
@@ -4223,21 +4231,21 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="63" t="s">
         <v>203</v>
       </c>
@@ -4254,7 +4262,7 @@
       <c r="K2" s="64"/>
       <c r="L2" s="65"/>
     </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="34" t="s">
         <v>148</v>
       </c>
@@ -4283,7 +4291,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="37" t="s">
         <v>133</v>
       </c>
@@ -4308,7 +4316,7 @@
       </c>
       <c r="L4" s="14"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
         <v>134</v>
       </c>
@@ -4333,7 +4341,7 @@
       </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
         <v>135</v>
       </c>
@@ -4358,7 +4366,7 @@
       </c>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="38" t="s">
         <v>136</v>
       </c>
@@ -4383,7 +4391,7 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="38" t="s">
         <v>137</v>
       </c>
@@ -4408,7 +4416,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="38" t="s">
         <v>138</v>
       </c>
@@ -4425,8 +4433,8 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="66" t="s">
         <v>197</v>
       </c>

--- a/IoT-points-schedule.xlsx
+++ b/IoT-points-schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jczec\Pulpit\IoT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E04C3D-8B56-4E8B-A62A-0B9BB21AA4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE925AE0-6BC7-45EE-ADE6-8F7E3C664EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{F85F5544-1FE8-4920-A5D4-192A98B113BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F85F5544-1FE8-4920-A5D4-192A98B113BD}"/>
   </bookViews>
   <sheets>
     <sheet name="I-semestr-24Z" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="214">
   <si>
     <t>1. Krypto</t>
   </si>
@@ -1039,7 +1039,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1179,42 +1179,42 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1246,6 +1246,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1611,8 +1629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5356A30-E1AA-4069-A4C8-FC0BE8204C56}">
   <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V45" sqref="V45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1677,23 +1695,23 @@
       <c r="R3" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
       <c r="I5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="49" t="s">
+      <c r="K5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="51"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="48"/>
       <c r="P5" s="4" t="s">
         <v>74</v>
       </c>
@@ -1775,28 +1793,28 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="45"/>
+      <c r="C9" s="49"/>
       <c r="E9" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="46">
+      <c r="B10" s="50">
         <f>_xlfn.CEILING.MATH(SUM(B7:G7,I7,K7:N7,P7),1,1)</f>
         <v>110</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="E10" s="55">
+      <c r="C10" s="50"/>
+      <c r="E10" s="51">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="E11" s="56"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="E11" s="52"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
@@ -1841,20 +1859,20 @@
       <c r="H15" s="44"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="F17" s="47" t="s">
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="F17" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="J17" s="45" t="s">
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="J17" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="45"/>
+      <c r="K17" s="49"/>
       <c r="M17" s="9" t="s">
         <v>67</v>
       </c>
@@ -1878,12 +1896,12 @@
       <c r="H18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="46">
+      <c r="J18" s="50">
         <f>SUM(B19:D19,F19:H19)</f>
         <v>93</v>
       </c>
-      <c r="K18" s="46"/>
-      <c r="M18" s="48">
+      <c r="K18" s="50"/>
+      <c r="M18" s="54">
         <v>5</v>
       </c>
     </row>
@@ -1906,9 +1924,9 @@
       <c r="H19" s="2">
         <v>4</v>
       </c>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="M19" s="48"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="M19" s="54"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
@@ -1959,20 +1977,20 @@
       <c r="K24" s="44"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="47"/>
-      <c r="E26" s="49" t="s">
+      <c r="C26" s="45"/>
+      <c r="E26" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="50"/>
-      <c r="G26" s="51"/>
-      <c r="I26" s="47" t="s">
+      <c r="F26" s="47"/>
+      <c r="G26" s="48"/>
+      <c r="I26" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
       <c r="M26" s="10" t="s">
         <v>22</v>
       </c>
@@ -2007,12 +2025,12 @@
       <c r="K27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M27" s="54">
+      <c r="M27" s="53">
         <f>SUM(B28:C28,E28:G28,I28:K28)</f>
         <v>36</v>
       </c>
       <c r="N27" s="7"/>
-      <c r="O27" s="48">
+      <c r="O27" s="54">
         <v>4</v>
       </c>
       <c r="P27" s="8"/>
@@ -2042,9 +2060,9 @@
       <c r="K28" s="2">
         <v>3.2</v>
       </c>
-      <c r="M28" s="54"/>
+      <c r="M28" s="53"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="48"/>
+      <c r="O28" s="54"/>
       <c r="P28" s="8"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2092,17 +2110,17 @@
       <c r="I33" s="44"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="F35" s="47" t="s">
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="F35" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
     </row>
@@ -2159,14 +2177,14 @@
       <c r="O37" s="7"/>
     </row>
     <row r="40" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="F40" s="46" t="s">
+      <c r="C40" s="56"/>
+      <c r="F40" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="46"/>
+      <c r="G40" s="50"/>
       <c r="I40" s="9" t="s">
         <v>22</v>
       </c>
@@ -2222,7 +2240,7 @@
       <c r="G43" s="2">
         <v>0.44</v>
       </c>
-      <c r="I43" s="45" t="s">
+      <c r="I43" s="49" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2239,7 +2257,7 @@
       <c r="G44" s="2">
         <v>1</v>
       </c>
-      <c r="I44" s="45"/>
+      <c r="I44" s="49"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
@@ -2423,27 +2441,27 @@
       <c r="R59" s="44"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B61" s="47" t="s">
+      <c r="B61" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="47"/>
-      <c r="M61" s="47" t="s">
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="45"/>
+      <c r="M61" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="N61" s="47"/>
-      <c r="O61" s="47"/>
-      <c r="Q61" s="47" t="s">
+      <c r="N61" s="45"/>
+      <c r="O61" s="45"/>
+      <c r="Q61" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="R61" s="47"/>
+      <c r="R61" s="45"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
@@ -2540,28 +2558,28 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B66" s="45" t="s">
+      <c r="B66" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="45"/>
+      <c r="C66" s="49"/>
       <c r="E66" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B67" s="46">
+      <c r="B67" s="50">
         <f xml:space="preserve"> SUM(B63:K63,M63:O63,Q63:R63)</f>
         <v>85.5</v>
       </c>
-      <c r="C67" s="46"/>
-      <c r="E67" s="48">
+      <c r="C67" s="50"/>
+      <c r="E67" s="54">
         <v>4.5</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B68" s="46"/>
-      <c r="C68" s="46"/>
-      <c r="E68" s="48"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="50"/>
+      <c r="E68" s="54"/>
     </row>
     <row r="70" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
@@ -2632,10 +2650,10 @@
       <c r="I75" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="K75" s="45" t="s">
+      <c r="K75" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L75" s="45"/>
+      <c r="L75" s="49"/>
       <c r="N75" s="9" t="s">
         <v>67</v>
       </c>
@@ -2665,11 +2683,11 @@
       <c r="I76" s="2">
         <v>5</v>
       </c>
-      <c r="K76" s="46">
+      <c r="K76" s="50">
         <f>SUM(B76:I76)</f>
         <v>96</v>
       </c>
-      <c r="L76" s="46"/>
+      <c r="L76" s="50"/>
       <c r="N76" s="13">
         <v>5</v>
       </c>
@@ -2697,20 +2715,16 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="B14:H15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K19"/>
-    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="B72:I73"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="B58:R59"/>
+    <mergeCell ref="B61:K61"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C68"/>
+    <mergeCell ref="E67:E68"/>
     <mergeCell ref="I43:I44"/>
     <mergeCell ref="B23:K24"/>
     <mergeCell ref="B26:C26"/>
@@ -2721,16 +2735,20 @@
     <mergeCell ref="F35:I35"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="F40:G40"/>
-    <mergeCell ref="B72:I73"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="B58:R59"/>
-    <mergeCell ref="B61:K61"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="B14:H15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2741,8 +2759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C86BD6-21E5-4E44-BF61-9A65607E6D85}">
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K70" sqref="K70"/>
+    <sheetView topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2808,23 +2826,23 @@
       <c r="R3" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
-      <c r="H5" s="49" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48"/>
+      <c r="H5" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="51"/>
-      <c r="K5" s="49" t="s">
+      <c r="I5" s="48"/>
+      <c r="K5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="51"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="48"/>
       <c r="P5" s="4" t="s">
         <v>74</v>
       </c>
@@ -2845,7 +2863,9 @@
       <c r="F6" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="I6" s="2" t="s">
         <v>212</v>
       </c>
@@ -2875,10 +2895,18 @@
       <c r="D7" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4.9000000000000004</v>
+      </c>
       <c r="K7" s="2">
         <v>4</v>
       </c>
@@ -2890,37 +2918,37 @@
       <c r="P7" s="2"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="45"/>
+      <c r="C9" s="49"/>
       <c r="E9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="45"/>
+      <c r="H9" s="49"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="46">
+      <c r="B10" s="50">
         <f>SUM(B7:F7,H7:I7,K7:N7,P7)</f>
-        <v>14</v>
-      </c>
-      <c r="C10" s="46"/>
-      <c r="E10" s="55"/>
-      <c r="G10" s="46">
+        <v>29.9</v>
+      </c>
+      <c r="C10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="G10" s="50">
         <f>66-SUM(B7:F7,H7:I7,K7:N7,P7)</f>
-        <v>52</v>
-      </c>
-      <c r="H10" s="46"/>
+        <v>36.1</v>
+      </c>
+      <c r="H10" s="50"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="E11" s="56"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="E11" s="52"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
@@ -2965,26 +2993,26 @@
       <c r="H15" s="62"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="H17" s="49" t="s">
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="H17" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
-      <c r="L17" s="45" t="s">
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
+      <c r="L17" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="45"/>
-      <c r="O17" s="45" t="s">
+      <c r="M17" s="49"/>
+      <c r="O17" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="45"/>
+      <c r="P17" s="49"/>
       <c r="R17" s="9" t="s">
         <v>67</v>
       </c>
@@ -3014,34 +3042,38 @@
       <c r="J18" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="L18" s="46">
+      <c r="L18" s="50">
         <f>SUM(B19:F19,H19:J19)</f>
-        <v>21</v>
-      </c>
-      <c r="M18" s="46"/>
-      <c r="O18" s="46">
+        <v>34.5</v>
+      </c>
+      <c r="M18" s="50"/>
+      <c r="O18" s="50">
         <f>50-SUM(B19:F19,H19:J19)</f>
-        <v>29</v>
-      </c>
-      <c r="P18" s="46"/>
-      <c r="R18" s="48"/>
+        <v>15.5</v>
+      </c>
+      <c r="P18" s="50"/>
+      <c r="R18" s="54"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2">
+        <v>7</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2">
+        <v>6.5</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2">
         <v>21</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="R19" s="48"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="R19" s="54"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
@@ -3079,10 +3111,10 @@
       <c r="J23" s="58"/>
       <c r="K23" s="58"/>
       <c r="L23" s="59"/>
-      <c r="N23" s="46" t="s">
+      <c r="N23" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="O23" s="46"/>
+      <c r="O23" s="50"/>
     </row>
     <row r="24" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="60"/>
@@ -3096,26 +3128,26 @@
       <c r="J24" s="61"/>
       <c r="K24" s="61"/>
       <c r="L24" s="62"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="F26" s="47" t="s">
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="F26" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="49" t="s">
+      <c r="K26" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="L26" s="51"/>
+      <c r="L26" s="48"/>
       <c r="N26" s="9" t="s">
         <v>67</v>
       </c>
@@ -3148,7 +3180,7 @@
       <c r="L27" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N27" s="55"/>
+      <c r="N27" s="51"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
@@ -3172,7 +3204,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="N28" s="56"/>
+      <c r="N28" s="52"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
@@ -3197,39 +3229,39 @@
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="59"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="70"/>
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="60"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="62"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="73"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="47"/>
+      <c r="C35" s="45"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="49" t="s">
+      <c r="E35" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="51"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="48"/>
     </row>
     <row r="36" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
@@ -3272,14 +3304,14 @@
       <c r="O37" s="7"/>
     </row>
     <row r="40" spans="2:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="F40" s="46" t="s">
+      <c r="C40" s="56"/>
+      <c r="F40" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="46"/>
+      <c r="G40" s="50"/>
       <c r="I40" s="9" t="s">
         <v>22</v>
       </c>
@@ -3333,7 +3365,7 @@
         <v>119</v>
       </c>
       <c r="G43" s="2"/>
-      <c r="I43" s="45" t="s">
+      <c r="I43" s="49" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3348,7 +3380,7 @@
         <v>120</v>
       </c>
       <c r="G44" s="2"/>
-      <c r="I44" s="45"/>
+      <c r="I44" s="49"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
@@ -3529,28 +3561,28 @@
       <c r="S61" s="62"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B63" s="47" t="s">
+      <c r="B63" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-      <c r="J63" s="47"/>
-      <c r="K63" s="47"/>
-      <c r="M63" s="47" t="s">
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
+      <c r="J63" s="45"/>
+      <c r="K63" s="45"/>
+      <c r="M63" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="N63" s="47"/>
-      <c r="O63" s="47"/>
-      <c r="P63" s="47"/>
-      <c r="R63" s="47" t="s">
+      <c r="N63" s="45"/>
+      <c r="O63" s="45"/>
+      <c r="P63" s="45"/>
+      <c r="R63" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="S63" s="47"/>
+      <c r="S63" s="45"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
@@ -3650,43 +3682,65 @@
       </c>
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B68" s="45" t="s">
+      <c r="B68" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C68" s="45"/>
+      <c r="C68" s="49"/>
       <c r="E68" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G68" s="45" t="s">
+      <c r="G68" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="H68" s="45"/>
+      <c r="H68" s="49"/>
       <c r="J68" s="1">
         <v>4.5</v>
       </c>
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B69" s="46">
+      <c r="B69" s="50">
         <f>SUM(B65:K65,M65:P65,R65:S65)+J68</f>
         <v>34.5</v>
       </c>
-      <c r="C69" s="46"/>
-      <c r="E69" s="48"/>
-      <c r="G69" s="46">
+      <c r="C69" s="50"/>
+      <c r="E69" s="54"/>
+      <c r="G69" s="50">
         <f>50-SUM(B65:K65,M65:P65,R65:S65,J68)</f>
         <v>15.5</v>
       </c>
-      <c r="H69" s="46"/>
+      <c r="H69" s="50"/>
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B70" s="46"/>
-      <c r="C70" s="46"/>
-      <c r="E70" s="48"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="46"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="50"/>
+      <c r="E70" s="54"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="B32:I33"/>
+    <mergeCell ref="B63:K63"/>
+    <mergeCell ref="B60:S61"/>
+    <mergeCell ref="M63:P63"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B23:L24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C70"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H70"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="B14:H15"/>
     <mergeCell ref="K5:N5"/>
@@ -3703,28 +3757,6 @@
     <mergeCell ref="E35:H35"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H11"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C70"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G69:H70"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B23:L24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="B32:I33"/>
-    <mergeCell ref="B63:K63"/>
-    <mergeCell ref="B60:S61"/>
-    <mergeCell ref="M63:P63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3736,8 +3768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEAA0BBB-B59A-4C0E-8304-D0FA810EECB4}">
   <dimension ref="B1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3781,19 +3813,19 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="24">
         <v>45810</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="24" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3869,36 +3901,36 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="24">
         <v>45785</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="24" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="24">
         <v>45799</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="24" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3940,36 +3972,36 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="b">
+      <c r="B15" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="24">
         <v>45782</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="24" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="24">
         <v>45796</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="24" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4024,6 +4056,7 @@
       <c r="E20" s="17" t="s">
         <v>173</v>
       </c>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="19" t="b">
@@ -4112,53 +4145,53 @@
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="19" t="b">
+      <c r="B27" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="27">
         <v>45784</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="27" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="C28" s="21" t="s">
+      <c r="B28" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="27">
         <v>45798</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="27" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="C29" s="21" t="s">
+      <c r="B29" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="27">
         <v>45812</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="27" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4203,18 +4236,19 @@
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="C34" s="21" t="s">
+      <c r="B34" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="27">
         <v>45775</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="27" t="s">
         <v>150</v>
       </c>
+      <c r="F34" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/IoT-points-schedule.xlsx
+++ b/IoT-points-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jczec\Pulpit\IoT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE925AE0-6BC7-45EE-ADE6-8F7E3C664EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15913544-CB26-4109-B429-4DF69BC58E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F85F5544-1FE8-4920-A5D4-192A98B113BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{F85F5544-1FE8-4920-A5D4-192A98B113BD}"/>
   </bookViews>
   <sheets>
     <sheet name="I-semestr-24Z" sheetId="2" r:id="rId1"/>
@@ -1179,9 +1179,18 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1191,10 +1200,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1203,17 +1215,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1246,24 +1264,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1629,7 +1629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5356A30-E1AA-4069-A4C8-FC0BE8204C56}">
   <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V45" sqref="V45"/>
     </sheetView>
   </sheetViews>
@@ -1695,23 +1695,23 @@
       <c r="R3" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
       <c r="I5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="48"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="51"/>
       <c r="P5" s="4" t="s">
         <v>74</v>
       </c>
@@ -1793,28 +1793,28 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="49"/>
+      <c r="C9" s="45"/>
       <c r="E9" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="50">
+      <c r="B10" s="46">
         <f>_xlfn.CEILING.MATH(SUM(B7:G7,I7,K7:N7,P7),1,1)</f>
         <v>110</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="E10" s="51">
+      <c r="C10" s="46"/>
+      <c r="E10" s="55">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="E11" s="52"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="E11" s="56"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
@@ -1859,20 +1859,20 @@
       <c r="H15" s="44"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="F17" s="45" t="s">
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="F17" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="J17" s="49" t="s">
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="J17" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="49"/>
+      <c r="K17" s="45"/>
       <c r="M17" s="9" t="s">
         <v>67</v>
       </c>
@@ -1896,12 +1896,12 @@
       <c r="H18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="50">
+      <c r="J18" s="46">
         <f>SUM(B19:D19,F19:H19)</f>
         <v>93</v>
       </c>
-      <c r="K18" s="50"/>
-      <c r="M18" s="54">
+      <c r="K18" s="46"/>
+      <c r="M18" s="48">
         <v>5</v>
       </c>
     </row>
@@ -1924,9 +1924,9 @@
       <c r="H19" s="2">
         <v>4</v>
       </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="M19" s="54"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="M19" s="48"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
@@ -1977,20 +1977,20 @@
       <c r="K24" s="44"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="E26" s="46" t="s">
+      <c r="C26" s="47"/>
+      <c r="E26" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="47"/>
-      <c r="G26" s="48"/>
-      <c r="I26" s="45" t="s">
+      <c r="F26" s="50"/>
+      <c r="G26" s="51"/>
+      <c r="I26" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
       <c r="M26" s="10" t="s">
         <v>22</v>
       </c>
@@ -2025,12 +2025,12 @@
       <c r="K27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M27" s="53">
+      <c r="M27" s="54">
         <f>SUM(B28:C28,E28:G28,I28:K28)</f>
         <v>36</v>
       </c>
       <c r="N27" s="7"/>
-      <c r="O27" s="54">
+      <c r="O27" s="48">
         <v>4</v>
       </c>
       <c r="P27" s="8"/>
@@ -2060,9 +2060,9 @@
       <c r="K28" s="2">
         <v>3.2</v>
       </c>
-      <c r="M28" s="53"/>
+      <c r="M28" s="54"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="54"/>
+      <c r="O28" s="48"/>
       <c r="P28" s="8"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2110,17 +2110,17 @@
       <c r="I33" s="44"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="F35" s="45" t="s">
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="F35" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
     </row>
@@ -2177,14 +2177,14 @@
       <c r="O37" s="7"/>
     </row>
     <row r="40" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="F40" s="50" t="s">
+      <c r="C40" s="53"/>
+      <c r="F40" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="50"/>
+      <c r="G40" s="46"/>
       <c r="I40" s="9" t="s">
         <v>22</v>
       </c>
@@ -2240,7 +2240,7 @@
       <c r="G43" s="2">
         <v>0.44</v>
       </c>
-      <c r="I43" s="49" t="s">
+      <c r="I43" s="45" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
       <c r="G44" s="2">
         <v>1</v>
       </c>
-      <c r="I44" s="49"/>
+      <c r="I44" s="45"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
@@ -2441,27 +2441,27 @@
       <c r="R59" s="44"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B61" s="45" t="s">
+      <c r="B61" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="45"/>
-      <c r="M61" s="45" t="s">
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="47"/>
+      <c r="M61" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="N61" s="45"/>
-      <c r="O61" s="45"/>
-      <c r="Q61" s="45" t="s">
+      <c r="N61" s="47"/>
+      <c r="O61" s="47"/>
+      <c r="Q61" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="R61" s="45"/>
+      <c r="R61" s="47"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
@@ -2558,28 +2558,28 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B66" s="49" t="s">
+      <c r="B66" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="49"/>
+      <c r="C66" s="45"/>
       <c r="E66" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B67" s="50">
+      <c r="B67" s="46">
         <f xml:space="preserve"> SUM(B63:K63,M63:O63,Q63:R63)</f>
         <v>85.5</v>
       </c>
-      <c r="C67" s="50"/>
-      <c r="E67" s="54">
+      <c r="C67" s="46"/>
+      <c r="E67" s="48">
         <v>4.5</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B68" s="50"/>
-      <c r="C68" s="50"/>
-      <c r="E68" s="54"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="E68" s="48"/>
     </row>
     <row r="70" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
@@ -2650,10 +2650,10 @@
       <c r="I75" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="K75" s="49" t="s">
+      <c r="K75" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="L75" s="49"/>
+      <c r="L75" s="45"/>
       <c r="N75" s="9" t="s">
         <v>67</v>
       </c>
@@ -2683,11 +2683,11 @@
       <c r="I76" s="2">
         <v>5</v>
       </c>
-      <c r="K76" s="50">
+      <c r="K76" s="46">
         <f>SUM(B76:I76)</f>
         <v>96</v>
       </c>
-      <c r="L76" s="50"/>
+      <c r="L76" s="46"/>
       <c r="N76" s="13">
         <v>5</v>
       </c>
@@ -2715,6 +2715,30 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="B14:H15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="B23:K24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B32:I33"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="F40:G40"/>
     <mergeCell ref="B72:I73"/>
     <mergeCell ref="K75:L75"/>
     <mergeCell ref="K76:L76"/>
@@ -2725,30 +2749,6 @@
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B67:C68"/>
     <mergeCell ref="E67:E68"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="B23:K24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="B32:I33"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="B14:H15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2759,8 +2759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C86BD6-21E5-4E44-BF61-9A65607E6D85}">
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2789,60 +2789,60 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="59"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="65"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="68"/>
       <c r="R3" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
-      <c r="H5" s="46" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
+      <c r="H5" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="K5" s="46" t="s">
+      <c r="I5" s="51"/>
+      <c r="K5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="48"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="51"/>
       <c r="P5" s="4" t="s">
         <v>74</v>
       </c>
@@ -2918,37 +2918,37 @@
       <c r="P7" s="2"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="49"/>
+      <c r="C9" s="45"/>
       <c r="E9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="49"/>
+      <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="50">
+      <c r="B10" s="46">
         <f>SUM(B7:F7,H7:I7,K7:N7,P7)</f>
         <v>29.9</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="G10" s="50">
+      <c r="C10" s="46"/>
+      <c r="E10" s="55"/>
+      <c r="G10" s="46">
         <f>66-SUM(B7:F7,H7:I7,K7:N7,P7)</f>
         <v>36.1</v>
       </c>
-      <c r="H10" s="50"/>
+      <c r="H10" s="46"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="E11" s="52"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="E11" s="56"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
@@ -2973,46 +2973,46 @@
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="65"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="62"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="68"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="H17" s="46" t="s">
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="H17" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
-      <c r="L17" s="49" t="s">
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
+      <c r="L17" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="49"/>
-      <c r="O17" s="49" t="s">
+      <c r="M17" s="45"/>
+      <c r="O17" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="49"/>
+      <c r="P17" s="45"/>
       <c r="R17" s="9" t="s">
         <v>67</v>
       </c>
@@ -3042,17 +3042,17 @@
       <c r="J18" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="L18" s="50">
+      <c r="L18" s="46">
         <f>SUM(B19:F19,H19:J19)</f>
-        <v>34.5</v>
-      </c>
-      <c r="M18" s="50"/>
-      <c r="O18" s="50">
+        <v>47</v>
+      </c>
+      <c r="M18" s="46"/>
+      <c r="O18" s="46">
         <f>50-SUM(B19:F19,H19:J19)</f>
-        <v>15.5</v>
-      </c>
-      <c r="P18" s="50"/>
-      <c r="R18" s="54"/>
+        <v>3</v>
+      </c>
+      <c r="P18" s="46"/>
+      <c r="R18" s="48"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
@@ -3068,12 +3068,14 @@
       <c r="I19" s="2">
         <v>21</v>
       </c>
-      <c r="J19" s="2"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="R19" s="54"/>
+      <c r="J19" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="R19" s="48"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
@@ -3098,56 +3100,56 @@
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="59"/>
-      <c r="N23" s="50" t="s">
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="65"/>
+      <c r="N23" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="O23" s="50"/>
+      <c r="O23" s="46"/>
     </row>
     <row r="24" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="60"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="62"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="68"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="F26" s="45" t="s">
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="F26" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="46" t="s">
+      <c r="K26" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="L26" s="48"/>
+      <c r="L26" s="51"/>
       <c r="N26" s="9" t="s">
         <v>67</v>
       </c>
@@ -3180,7 +3182,7 @@
       <c r="L27" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N27" s="51"/>
+      <c r="N27" s="55"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
@@ -3204,7 +3206,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="N28" s="52"/>
+      <c r="N28" s="56"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
@@ -3229,39 +3231,39 @@
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="68" t="s">
+      <c r="B32" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="70"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="59"/>
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="71"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="73"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="62"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="45"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="46" t="s">
+      <c r="E35" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="48"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="51"/>
     </row>
     <row r="36" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
@@ -3304,14 +3306,14 @@
       <c r="O37" s="7"/>
     </row>
     <row r="40" spans="2:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="F40" s="50" t="s">
+      <c r="C40" s="53"/>
+      <c r="F40" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="50"/>
+      <c r="G40" s="46"/>
       <c r="I40" s="9" t="s">
         <v>22</v>
       </c>
@@ -3365,7 +3367,7 @@
         <v>119</v>
       </c>
       <c r="G43" s="2"/>
-      <c r="I43" s="49" t="s">
+      <c r="I43" s="45" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3380,7 +3382,7 @@
         <v>120</v>
       </c>
       <c r="G44" s="2"/>
-      <c r="I44" s="49"/>
+      <c r="I44" s="45"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
@@ -3519,70 +3521,70 @@
     </row>
     <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="57" t="s">
+      <c r="B60" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="58"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="58"/>
-      <c r="J60" s="58"/>
-      <c r="K60" s="58"/>
-      <c r="L60" s="58"/>
-      <c r="M60" s="58"/>
-      <c r="N60" s="58"/>
-      <c r="O60" s="58"/>
-      <c r="P60" s="58"/>
-      <c r="Q60" s="58"/>
-      <c r="R60" s="58"/>
-      <c r="S60" s="59"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="64"/>
+      <c r="K60" s="64"/>
+      <c r="L60" s="64"/>
+      <c r="M60" s="64"/>
+      <c r="N60" s="64"/>
+      <c r="O60" s="64"/>
+      <c r="P60" s="64"/>
+      <c r="Q60" s="64"/>
+      <c r="R60" s="64"/>
+      <c r="S60" s="65"/>
     </row>
     <row r="61" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="60"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="61"/>
-      <c r="J61" s="61"/>
-      <c r="K61" s="61"/>
-      <c r="L61" s="61"/>
-      <c r="M61" s="61"/>
-      <c r="N61" s="61"/>
-      <c r="O61" s="61"/>
-      <c r="P61" s="61"/>
-      <c r="Q61" s="61"/>
-      <c r="R61" s="61"/>
-      <c r="S61" s="62"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="67"/>
+      <c r="L61" s="67"/>
+      <c r="M61" s="67"/>
+      <c r="N61" s="67"/>
+      <c r="O61" s="67"/>
+      <c r="P61" s="67"/>
+      <c r="Q61" s="67"/>
+      <c r="R61" s="67"/>
+      <c r="S61" s="68"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B63" s="45" t="s">
+      <c r="B63" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="45"/>
-      <c r="H63" s="45"/>
-      <c r="I63" s="45"/>
-      <c r="J63" s="45"/>
-      <c r="K63" s="45"/>
-      <c r="M63" s="45" t="s">
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
+      <c r="M63" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="N63" s="45"/>
-      <c r="O63" s="45"/>
-      <c r="P63" s="45"/>
-      <c r="R63" s="45" t="s">
+      <c r="N63" s="47"/>
+      <c r="O63" s="47"/>
+      <c r="P63" s="47"/>
+      <c r="R63" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="S63" s="45"/>
+      <c r="S63" s="47"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
@@ -3682,65 +3684,43 @@
       </c>
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B68" s="49" t="s">
+      <c r="B68" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C68" s="49"/>
+      <c r="C68" s="45"/>
       <c r="E68" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G68" s="49" t="s">
+      <c r="G68" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="H68" s="49"/>
+      <c r="H68" s="45"/>
       <c r="J68" s="1">
         <v>4.5</v>
       </c>
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B69" s="50">
+      <c r="B69" s="46">
         <f>SUM(B65:K65,M65:P65,R65:S65)+J68</f>
         <v>34.5</v>
       </c>
-      <c r="C69" s="50"/>
-      <c r="E69" s="54"/>
-      <c r="G69" s="50">
+      <c r="C69" s="46"/>
+      <c r="E69" s="48"/>
+      <c r="G69" s="46">
         <f>50-SUM(B65:K65,M65:P65,R65:S65,J68)</f>
         <v>15.5</v>
       </c>
-      <c r="H69" s="50"/>
+      <c r="H69" s="46"/>
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B70" s="50"/>
-      <c r="C70" s="50"/>
-      <c r="E70" s="54"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="50"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="46"/>
+      <c r="E70" s="48"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="B32:I33"/>
-    <mergeCell ref="B63:K63"/>
-    <mergeCell ref="B60:S61"/>
-    <mergeCell ref="M63:P63"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B23:L24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C70"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G69:H70"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="B14:H15"/>
     <mergeCell ref="K5:N5"/>
@@ -3757,6 +3737,28 @@
     <mergeCell ref="E35:H35"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H11"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C70"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H70"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B23:L24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="B32:I33"/>
+    <mergeCell ref="B63:K63"/>
+    <mergeCell ref="B60:S61"/>
+    <mergeCell ref="M63:P63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4280,21 +4282,21 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
-      <c r="F2" s="63" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
+      <c r="F2" s="69" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="65"/>
-      <c r="J2" s="63" t="s">
+      <c r="G2" s="70"/>
+      <c r="H2" s="71"/>
+      <c r="J2" s="69" t="s">
         <v>205</v>
       </c>
-      <c r="K2" s="64"/>
-      <c r="L2" s="65"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="71"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="34" t="s">
@@ -4469,26 +4471,26 @@
     </row>
     <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="C11" s="67"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="33">
         <f>(D4*C4+D5*C5+D6*C6+D7*C7+D8*C8+D9*C9)/30</f>
         <v>3.9666666666666668</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="G11" s="67"/>
+      <c r="G11" s="73"/>
       <c r="H11" s="33">
         <f>(H4*G4+H5*G5+H6*G6+H7*G7+H8*G8)/30</f>
         <v>0</v>
       </c>
-      <c r="J11" s="66" t="s">
+      <c r="J11" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="K11" s="67"/>
+      <c r="K11" s="73"/>
       <c r="L11" s="33">
         <f>(L4*K4+L5*K5+L6*K6+L7*K7+L8*K8)/30</f>
         <v>0</v>

--- a/IoT-points-schedule.xlsx
+++ b/IoT-points-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jczec\Pulpit\IoT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15913544-CB26-4109-B429-4DF69BC58E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D467E8-FE92-4E96-A94F-0DD80F00B8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{F85F5544-1FE8-4920-A5D4-192A98B113BD}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15285" activeTab="3" xr2:uid="{F85F5544-1FE8-4920-A5D4-192A98B113BD}"/>
   </bookViews>
   <sheets>
     <sheet name="I-semestr-24Z" sheetId="2" r:id="rId1"/>
@@ -1179,40 +1179,58 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1231,24 +1249,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1695,23 +1695,23 @@
       <c r="R3" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
       <c r="I5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="49" t="s">
+      <c r="K5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="51"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="48"/>
       <c r="P5" s="4" t="s">
         <v>74</v>
       </c>
@@ -1793,28 +1793,28 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="45"/>
+      <c r="C9" s="49"/>
       <c r="E9" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="46">
+      <c r="B10" s="50">
         <f>_xlfn.CEILING.MATH(SUM(B7:G7,I7,K7:N7,P7),1,1)</f>
         <v>110</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="E10" s="55">
+      <c r="C10" s="50"/>
+      <c r="E10" s="51">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="E11" s="56"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="E11" s="52"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
@@ -1859,20 +1859,20 @@
       <c r="H15" s="44"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="F17" s="47" t="s">
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="F17" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="J17" s="45" t="s">
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="J17" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="45"/>
+      <c r="K17" s="49"/>
       <c r="M17" s="9" t="s">
         <v>67</v>
       </c>
@@ -1896,12 +1896,12 @@
       <c r="H18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="46">
+      <c r="J18" s="50">
         <f>SUM(B19:D19,F19:H19)</f>
         <v>93</v>
       </c>
-      <c r="K18" s="46"/>
-      <c r="M18" s="48">
+      <c r="K18" s="50"/>
+      <c r="M18" s="54">
         <v>5</v>
       </c>
     </row>
@@ -1924,9 +1924,9 @@
       <c r="H19" s="2">
         <v>4</v>
       </c>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="M19" s="48"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="M19" s="54"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
@@ -1977,20 +1977,20 @@
       <c r="K24" s="44"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="47"/>
-      <c r="E26" s="49" t="s">
+      <c r="C26" s="45"/>
+      <c r="E26" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="50"/>
-      <c r="G26" s="51"/>
-      <c r="I26" s="47" t="s">
+      <c r="F26" s="47"/>
+      <c r="G26" s="48"/>
+      <c r="I26" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
       <c r="M26" s="10" t="s">
         <v>22</v>
       </c>
@@ -2025,12 +2025,12 @@
       <c r="K27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M27" s="54">
+      <c r="M27" s="53">
         <f>SUM(B28:C28,E28:G28,I28:K28)</f>
         <v>36</v>
       </c>
       <c r="N27" s="7"/>
-      <c r="O27" s="48">
+      <c r="O27" s="54">
         <v>4</v>
       </c>
       <c r="P27" s="8"/>
@@ -2060,9 +2060,9 @@
       <c r="K28" s="2">
         <v>3.2</v>
       </c>
-      <c r="M28" s="54"/>
+      <c r="M28" s="53"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="48"/>
+      <c r="O28" s="54"/>
       <c r="P28" s="8"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2110,17 +2110,17 @@
       <c r="I33" s="44"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="F35" s="47" t="s">
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="F35" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
     </row>
@@ -2177,14 +2177,14 @@
       <c r="O37" s="7"/>
     </row>
     <row r="40" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="F40" s="46" t="s">
+      <c r="C40" s="56"/>
+      <c r="F40" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="46"/>
+      <c r="G40" s="50"/>
       <c r="I40" s="9" t="s">
         <v>22</v>
       </c>
@@ -2240,7 +2240,7 @@
       <c r="G43" s="2">
         <v>0.44</v>
       </c>
-      <c r="I43" s="45" t="s">
+      <c r="I43" s="49" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
       <c r="G44" s="2">
         <v>1</v>
       </c>
-      <c r="I44" s="45"/>
+      <c r="I44" s="49"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
@@ -2441,27 +2441,27 @@
       <c r="R59" s="44"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B61" s="47" t="s">
+      <c r="B61" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="47"/>
-      <c r="M61" s="47" t="s">
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="45"/>
+      <c r="M61" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="N61" s="47"/>
-      <c r="O61" s="47"/>
-      <c r="Q61" s="47" t="s">
+      <c r="N61" s="45"/>
+      <c r="O61" s="45"/>
+      <c r="Q61" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="R61" s="47"/>
+      <c r="R61" s="45"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
@@ -2558,28 +2558,28 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B66" s="45" t="s">
+      <c r="B66" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="45"/>
+      <c r="C66" s="49"/>
       <c r="E66" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B67" s="46">
+      <c r="B67" s="50">
         <f xml:space="preserve"> SUM(B63:K63,M63:O63,Q63:R63)</f>
         <v>85.5</v>
       </c>
-      <c r="C67" s="46"/>
-      <c r="E67" s="48">
+      <c r="C67" s="50"/>
+      <c r="E67" s="54">
         <v>4.5</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B68" s="46"/>
-      <c r="C68" s="46"/>
-      <c r="E68" s="48"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="50"/>
+      <c r="E68" s="54"/>
     </row>
     <row r="70" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
@@ -2650,10 +2650,10 @@
       <c r="I75" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="K75" s="45" t="s">
+      <c r="K75" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L75" s="45"/>
+      <c r="L75" s="49"/>
       <c r="N75" s="9" t="s">
         <v>67</v>
       </c>
@@ -2683,11 +2683,11 @@
       <c r="I76" s="2">
         <v>5</v>
       </c>
-      <c r="K76" s="46">
+      <c r="K76" s="50">
         <f>SUM(B76:I76)</f>
         <v>96</v>
       </c>
-      <c r="L76" s="46"/>
+      <c r="L76" s="50"/>
       <c r="N76" s="13">
         <v>5</v>
       </c>
@@ -2715,20 +2715,16 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="B14:H15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K19"/>
-    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="B72:I73"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="B58:R59"/>
+    <mergeCell ref="B61:K61"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C68"/>
+    <mergeCell ref="E67:E68"/>
     <mergeCell ref="I43:I44"/>
     <mergeCell ref="B23:K24"/>
     <mergeCell ref="B26:C26"/>
@@ -2739,16 +2735,20 @@
     <mergeCell ref="F35:I35"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="F40:G40"/>
-    <mergeCell ref="B72:I73"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="B58:R59"/>
-    <mergeCell ref="B61:K61"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="B14:H15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2759,8 +2759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C86BD6-21E5-4E44-BF61-9A65607E6D85}">
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P73" sqref="P73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2789,60 +2789,60 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="65"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="59"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="68"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="62"/>
       <c r="R3" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
-      <c r="H5" s="49" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48"/>
+      <c r="H5" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="51"/>
-      <c r="K5" s="49" t="s">
+      <c r="I5" s="48"/>
+      <c r="K5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="51"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="48"/>
       <c r="P5" s="4" t="s">
         <v>74</v>
       </c>
@@ -2918,37 +2918,37 @@
       <c r="P7" s="2"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="45"/>
+      <c r="C9" s="49"/>
       <c r="E9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="45"/>
+      <c r="H9" s="49"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="46">
+      <c r="B10" s="50">
         <f>SUM(B7:F7,H7:I7,K7:N7,P7)</f>
         <v>29.9</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="E10" s="55"/>
-      <c r="G10" s="46">
+      <c r="C10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="G10" s="50">
         <f>66-SUM(B7:F7,H7:I7,K7:N7,P7)</f>
         <v>36.1</v>
       </c>
-      <c r="H10" s="46"/>
+      <c r="H10" s="50"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="E11" s="56"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="E11" s="52"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
@@ -2972,7 +2972,7 @@
       <c r="S12" s="6"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="63" t="s">
         <v>77</v>
       </c>
@@ -2981,38 +2981,38 @@
       <c r="E14" s="64"/>
       <c r="F14" s="64"/>
       <c r="G14" s="64"/>
-      <c r="H14" s="65"/>
-    </row>
-    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="64"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="66"/>
       <c r="C15" s="67"/>
       <c r="D15" s="67"/>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
       <c r="G15" s="67"/>
-      <c r="H15" s="68"/>
+      <c r="H15" s="67"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="H17" s="49" t="s">
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="H17" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
-      <c r="L17" s="45" t="s">
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
+      <c r="L17" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="45"/>
-      <c r="O17" s="45" t="s">
+      <c r="M17" s="49"/>
+      <c r="O17" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="45"/>
+      <c r="P17" s="49"/>
       <c r="R17" s="9" t="s">
         <v>67</v>
       </c>
@@ -3042,25 +3042,33 @@
       <c r="J18" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="L18" s="46">
+      <c r="L18" s="50">
         <f>SUM(B19:F19,H19:J19)</f>
-        <v>47</v>
-      </c>
-      <c r="M18" s="46"/>
-      <c r="O18" s="46">
+        <v>70</v>
+      </c>
+      <c r="M18" s="50"/>
+      <c r="O18" s="50">
         <f>50-SUM(B19:F19,H19:J19)</f>
-        <v>3</v>
-      </c>
-      <c r="P18" s="46"/>
-      <c r="R18" s="48"/>
+        <v>-20</v>
+      </c>
+      <c r="P18" s="50"/>
+      <c r="R18" s="54">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
+      <c r="B19" s="2">
+        <v>7</v>
+      </c>
       <c r="C19" s="2">
         <v>7</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="D19" s="2">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2">
+        <v>8</v>
+      </c>
       <c r="F19" s="2">
         <v>6.5</v>
       </c>
@@ -3071,11 +3079,11 @@
       <c r="J19" s="2">
         <v>12.5</v>
       </c>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="R19" s="48"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="R19" s="54"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
@@ -3100,56 +3108,56 @@
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="65"/>
-      <c r="N23" s="46" t="s">
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="59"/>
+      <c r="N23" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="O23" s="46"/>
+      <c r="O23" s="50"/>
     </row>
     <row r="24" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="66"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="68"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="62"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="F26" s="47" t="s">
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="F26" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="49" t="s">
+      <c r="K26" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="L26" s="51"/>
+      <c r="L26" s="48"/>
       <c r="N26" s="9" t="s">
         <v>67</v>
       </c>
@@ -3182,7 +3190,7 @@
       <c r="L27" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N27" s="55"/>
+      <c r="N27" s="51"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
@@ -3206,7 +3214,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="N28" s="56"/>
+      <c r="N28" s="52"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
@@ -3231,39 +3239,39 @@
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="59"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="65"/>
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="60"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="62"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="68"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="47"/>
+      <c r="C35" s="45"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="49" t="s">
+      <c r="E35" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="51"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="48"/>
     </row>
     <row r="36" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
@@ -3306,14 +3314,14 @@
       <c r="O37" s="7"/>
     </row>
     <row r="40" spans="2:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="F40" s="46" t="s">
+      <c r="C40" s="56"/>
+      <c r="F40" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="46"/>
+      <c r="G40" s="50"/>
       <c r="I40" s="9" t="s">
         <v>22</v>
       </c>
@@ -3367,7 +3375,7 @@
         <v>119</v>
       </c>
       <c r="G43" s="2"/>
-      <c r="I43" s="45" t="s">
+      <c r="I43" s="49" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3382,7 +3390,7 @@
         <v>120</v>
       </c>
       <c r="G44" s="2"/>
-      <c r="I44" s="45"/>
+      <c r="I44" s="49"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
@@ -3521,70 +3529,70 @@
     </row>
     <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="63" t="s">
+      <c r="B60" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="64"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="64"/>
-      <c r="J60" s="64"/>
-      <c r="K60" s="64"/>
-      <c r="L60" s="64"/>
-      <c r="M60" s="64"/>
-      <c r="N60" s="64"/>
-      <c r="O60" s="64"/>
-      <c r="P60" s="64"/>
-      <c r="Q60" s="64"/>
-      <c r="R60" s="64"/>
-      <c r="S60" s="65"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="58"/>
+      <c r="J60" s="58"/>
+      <c r="K60" s="58"/>
+      <c r="L60" s="58"/>
+      <c r="M60" s="58"/>
+      <c r="N60" s="58"/>
+      <c r="O60" s="58"/>
+      <c r="P60" s="58"/>
+      <c r="Q60" s="58"/>
+      <c r="R60" s="58"/>
+      <c r="S60" s="59"/>
     </row>
     <row r="61" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="66"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="67"/>
-      <c r="J61" s="67"/>
-      <c r="K61" s="67"/>
-      <c r="L61" s="67"/>
-      <c r="M61" s="67"/>
-      <c r="N61" s="67"/>
-      <c r="O61" s="67"/>
-      <c r="P61" s="67"/>
-      <c r="Q61" s="67"/>
-      <c r="R61" s="67"/>
-      <c r="S61" s="68"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="61"/>
+      <c r="K61" s="61"/>
+      <c r="L61" s="61"/>
+      <c r="M61" s="61"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="61"/>
+      <c r="P61" s="61"/>
+      <c r="Q61" s="61"/>
+      <c r="R61" s="61"/>
+      <c r="S61" s="62"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B63" s="47" t="s">
+      <c r="B63" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-      <c r="J63" s="47"/>
-      <c r="K63" s="47"/>
-      <c r="M63" s="47" t="s">
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
+      <c r="J63" s="45"/>
+      <c r="K63" s="45"/>
+      <c r="M63" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="N63" s="47"/>
-      <c r="O63" s="47"/>
-      <c r="P63" s="47"/>
-      <c r="R63" s="47" t="s">
+      <c r="N63" s="45"/>
+      <c r="O63" s="45"/>
+      <c r="P63" s="45"/>
+      <c r="R63" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="S63" s="47"/>
+      <c r="S63" s="45"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
@@ -3684,43 +3692,65 @@
       </c>
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B68" s="45" t="s">
+      <c r="B68" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C68" s="45"/>
+      <c r="C68" s="49"/>
       <c r="E68" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G68" s="45" t="s">
+      <c r="G68" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="H68" s="45"/>
+      <c r="H68" s="49"/>
       <c r="J68" s="1">
         <v>4.5</v>
       </c>
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B69" s="46">
+      <c r="B69" s="50">
         <f>SUM(B65:K65,M65:P65,R65:S65)+J68</f>
         <v>34.5</v>
       </c>
-      <c r="C69" s="46"/>
-      <c r="E69" s="48"/>
-      <c r="G69" s="46">
+      <c r="C69" s="50"/>
+      <c r="E69" s="54"/>
+      <c r="G69" s="50">
         <f>50-SUM(B65:K65,M65:P65,R65:S65,J68)</f>
         <v>15.5</v>
       </c>
-      <c r="H69" s="46"/>
+      <c r="H69" s="50"/>
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B70" s="46"/>
-      <c r="C70" s="46"/>
-      <c r="E70" s="48"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="46"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="50"/>
+      <c r="E70" s="54"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="B32:I33"/>
+    <mergeCell ref="B63:K63"/>
+    <mergeCell ref="B60:S61"/>
+    <mergeCell ref="M63:P63"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B23:L24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C70"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H70"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="B14:H15"/>
     <mergeCell ref="K5:N5"/>
@@ -3737,28 +3767,6 @@
     <mergeCell ref="E35:H35"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H11"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C70"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G69:H70"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B23:L24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="B32:I33"/>
-    <mergeCell ref="B63:K63"/>
-    <mergeCell ref="B60:S61"/>
-    <mergeCell ref="M63:P63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4263,8 +4271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA352BE-3E69-4CCA-8EEB-A9094B74606F}">
   <dimension ref="B1:L11"/>
   <sheetViews>
-    <sheetView zoomScale="145" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4393,7 +4401,9 @@
       <c r="G6" s="2">
         <v>5</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <v>4</v>
+      </c>
       <c r="J6" s="38" t="s">
         <v>200</v>
       </c>
@@ -4485,7 +4495,7 @@
       <c r="G11" s="73"/>
       <c r="H11" s="33">
         <f>(H4*G4+H5*G5+H6*G6+H7*G7+H8*G8)/30</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J11" s="72" t="s">
         <v>197</v>

--- a/IoT-points-schedule.xlsx
+++ b/IoT-points-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jczec\Pulpit\IoT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D467E8-FE92-4E96-A94F-0DD80F00B8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251738E5-62E3-4D1F-BFAB-E416ECEAD834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15285" activeTab="3" xr2:uid="{F85F5544-1FE8-4920-A5D4-192A98B113BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{F85F5544-1FE8-4920-A5D4-192A98B113BD}"/>
   </bookViews>
   <sheets>
     <sheet name="I-semestr-24Z" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="215">
   <si>
     <t>1. Krypto</t>
   </si>
@@ -681,6 +681,9 @@
   </si>
   <si>
     <t>Ext.</t>
+  </si>
+  <si>
+    <t>książka</t>
   </si>
 </sst>
 </file>
@@ -1179,9 +1182,18 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1191,10 +1203,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1203,17 +1218,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1231,24 +1252,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1695,23 +1698,23 @@
       <c r="R3" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
       <c r="I5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="48"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="51"/>
       <c r="P5" s="4" t="s">
         <v>74</v>
       </c>
@@ -1793,28 +1796,28 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="49"/>
+      <c r="C9" s="45"/>
       <c r="E9" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="50">
+      <c r="B10" s="46">
         <f>_xlfn.CEILING.MATH(SUM(B7:G7,I7,K7:N7,P7),1,1)</f>
         <v>110</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="E10" s="51">
+      <c r="C10" s="46"/>
+      <c r="E10" s="55">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="E11" s="52"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="E11" s="56"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
@@ -1859,20 +1862,20 @@
       <c r="H15" s="44"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="F17" s="45" t="s">
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="F17" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="J17" s="49" t="s">
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="J17" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="49"/>
+      <c r="K17" s="45"/>
       <c r="M17" s="9" t="s">
         <v>67</v>
       </c>
@@ -1896,12 +1899,12 @@
       <c r="H18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="50">
+      <c r="J18" s="46">
         <f>SUM(B19:D19,F19:H19)</f>
         <v>93</v>
       </c>
-      <c r="K18" s="50"/>
-      <c r="M18" s="54">
+      <c r="K18" s="46"/>
+      <c r="M18" s="48">
         <v>5</v>
       </c>
     </row>
@@ -1924,9 +1927,9 @@
       <c r="H19" s="2">
         <v>4</v>
       </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="M19" s="54"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="M19" s="48"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
@@ -1977,20 +1980,20 @@
       <c r="K24" s="44"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="E26" s="46" t="s">
+      <c r="C26" s="47"/>
+      <c r="E26" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="47"/>
-      <c r="G26" s="48"/>
-      <c r="I26" s="45" t="s">
+      <c r="F26" s="50"/>
+      <c r="G26" s="51"/>
+      <c r="I26" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
       <c r="M26" s="10" t="s">
         <v>22</v>
       </c>
@@ -2025,12 +2028,12 @@
       <c r="K27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M27" s="53">
+      <c r="M27" s="54">
         <f>SUM(B28:C28,E28:G28,I28:K28)</f>
         <v>36</v>
       </c>
       <c r="N27" s="7"/>
-      <c r="O27" s="54">
+      <c r="O27" s="48">
         <v>4</v>
       </c>
       <c r="P27" s="8"/>
@@ -2060,9 +2063,9 @@
       <c r="K28" s="2">
         <v>3.2</v>
       </c>
-      <c r="M28" s="53"/>
+      <c r="M28" s="54"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="54"/>
+      <c r="O28" s="48"/>
       <c r="P28" s="8"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2110,17 +2113,17 @@
       <c r="I33" s="44"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="F35" s="45" t="s">
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="F35" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
     </row>
@@ -2177,14 +2180,14 @@
       <c r="O37" s="7"/>
     </row>
     <row r="40" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="F40" s="50" t="s">
+      <c r="C40" s="53"/>
+      <c r="F40" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="50"/>
+      <c r="G40" s="46"/>
       <c r="I40" s="9" t="s">
         <v>22</v>
       </c>
@@ -2240,7 +2243,7 @@
       <c r="G43" s="2">
         <v>0.44</v>
       </c>
-      <c r="I43" s="49" t="s">
+      <c r="I43" s="45" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2257,7 +2260,7 @@
       <c r="G44" s="2">
         <v>1</v>
       </c>
-      <c r="I44" s="49"/>
+      <c r="I44" s="45"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
@@ -2441,27 +2444,27 @@
       <c r="R59" s="44"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B61" s="45" t="s">
+      <c r="B61" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="45"/>
-      <c r="M61" s="45" t="s">
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="47"/>
+      <c r="M61" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="N61" s="45"/>
-      <c r="O61" s="45"/>
-      <c r="Q61" s="45" t="s">
+      <c r="N61" s="47"/>
+      <c r="O61" s="47"/>
+      <c r="Q61" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="R61" s="45"/>
+      <c r="R61" s="47"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
@@ -2558,28 +2561,28 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B66" s="49" t="s">
+      <c r="B66" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="49"/>
+      <c r="C66" s="45"/>
       <c r="E66" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B67" s="50">
+      <c r="B67" s="46">
         <f xml:space="preserve"> SUM(B63:K63,M63:O63,Q63:R63)</f>
         <v>85.5</v>
       </c>
-      <c r="C67" s="50"/>
-      <c r="E67" s="54">
+      <c r="C67" s="46"/>
+      <c r="E67" s="48">
         <v>4.5</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B68" s="50"/>
-      <c r="C68" s="50"/>
-      <c r="E68" s="54"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="E68" s="48"/>
     </row>
     <row r="70" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
@@ -2650,10 +2653,10 @@
       <c r="I75" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="K75" s="49" t="s">
+      <c r="K75" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="L75" s="49"/>
+      <c r="L75" s="45"/>
       <c r="N75" s="9" t="s">
         <v>67</v>
       </c>
@@ -2683,11 +2686,11 @@
       <c r="I76" s="2">
         <v>5</v>
       </c>
-      <c r="K76" s="50">
+      <c r="K76" s="46">
         <f>SUM(B76:I76)</f>
         <v>96</v>
       </c>
-      <c r="L76" s="50"/>
+      <c r="L76" s="46"/>
       <c r="N76" s="13">
         <v>5</v>
       </c>
@@ -2715,6 +2718,30 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="B14:H15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="B23:K24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B32:I33"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="F40:G40"/>
     <mergeCell ref="B72:I73"/>
     <mergeCell ref="K75:L75"/>
     <mergeCell ref="K76:L76"/>
@@ -2725,30 +2752,6 @@
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B67:C68"/>
     <mergeCell ref="E67:E68"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="B23:K24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="B32:I33"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="B14:H15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2759,8 +2762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C86BD6-21E5-4E44-BF61-9A65607E6D85}">
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P73" sqref="P73"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2789,60 +2792,60 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="59"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="65"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="68"/>
       <c r="R3" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
-      <c r="H5" s="46" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
+      <c r="H5" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="K5" s="46" t="s">
+      <c r="I5" s="51"/>
+      <c r="K5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="48"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="51"/>
       <c r="P5" s="4" t="s">
         <v>74</v>
       </c>
@@ -2918,37 +2921,37 @@
       <c r="P7" s="2"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="49"/>
+      <c r="C9" s="45"/>
       <c r="E9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="49"/>
+      <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="50">
+      <c r="B10" s="46">
         <f>SUM(B7:F7,H7:I7,K7:N7,P7)</f>
         <v>29.9</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="G10" s="50">
+      <c r="C10" s="46"/>
+      <c r="E10" s="55"/>
+      <c r="G10" s="46">
         <f>66-SUM(B7:F7,H7:I7,K7:N7,P7)</f>
         <v>36.1</v>
       </c>
-      <c r="H10" s="50"/>
+      <c r="H10" s="46"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="E11" s="52"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="E11" s="56"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
@@ -2973,46 +2976,46 @@
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="66"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="H17" s="46" t="s">
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="H17" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
-      <c r="L17" s="49" t="s">
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
+      <c r="L17" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="49"/>
-      <c r="O17" s="49" t="s">
+      <c r="M17" s="45"/>
+      <c r="O17" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="49"/>
+      <c r="P17" s="45"/>
       <c r="R17" s="9" t="s">
         <v>67</v>
       </c>
@@ -3042,17 +3045,17 @@
       <c r="J18" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="L18" s="50">
+      <c r="L18" s="46">
         <f>SUM(B19:F19,H19:J19)</f>
         <v>70</v>
       </c>
-      <c r="M18" s="50"/>
-      <c r="O18" s="50">
+      <c r="M18" s="46"/>
+      <c r="O18" s="46">
         <f>50-SUM(B19:F19,H19:J19)</f>
         <v>-20</v>
       </c>
-      <c r="P18" s="50"/>
-      <c r="R18" s="54">
+      <c r="P18" s="46"/>
+      <c r="R18" s="48">
         <v>4</v>
       </c>
     </row>
@@ -3079,11 +3082,11 @@
       <c r="J19" s="2">
         <v>12.5</v>
       </c>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="R19" s="54"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="R19" s="48"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
@@ -3108,56 +3111,56 @@
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="59"/>
-      <c r="N23" s="50" t="s">
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="65"/>
+      <c r="N23" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="O23" s="50"/>
+      <c r="O23" s="46"/>
     </row>
     <row r="24" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="60"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="62"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="68"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="F26" s="45" t="s">
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="F26" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="46" t="s">
+      <c r="K26" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="L26" s="48"/>
+      <c r="L26" s="51"/>
       <c r="N26" s="9" t="s">
         <v>67</v>
       </c>
@@ -3190,7 +3193,7 @@
       <c r="L27" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N27" s="51"/>
+      <c r="N27" s="55"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
@@ -3214,7 +3217,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="N28" s="52"/>
+      <c r="N28" s="56"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
@@ -3239,39 +3242,39 @@
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="65"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="59"/>
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="66"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="68"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="62"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="45"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="46" t="s">
+      <c r="E35" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="48"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="51"/>
     </row>
     <row r="36" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
@@ -3314,14 +3317,14 @@
       <c r="O37" s="7"/>
     </row>
     <row r="40" spans="2:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="F40" s="50" t="s">
+      <c r="C40" s="53"/>
+      <c r="F40" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="50"/>
+      <c r="G40" s="46"/>
       <c r="I40" s="9" t="s">
         <v>22</v>
       </c>
@@ -3375,7 +3378,7 @@
         <v>119</v>
       </c>
       <c r="G43" s="2"/>
-      <c r="I43" s="49" t="s">
+      <c r="I43" s="45" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3390,7 +3393,7 @@
         <v>120</v>
       </c>
       <c r="G44" s="2"/>
-      <c r="I44" s="49"/>
+      <c r="I44" s="45"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
@@ -3529,70 +3532,70 @@
     </row>
     <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="57" t="s">
+      <c r="B60" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="58"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="58"/>
-      <c r="J60" s="58"/>
-      <c r="K60" s="58"/>
-      <c r="L60" s="58"/>
-      <c r="M60" s="58"/>
-      <c r="N60" s="58"/>
-      <c r="O60" s="58"/>
-      <c r="P60" s="58"/>
-      <c r="Q60" s="58"/>
-      <c r="R60" s="58"/>
-      <c r="S60" s="59"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="64"/>
+      <c r="K60" s="64"/>
+      <c r="L60" s="64"/>
+      <c r="M60" s="64"/>
+      <c r="N60" s="64"/>
+      <c r="O60" s="64"/>
+      <c r="P60" s="64"/>
+      <c r="Q60" s="64"/>
+      <c r="R60" s="64"/>
+      <c r="S60" s="65"/>
     </row>
     <row r="61" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="60"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="61"/>
-      <c r="J61" s="61"/>
-      <c r="K61" s="61"/>
-      <c r="L61" s="61"/>
-      <c r="M61" s="61"/>
-      <c r="N61" s="61"/>
-      <c r="O61" s="61"/>
-      <c r="P61" s="61"/>
-      <c r="Q61" s="61"/>
-      <c r="R61" s="61"/>
-      <c r="S61" s="62"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="67"/>
+      <c r="L61" s="67"/>
+      <c r="M61" s="67"/>
+      <c r="N61" s="67"/>
+      <c r="O61" s="67"/>
+      <c r="P61" s="67"/>
+      <c r="Q61" s="67"/>
+      <c r="R61" s="67"/>
+      <c r="S61" s="68"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B63" s="45" t="s">
+      <c r="B63" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="45"/>
-      <c r="H63" s="45"/>
-      <c r="I63" s="45"/>
-      <c r="J63" s="45"/>
-      <c r="K63" s="45"/>
-      <c r="M63" s="45" t="s">
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
+      <c r="M63" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="N63" s="45"/>
-      <c r="O63" s="45"/>
-      <c r="P63" s="45"/>
-      <c r="R63" s="45" t="s">
+      <c r="N63" s="47"/>
+      <c r="O63" s="47"/>
+      <c r="P63" s="47"/>
+      <c r="R63" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="S63" s="45"/>
+      <c r="S63" s="47"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
@@ -3692,65 +3695,49 @@
       </c>
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B68" s="49" t="s">
+      <c r="B68" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C68" s="49"/>
+      <c r="C68" s="45"/>
       <c r="E68" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G68" s="49" t="s">
+      <c r="G68" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="H68" s="49"/>
+      <c r="H68" s="45"/>
       <c r="J68" s="1">
         <v>4.5</v>
       </c>
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B69" s="50">
+      <c r="B69" s="46">
         <f>SUM(B65:K65,M65:P65,R65:S65)+J68</f>
         <v>34.5</v>
       </c>
-      <c r="C69" s="50"/>
-      <c r="E69" s="54"/>
-      <c r="G69" s="50">
-        <f>50-SUM(B65:K65,M65:P65,R65:S65,J68)</f>
-        <v>15.5</v>
-      </c>
-      <c r="H69" s="50"/>
+      <c r="C69" s="46"/>
+      <c r="E69" s="48"/>
+      <c r="G69" s="46">
+        <f>50-SUM(B65:K65,M65:P65,R65:S65,J68,K70)</f>
+        <v>13.5</v>
+      </c>
+      <c r="H69" s="46"/>
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B70" s="50"/>
-      <c r="C70" s="50"/>
-      <c r="E70" s="54"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="50"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="46"/>
+      <c r="E70" s="48"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
+      <c r="J70" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K70" s="1">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="B32:I33"/>
-    <mergeCell ref="B63:K63"/>
-    <mergeCell ref="B60:S61"/>
-    <mergeCell ref="M63:P63"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B23:L24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C70"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G69:H70"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="B14:H15"/>
     <mergeCell ref="K5:N5"/>
@@ -3767,6 +3754,28 @@
     <mergeCell ref="E35:H35"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H11"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C70"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H70"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B23:L24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="B32:I33"/>
+    <mergeCell ref="B63:K63"/>
+    <mergeCell ref="B60:S61"/>
+    <mergeCell ref="M63:P63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4271,8 +4280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA352BE-3E69-4CCA-8EEB-A9094B74606F}">
   <dimension ref="B1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/IoT-points-schedule.xlsx
+++ b/IoT-points-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jczec\Pulpit\IoT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251738E5-62E3-4D1F-BFAB-E416ECEAD834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB4323F-B525-4479-80E0-C966C9DD8988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{F85F5544-1FE8-4920-A5D4-192A98B113BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{F85F5544-1FE8-4920-A5D4-192A98B113BD}"/>
   </bookViews>
   <sheets>
     <sheet name="I-semestr-24Z" sheetId="2" r:id="rId1"/>
@@ -1182,76 +1182,76 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1636,31 +1636,31 @@
       <selection activeCell="V45" sqref="V45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="11.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="16.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="1"/>
+    <col min="11" max="11" width="11.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B2" s="39" t="s">
         <v>133</v>
       </c>
@@ -1679,7 +1679,7 @@
       <c r="O2" s="40"/>
       <c r="P2" s="41"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
@@ -1697,29 +1697,29 @@
       <c r="P3" s="44"/>
       <c r="R3" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="47" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B5" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
       <c r="I5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="49" t="s">
+      <c r="K5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="51"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="48"/>
       <c r="P5" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -1795,31 +1795,31 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="45" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B9" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="45"/>
+      <c r="C9" s="49"/>
       <c r="E9" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="46">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B10" s="50">
         <f>_xlfn.CEILING.MATH(SUM(B7:G7,I7,K7:N7,P7),1,1)</f>
         <v>110</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="E10" s="55">
+      <c r="C10" s="50"/>
+      <c r="E10" s="51">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="E11" s="56"/>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="E11" s="52"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1840,8 +1840,8 @@
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
     </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B14" s="39" t="s">
         <v>134</v>
       </c>
@@ -1852,7 +1852,7 @@
       <c r="G14" s="40"/>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
@@ -1861,26 +1861,26 @@
       <c r="G15" s="43"/>
       <c r="H15" s="44"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="47" t="s">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B17" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="F17" s="47" t="s">
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="F17" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="J17" s="45" t="s">
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="J17" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="45"/>
+      <c r="K17" s="49"/>
       <c r="M17" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>75</v>
       </c>
@@ -1899,16 +1899,16 @@
       <c r="H18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="46">
+      <c r="J18" s="50">
         <f>SUM(B19:D19,F19:H19)</f>
         <v>93</v>
       </c>
-      <c r="K18" s="46"/>
-      <c r="M18" s="48">
+      <c r="K18" s="50"/>
+      <c r="M18" s="54">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>46</v>
       </c>
@@ -1927,11 +1927,11 @@
       <c r="H19" s="2">
         <v>4</v>
       </c>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="M19" s="48"/>
-    </row>
-    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="M19" s="54"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1952,8 +1952,8 @@
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B23" s="39" t="s">
         <v>135</v>
       </c>
@@ -1967,7 +1967,7 @@
       <c r="J23" s="40"/>
       <c r="K23" s="41"/>
     </row>
-    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="42"/>
       <c r="C24" s="43"/>
       <c r="D24" s="43"/>
@@ -1979,21 +1979,21 @@
       <c r="J24" s="43"/>
       <c r="K24" s="44"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="47" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B26" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="47"/>
-      <c r="E26" s="49" t="s">
+      <c r="C26" s="45"/>
+      <c r="E26" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="50"/>
-      <c r="G26" s="51"/>
-      <c r="I26" s="47" t="s">
+      <c r="F26" s="47"/>
+      <c r="G26" s="48"/>
+      <c r="I26" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
       <c r="M26" s="10" t="s">
         <v>22</v>
       </c>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="P26" s="7"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>6</v>
       </c>
@@ -2028,17 +2028,17 @@
       <c r="K27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M27" s="54">
+      <c r="M27" s="53">
         <f>SUM(B28:C28,E28:G28,I28:K28)</f>
         <v>36</v>
       </c>
       <c r="N27" s="7"/>
-      <c r="O27" s="48">
+      <c r="O27" s="54">
         <v>4</v>
       </c>
       <c r="P27" s="8"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>8</v>
       </c>
@@ -2063,12 +2063,12 @@
       <c r="K28" s="2">
         <v>3.2</v>
       </c>
-      <c r="M28" s="54"/>
+      <c r="M28" s="53"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="48"/>
+      <c r="O28" s="54"/>
       <c r="P28" s="8"/>
     </row>
-    <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -2089,8 +2089,8 @@
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
     </row>
-    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B32" s="39" t="s">
         <v>136</v>
       </c>
@@ -2102,7 +2102,7 @@
       <c r="H32" s="40"/>
       <c r="I32" s="41"/>
     </row>
-    <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="42"/>
       <c r="C33" s="43"/>
       <c r="D33" s="43"/>
@@ -2112,22 +2112,22 @@
       <c r="H33" s="43"/>
       <c r="I33" s="44"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="47" t="s">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B35" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="F35" s="47" t="s">
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="F35" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
     </row>
-    <row r="36" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>6</v>
       </c>
@@ -2152,7 +2152,7 @@
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>10</v>
       </c>
@@ -2179,22 +2179,22 @@
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
     </row>
-    <row r="40" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="52" t="s">
+    <row r="40" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="F40" s="46" t="s">
+      <c r="C40" s="56"/>
+      <c r="F40" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="46"/>
+      <c r="G40" s="50"/>
       <c r="I40" s="9" t="s">
         <v>22</v>
       </c>
       <c r="J40" s="11"/>
       <c r="L40" s="11"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>49</v>
       </c>
@@ -2214,7 +2214,7 @@
       <c r="J41" s="7"/>
       <c r="L41" s="7"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>50</v>
       </c>
@@ -2230,7 +2230,7 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
         <v>51</v>
       </c>
@@ -2243,11 +2243,11 @@
       <c r="G43" s="2">
         <v>0.44</v>
       </c>
-      <c r="I43" s="45" t="s">
+      <c r="I43" s="49" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
         <v>52</v>
       </c>
@@ -2260,9 +2260,9 @@
       <c r="G44" s="2">
         <v>1</v>
       </c>
-      <c r="I44" s="45"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I44" s="49"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>53</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
         <v>54</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
         <v>55</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
         <v>56</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
         <v>57</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
         <v>58</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
         <v>59</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
         <v>60</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
         <v>16</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -2402,8 +2402,8 @@
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
     </row>
-    <row r="57" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B58" s="39" t="s">
         <v>137</v>
       </c>
@@ -2424,7 +2424,7 @@
       <c r="Q58" s="40"/>
       <c r="R58" s="41"/>
     </row>
-    <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="42"/>
       <c r="C59" s="43"/>
       <c r="D59" s="43"/>
@@ -2443,30 +2443,30 @@
       <c r="Q59" s="43"/>
       <c r="R59" s="44"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B61" s="47" t="s">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B61" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="47"/>
-      <c r="M61" s="47" t="s">
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="45"/>
+      <c r="M61" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="N61" s="47"/>
-      <c r="O61" s="47"/>
-      <c r="Q61" s="47" t="s">
+      <c r="N61" s="45"/>
+      <c r="O61" s="45"/>
+      <c r="Q61" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="R61" s="47"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R61" s="45"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B62" s="2" t="s">
         <v>51</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B63" s="2">
         <v>1</v>
       </c>
@@ -2560,31 +2560,31 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B66" s="45" t="s">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B66" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="45"/>
+      <c r="C66" s="49"/>
       <c r="E66" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B67" s="46">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B67" s="50">
         <f xml:space="preserve"> SUM(B63:K63,M63:O63,Q63:R63)</f>
         <v>85.5</v>
       </c>
-      <c r="C67" s="46"/>
-      <c r="E67" s="48">
+      <c r="C67" s="50"/>
+      <c r="E67" s="54">
         <v>4.5</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B68" s="46"/>
-      <c r="C68" s="46"/>
-      <c r="E68" s="48"/>
-    </row>
-    <row r="70" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B68" s="50"/>
+      <c r="C68" s="50"/>
+      <c r="E68" s="54"/>
+    </row>
+    <row r="70" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -2605,8 +2605,8 @@
       <c r="R70" s="6"/>
       <c r="S70" s="6"/>
     </row>
-    <row r="71" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B72" s="39" t="s">
         <v>138</v>
       </c>
@@ -2618,7 +2618,7 @@
       <c r="H72" s="40"/>
       <c r="I72" s="41"/>
     </row>
-    <row r="73" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="42"/>
       <c r="C73" s="43"/>
       <c r="D73" s="43"/>
@@ -2628,7 +2628,7 @@
       <c r="H73" s="43"/>
       <c r="I73" s="44"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B75" s="4" t="s">
         <v>139</v>
       </c>
@@ -2653,15 +2653,15 @@
       <c r="I75" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="K75" s="45" t="s">
+      <c r="K75" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L75" s="45"/>
+      <c r="L75" s="49"/>
       <c r="N75" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B76" s="2">
         <v>11</v>
       </c>
@@ -2686,16 +2686,16 @@
       <c r="I76" s="2">
         <v>5</v>
       </c>
-      <c r="K76" s="46">
+      <c r="K76" s="50">
         <f>SUM(B76:I76)</f>
         <v>96</v>
       </c>
-      <c r="L76" s="46"/>
+      <c r="L76" s="50"/>
       <c r="N76" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -2718,20 +2718,16 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="B14:H15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K19"/>
-    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="B72:I73"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="B58:R59"/>
+    <mergeCell ref="B61:K61"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C68"/>
+    <mergeCell ref="E67:E68"/>
     <mergeCell ref="I43:I44"/>
     <mergeCell ref="B23:K24"/>
     <mergeCell ref="B26:C26"/>
@@ -2742,16 +2738,20 @@
     <mergeCell ref="F35:I35"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="F40:G40"/>
-    <mergeCell ref="B72:I73"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="B58:R59"/>
-    <mergeCell ref="B61:K61"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="B14:H15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2762,95 +2762,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C86BD6-21E5-4E44-BF61-9A65607E6D85}">
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K69" sqref="K69"/>
+    <sheetView topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="16.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="63" t="s">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B2" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="65"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="68"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="63"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="66"/>
       <c r="R3" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B5" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
-      <c r="H5" s="49" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48"/>
+      <c r="H5" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="51"/>
-      <c r="K5" s="49" t="s">
+      <c r="I5" s="48"/>
+      <c r="K5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="51"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="48"/>
       <c r="P5" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>175</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -2920,40 +2920,40 @@
       </c>
       <c r="P7" s="2"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="45" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B9" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="45"/>
+      <c r="C9" s="49"/>
       <c r="E9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="45"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="46">
+      <c r="H9" s="49"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B10" s="50">
         <f>SUM(B7:F7,H7:I7,K7:N7,P7)</f>
         <v>29.9</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="E10" s="55"/>
-      <c r="G10" s="46">
+      <c r="C10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="G10" s="50">
         <f>66-SUM(B7:F7,H7:I7,K7:N7,P7)</f>
         <v>36.1</v>
       </c>
-      <c r="H10" s="46"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="E11" s="56"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="50"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="E11" s="52"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -2974,8 +2974,8 @@
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
     </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="57" t="s">
         <v>77</v>
       </c>
@@ -2986,41 +2986,41 @@
       <c r="G14" s="58"/>
       <c r="H14" s="58"/>
     </row>
-    <row r="15" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="47" t="s">
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B17" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="H17" s="49" t="s">
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="H17" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
-      <c r="L17" s="45" t="s">
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
+      <c r="L17" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="45"/>
-      <c r="O17" s="45" t="s">
+      <c r="M17" s="49"/>
+      <c r="O17" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="45"/>
+      <c r="P17" s="49"/>
       <c r="R17" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>159</v>
       </c>
@@ -3045,21 +3045,21 @@
       <c r="J18" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="L18" s="46">
+      <c r="L18" s="50">
         <f>SUM(B19:F19,H19:J19)</f>
         <v>70</v>
       </c>
-      <c r="M18" s="46"/>
-      <c r="O18" s="46">
+      <c r="M18" s="50"/>
+      <c r="O18" s="50">
         <f>50-SUM(B19:F19,H19:J19)</f>
         <v>-20</v>
       </c>
-      <c r="P18" s="46"/>
-      <c r="R18" s="48">
+      <c r="P18" s="50"/>
+      <c r="R18" s="54">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>7</v>
       </c>
@@ -3082,13 +3082,13 @@
       <c r="J19" s="2">
         <v>12.5</v>
       </c>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="R19" s="48"/>
-    </row>
-    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="R19" s="54"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -3109,63 +3109,63 @@
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="63" t="s">
+    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="65"/>
-      <c r="N23" s="46" t="s">
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="63"/>
+      <c r="N23" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="O23" s="46"/>
-    </row>
-    <row r="24" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="66"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="68"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="47" t="s">
+      <c r="O23" s="50"/>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="66"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B26" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="F26" s="47" t="s">
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="F26" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="49" t="s">
+      <c r="K26" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="L26" s="51"/>
+      <c r="L26" s="48"/>
       <c r="N26" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>130</v>
       </c>
@@ -3193,9 +3193,9 @@
       <c r="L27" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N27" s="55"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N27" s="51"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>6.5</v>
       </c>
@@ -3217,9 +3217,9 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="N28" s="56"/>
-    </row>
-    <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N28" s="52"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -3240,8 +3240,8 @@
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
     </row>
-    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B32" s="57" t="s">
         <v>78</v>
       </c>
@@ -3251,32 +3251,32 @@
       <c r="F32" s="58"/>
       <c r="G32" s="58"/>
       <c r="H32" s="58"/>
-      <c r="I32" s="59"/>
-    </row>
-    <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="60"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="62"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="47" t="s">
+      <c r="I32" s="67"/>
+    </row>
+    <row r="33" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="59"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="68"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B35" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="47"/>
+      <c r="C35" s="45"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="49" t="s">
+      <c r="E35" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="51"/>
-    </row>
-    <row r="36" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="48"/>
+    </row>
+    <row r="36" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>6</v>
       </c>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="O36" s="7"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>5</v>
       </c>
@@ -3310,28 +3310,28 @@
       </c>
       <c r="F37" s="2">
         <f>G51</f>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="O37" s="7"/>
     </row>
-    <row r="40" spans="2:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="52" t="s">
+    <row r="40" spans="2:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="F40" s="46" t="s">
+      <c r="C40" s="56"/>
+      <c r="F40" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="46"/>
+      <c r="G40" s="50"/>
       <c r="I40" s="9" t="s">
         <v>22</v>
       </c>
       <c r="J40" s="11"/>
       <c r="L40" s="11"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>103</v>
       </c>
@@ -3346,12 +3346,12 @@
       </c>
       <c r="I41" s="2">
         <f>SUM(B37:C37,E37:H37)</f>
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="J41" s="7"/>
       <c r="L41" s="7"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>104</v>
       </c>
@@ -3367,7 +3367,7 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
         <v>105</v>
       </c>
@@ -3377,12 +3377,14 @@
       <c r="F43" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G43" s="2"/>
-      <c r="I43" s="45" t="s">
+      <c r="G43" s="2">
+        <v>10</v>
+      </c>
+      <c r="I43" s="49" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
         <v>106</v>
       </c>
@@ -3393,9 +3395,9 @@
         <v>120</v>
       </c>
       <c r="G44" s="2"/>
-      <c r="I44" s="45"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I44" s="49"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>107</v>
       </c>
@@ -3408,7 +3410,7 @@
       <c r="G45" s="2"/>
       <c r="I45" s="13"/>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
         <v>108</v>
       </c>
@@ -3418,7 +3420,7 @@
       </c>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
         <v>109</v>
       </c>
@@ -3431,7 +3433,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
         <v>110</v>
       </c>
@@ -3444,10 +3446,10 @@
       <c r="G48" s="2"/>
       <c r="I48" s="2">
         <f>50-SUM(B37:C37,E37:H37)</f>
-        <v>-18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
         <v>111</v>
       </c>
@@ -3457,7 +3459,7 @@
       </c>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
         <v>112</v>
       </c>
@@ -3465,7 +3467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
         <v>113</v>
       </c>
@@ -3477,10 +3479,10 @@
       </c>
       <c r="G51" s="2">
         <f>SUM(G41:G49)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
         <v>114</v>
       </c>
@@ -3488,19 +3490,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C54" s="2"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
         <v>16</v>
       </c>
@@ -3509,7 +3511,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -3530,74 +3532,74 @@
       <c r="R58" s="6"/>
       <c r="S58" s="6"/>
     </row>
-    <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="63" t="s">
+    <row r="59" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="64"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="64"/>
-      <c r="J60" s="64"/>
-      <c r="K60" s="64"/>
-      <c r="L60" s="64"/>
-      <c r="M60" s="64"/>
-      <c r="N60" s="64"/>
-      <c r="O60" s="64"/>
-      <c r="P60" s="64"/>
-      <c r="Q60" s="64"/>
-      <c r="R60" s="64"/>
-      <c r="S60" s="65"/>
-    </row>
-    <row r="61" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="66"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="67"/>
-      <c r="J61" s="67"/>
-      <c r="K61" s="67"/>
-      <c r="L61" s="67"/>
-      <c r="M61" s="67"/>
-      <c r="N61" s="67"/>
-      <c r="O61" s="67"/>
-      <c r="P61" s="67"/>
-      <c r="Q61" s="67"/>
-      <c r="R61" s="67"/>
-      <c r="S61" s="68"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B63" s="47" t="s">
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="62"/>
+      <c r="I60" s="62"/>
+      <c r="J60" s="62"/>
+      <c r="K60" s="62"/>
+      <c r="L60" s="62"/>
+      <c r="M60" s="62"/>
+      <c r="N60" s="62"/>
+      <c r="O60" s="62"/>
+      <c r="P60" s="62"/>
+      <c r="Q60" s="62"/>
+      <c r="R60" s="62"/>
+      <c r="S60" s="63"/>
+    </row>
+    <row r="61" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="64"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="65"/>
+      <c r="J61" s="65"/>
+      <c r="K61" s="65"/>
+      <c r="L61" s="65"/>
+      <c r="M61" s="65"/>
+      <c r="N61" s="65"/>
+      <c r="O61" s="65"/>
+      <c r="P61" s="65"/>
+      <c r="Q61" s="65"/>
+      <c r="R61" s="65"/>
+      <c r="S61" s="66"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B63" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-      <c r="J63" s="47"/>
-      <c r="K63" s="47"/>
-      <c r="M63" s="47" t="s">
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
+      <c r="J63" s="45"/>
+      <c r="K63" s="45"/>
+      <c r="M63" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="N63" s="47"/>
-      <c r="O63" s="47"/>
-      <c r="P63" s="47"/>
-      <c r="R63" s="47" t="s">
+      <c r="N63" s="45"/>
+      <c r="O63" s="45"/>
+      <c r="P63" s="45"/>
+      <c r="R63" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="S63" s="47"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S63" s="45"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B64" s="2" t="s">
         <v>49</v>
       </c>
@@ -3647,7 +3649,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B65" s="2">
         <v>2</v>
       </c>
@@ -3689,46 +3691,46 @@
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J67" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B68" s="45" t="s">
+    <row r="68" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B68" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C68" s="45"/>
+      <c r="C68" s="49"/>
       <c r="E68" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G68" s="45" t="s">
+      <c r="G68" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="H68" s="45"/>
+      <c r="H68" s="49"/>
       <c r="J68" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B69" s="46">
+    <row r="69" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B69" s="50">
         <f>SUM(B65:K65,M65:P65,R65:S65)+J68</f>
         <v>34.5</v>
       </c>
-      <c r="C69" s="46"/>
-      <c r="E69" s="48"/>
-      <c r="G69" s="46">
+      <c r="C69" s="50"/>
+      <c r="E69" s="54"/>
+      <c r="G69" s="50">
         <f>50-SUM(B65:K65,M65:P65,R65:S65,J68,K70)</f>
         <v>13.5</v>
       </c>
-      <c r="H69" s="46"/>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B70" s="46"/>
-      <c r="C70" s="46"/>
-      <c r="E70" s="48"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="46"/>
+      <c r="H69" s="50"/>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B70" s="50"/>
+      <c r="C70" s="50"/>
+      <c r="E70" s="54"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="50"/>
       <c r="J70" s="1" t="s">
         <v>214</v>
       </c>
@@ -3738,6 +3740,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="B32:I33"/>
+    <mergeCell ref="B63:K63"/>
+    <mergeCell ref="B60:S61"/>
+    <mergeCell ref="M63:P63"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B23:L24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C70"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H70"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="B14:H15"/>
     <mergeCell ref="K5:N5"/>
@@ -3754,28 +3778,6 @@
     <mergeCell ref="E35:H35"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H11"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C70"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G69:H70"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B23:L24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="B32:I33"/>
-    <mergeCell ref="B63:K63"/>
-    <mergeCell ref="B60:S61"/>
-    <mergeCell ref="M63:P63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3791,16 +3793,16 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.85546875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" style="16" customWidth="1"/>
     <col min="6" max="6" width="97" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="15" t="s">
         <v>148</v>
       </c>
@@ -3814,7 +3816,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="23" t="b">
         <v>1</v>
       </c>
@@ -3831,7 +3833,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="b">
         <v>1</v>
       </c>
@@ -3848,7 +3850,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="b">
         <v>0</v>
       </c>
@@ -3865,10 +3867,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C6" s="31"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="23" t="b">
         <v>1</v>
       </c>
@@ -3885,7 +3887,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="23" t="b">
         <v>1</v>
       </c>
@@ -3902,7 +3904,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="23" t="b">
         <v>1</v>
       </c>
@@ -3919,7 +3921,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="24" t="b">
         <v>1</v>
       </c>
@@ -3936,7 +3938,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="24" t="b">
         <v>1</v>
       </c>
@@ -3953,10 +3955,10 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C12" s="31"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="23" t="b">
         <v>1</v>
       </c>
@@ -3973,7 +3975,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="23" t="b">
         <v>1</v>
       </c>
@@ -3990,7 +3992,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="24" t="b">
         <v>1</v>
       </c>
@@ -4007,7 +4009,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="24" t="b">
         <v>1</v>
       </c>
@@ -4024,7 +4026,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="19" t="b">
         <v>0</v>
       </c>
@@ -4041,7 +4043,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="19" t="b">
         <v>0</v>
       </c>
@@ -4058,11 +4060,11 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C19" s="31"/>
       <c r="D19" s="22"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="19" t="b">
         <v>0</v>
       </c>
@@ -4077,7 +4079,7 @@
       </c>
       <c r="F20" s="24"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="19" t="b">
         <v>0</v>
       </c>
@@ -4091,11 +4093,11 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C22" s="31"/>
       <c r="D22" s="22"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="23" t="b">
         <v>1</v>
       </c>
@@ -4112,7 +4114,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="23" t="b">
         <v>1</v>
       </c>
@@ -4129,7 +4131,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="23" t="b">
         <v>1</v>
       </c>
@@ -4146,7 +4148,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="23" t="b">
         <v>1</v>
       </c>
@@ -4163,7 +4165,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="27" t="b">
         <v>1</v>
       </c>
@@ -4180,7 +4182,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="27" t="b">
         <v>1</v>
       </c>
@@ -4197,7 +4199,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="27" t="b">
         <v>1</v>
       </c>
@@ -4214,10 +4216,10 @@
         <v>212</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C30" s="31"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="23" t="b">
         <v>1</v>
       </c>
@@ -4234,10 +4236,10 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C32" s="31"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="23" t="b">
         <v>1</v>
       </c>
@@ -4254,7 +4256,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="27" t="b">
         <v>1</v>
       </c>
@@ -4280,25 +4282,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA352BE-3E69-4CCA-8EEB-A9094B74606F}">
   <dimension ref="B1:L11"/>
   <sheetViews>
-    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="69" t="s">
         <v>203</v>
       </c>
@@ -4315,7 +4317,7 @@
       <c r="K2" s="70"/>
       <c r="L2" s="71"/>
     </row>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="34" t="s">
         <v>148</v>
       </c>
@@ -4344,7 +4346,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="37" t="s">
         <v>133</v>
       </c>
@@ -4369,7 +4371,7 @@
       </c>
       <c r="L4" s="14"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="38" t="s">
         <v>134</v>
       </c>
@@ -4394,7 +4396,7 @@
       </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="38" t="s">
         <v>135</v>
       </c>
@@ -4421,7 +4423,7 @@
       </c>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="38" t="s">
         <v>136</v>
       </c>
@@ -4437,7 +4439,9 @@
       <c r="G7" s="2">
         <v>5</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>4</v>
+      </c>
       <c r="J7" s="38" t="s">
         <v>201</v>
       </c>
@@ -4446,7 +4450,7 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="38" t="s">
         <v>137</v>
       </c>
@@ -4471,7 +4475,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="38" t="s">
         <v>138</v>
       </c>
@@ -4488,8 +4492,8 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="72" t="s">
         <v>197</v>
       </c>
@@ -4504,7 +4508,7 @@
       <c r="G11" s="73"/>
       <c r="H11" s="33">
         <f>(H4*G4+H5*G5+H6*G6+H7*G7+H8*G8)/30</f>
-        <v>0.66666666666666663</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="J11" s="72" t="s">
         <v>197</v>

--- a/IoT-points-schedule.xlsx
+++ b/IoT-points-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jczec\Pulpit\IoT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB4323F-B525-4479-80E0-C966C9DD8988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA32A689-FD2C-4684-B2BF-BAC21ED39EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{F85F5544-1FE8-4920-A5D4-192A98B113BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{F85F5544-1FE8-4920-A5D4-192A98B113BD}"/>
   </bookViews>
   <sheets>
     <sheet name="I-semestr-24Z" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="214">
   <si>
     <t>1. Krypto</t>
   </si>
@@ -681,9 +681,6 @@
   </si>
   <si>
     <t>Ext.</t>
-  </si>
-  <si>
-    <t>książka</t>
   </si>
 </sst>
 </file>
@@ -1636,31 +1633,31 @@
       <selection activeCell="V45" sqref="V45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="1"/>
-    <col min="11" max="11" width="11.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="11.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" s="39" t="s">
         <v>133</v>
       </c>
@@ -1679,7 +1676,7 @@
       <c r="O2" s="40"/>
       <c r="P2" s="41"/>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
@@ -1697,7 +1694,7 @@
       <c r="P3" s="44"/>
       <c r="R3" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" s="45" t="s">
         <v>18</v>
       </c>
@@ -1719,7 +1716,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1757,7 +1754,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -1795,7 +1792,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" s="49" t="s">
         <v>22</v>
       </c>
@@ -1804,7 +1801,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" s="50">
         <f>_xlfn.CEILING.MATH(SUM(B7:G7,I7,K7:N7,P7),1,1)</f>
         <v>110</v>
@@ -1814,12 +1811,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" s="50"/>
       <c r="C11" s="50"/>
       <c r="E11" s="52"/>
     </row>
-    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1840,8 +1837,8 @@
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
     </row>
-    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" s="39" t="s">
         <v>134</v>
       </c>
@@ -1852,7 +1849,7 @@
       <c r="G14" s="40"/>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
@@ -1861,7 +1858,7 @@
       <c r="G15" s="43"/>
       <c r="H15" s="44"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B17" s="45" t="s">
         <v>12</v>
       </c>
@@ -1880,7 +1877,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>75</v>
       </c>
@@ -1908,7 +1905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>46</v>
       </c>
@@ -1931,7 +1928,7 @@
       <c r="K19" s="50"/>
       <c r="M19" s="54"/>
     </row>
-    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1952,8 +1949,8 @@
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
     </row>
-    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B23" s="39" t="s">
         <v>135</v>
       </c>
@@ -1967,7 +1964,7 @@
       <c r="J23" s="40"/>
       <c r="K23" s="41"/>
     </row>
-    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="42"/>
       <c r="C24" s="43"/>
       <c r="D24" s="43"/>
@@ -1979,7 +1976,7 @@
       <c r="J24" s="43"/>
       <c r="K24" s="44"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B26" s="45" t="s">
         <v>17</v>
       </c>
@@ -2003,7 +2000,7 @@
       </c>
       <c r="P26" s="7"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>6</v>
       </c>
@@ -2038,7 +2035,7 @@
       </c>
       <c r="P27" s="8"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>8</v>
       </c>
@@ -2068,7 +2065,7 @@
       <c r="O28" s="54"/>
       <c r="P28" s="8"/>
     </row>
-    <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -2089,8 +2086,8 @@
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
     </row>
-    <row r="31" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B32" s="39" t="s">
         <v>136</v>
       </c>
@@ -2102,7 +2099,7 @@
       <c r="H32" s="40"/>
       <c r="I32" s="41"/>
     </row>
-    <row r="33" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="42"/>
       <c r="C33" s="43"/>
       <c r="D33" s="43"/>
@@ -2112,7 +2109,7 @@
       <c r="H33" s="43"/>
       <c r="I33" s="44"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="45" t="s">
         <v>31</v>
       </c>
@@ -2127,7 +2124,7 @@
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
     </row>
-    <row r="36" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>6</v>
       </c>
@@ -2152,7 +2149,7 @@
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>10</v>
       </c>
@@ -2179,7 +2176,7 @@
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
     </row>
-    <row r="40" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="55" t="s">
         <v>35</v>
       </c>
@@ -2194,7 +2191,7 @@
       <c r="J40" s="11"/>
       <c r="L40" s="11"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>49</v>
       </c>
@@ -2214,7 +2211,7 @@
       <c r="J41" s="7"/>
       <c r="L41" s="7"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>50</v>
       </c>
@@ -2230,7 +2227,7 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>51</v>
       </c>
@@ -2247,7 +2244,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>52</v>
       </c>
@@ -2262,7 +2259,7 @@
       </c>
       <c r="I44" s="49"/>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>53</v>
       </c>
@@ -2279,7 +2276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>54</v>
       </c>
@@ -2293,7 +2290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>55</v>
       </c>
@@ -2307,7 +2304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>56</v>
       </c>
@@ -2321,7 +2318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>57</v>
       </c>
@@ -2335,7 +2332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>58</v>
       </c>
@@ -2349,7 +2346,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>59</v>
       </c>
@@ -2357,7 +2354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>60</v>
       </c>
@@ -2372,7 +2369,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>16</v>
       </c>
@@ -2381,7 +2378,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -2402,8 +2399,8 @@
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
     </row>
-    <row r="57" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B58" s="39" t="s">
         <v>137</v>
       </c>
@@ -2424,7 +2421,7 @@
       <c r="Q58" s="40"/>
       <c r="R58" s="41"/>
     </row>
-    <row r="59" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="42"/>
       <c r="C59" s="43"/>
       <c r="D59" s="43"/>
@@ -2443,7 +2440,7 @@
       <c r="Q59" s="43"/>
       <c r="R59" s="44"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B61" s="45" t="s">
         <v>63</v>
       </c>
@@ -2466,7 +2463,7 @@
       </c>
       <c r="R61" s="45"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>51</v>
       </c>
@@ -2513,7 +2510,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
         <v>1</v>
       </c>
@@ -2560,7 +2557,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B66" s="49" t="s">
         <v>22</v>
       </c>
@@ -2569,7 +2566,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B67" s="50">
         <f xml:space="preserve"> SUM(B63:K63,M63:O63,Q63:R63)</f>
         <v>85.5</v>
@@ -2579,12 +2576,12 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B68" s="50"/>
       <c r="C68" s="50"/>
       <c r="E68" s="54"/>
     </row>
-    <row r="70" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -2605,8 +2602,8 @@
       <c r="R70" s="6"/>
       <c r="S70" s="6"/>
     </row>
-    <row r="71" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B72" s="39" t="s">
         <v>138</v>
       </c>
@@ -2618,7 +2615,7 @@
       <c r="H72" s="40"/>
       <c r="I72" s="41"/>
     </row>
-    <row r="73" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="42"/>
       <c r="C73" s="43"/>
       <c r="D73" s="43"/>
@@ -2628,7 +2625,7 @@
       <c r="H73" s="43"/>
       <c r="I73" s="44"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B75" s="4" t="s">
         <v>139</v>
       </c>
@@ -2661,7 +2658,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B76" s="2">
         <v>11</v>
       </c>
@@ -2695,7 +2692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -2762,36 +2759,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C86BD6-21E5-4E44-BF61-9A65607E6D85}">
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" s="61" t="s">
         <v>76</v>
       </c>
@@ -2810,7 +2807,7 @@
       <c r="O2" s="62"/>
       <c r="P2" s="63"/>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="64"/>
       <c r="C3" s="65"/>
       <c r="D3" s="65"/>
@@ -2828,7 +2825,7 @@
       <c r="P3" s="66"/>
       <c r="R3" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" s="46" t="s">
         <v>83</v>
       </c>
@@ -2850,7 +2847,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>175</v>
       </c>
@@ -2888,7 +2885,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -2920,7 +2917,7 @@
       </c>
       <c r="P7" s="2"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" s="49" t="s">
         <v>22</v>
       </c>
@@ -2933,7 +2930,7 @@
       </c>
       <c r="H9" s="49"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" s="50">
         <f>SUM(B7:F7,H7:I7,K7:N7,P7)</f>
         <v>29.9</v>
@@ -2946,14 +2943,14 @@
       </c>
       <c r="H10" s="50"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" s="50"/>
       <c r="C11" s="50"/>
       <c r="E11" s="52"/>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
     </row>
-    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -2974,8 +2971,8 @@
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
     </row>
-    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="57" t="s">
         <v>77</v>
       </c>
@@ -2986,7 +2983,7 @@
       <c r="G14" s="58"/>
       <c r="H14" s="58"/>
     </row>
-    <row r="15" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="59"/>
       <c r="C15" s="60"/>
       <c r="D15" s="60"/>
@@ -2995,7 +2992,7 @@
       <c r="G15" s="60"/>
       <c r="H15" s="60"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B17" s="45" t="s">
         <v>91</v>
       </c>
@@ -3020,7 +3017,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>159</v>
       </c>
@@ -3059,7 +3056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>7</v>
       </c>
@@ -3088,7 +3085,7 @@
       <c r="P19" s="50"/>
       <c r="R19" s="54"/>
     </row>
-    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -3109,8 +3106,8 @@
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
     </row>
-    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="61" t="s">
         <v>79</v>
       </c>
@@ -3129,7 +3126,7 @@
       </c>
       <c r="O23" s="50"/>
     </row>
-    <row r="24" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="64"/>
       <c r="C24" s="65"/>
       <c r="D24" s="65"/>
@@ -3144,7 +3141,7 @@
       <c r="N24" s="50"/>
       <c r="O24" s="50"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B26" s="45" t="s">
         <v>129</v>
       </c>
@@ -3165,7 +3162,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>130</v>
       </c>
@@ -3195,7 +3192,7 @@
       </c>
       <c r="N27" s="51"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>6.5</v>
       </c>
@@ -3219,7 +3216,7 @@
       <c r="L28" s="2"/>
       <c r="N28" s="52"/>
     </row>
-    <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -3240,8 +3237,8 @@
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
     </row>
-    <row r="31" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B32" s="57" t="s">
         <v>78</v>
       </c>
@@ -3253,7 +3250,7 @@
       <c r="H32" s="58"/>
       <c r="I32" s="67"/>
     </row>
-    <row r="33" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="59"/>
       <c r="C33" s="60"/>
       <c r="D33" s="60"/>
@@ -3263,7 +3260,7 @@
       <c r="H33" s="60"/>
       <c r="I33" s="68"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="45" t="s">
         <v>98</v>
       </c>
@@ -3276,7 +3273,7 @@
       <c r="G35" s="47"/>
       <c r="H35" s="48"/>
     </row>
-    <row r="36" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>6</v>
       </c>
@@ -3297,7 +3294,7 @@
       </c>
       <c r="O36" s="7"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>5</v>
       </c>
@@ -3316,7 +3313,7 @@
       <c r="H37" s="2"/>
       <c r="O37" s="7"/>
     </row>
-    <row r="40" spans="2:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="55" t="s">
         <v>126</v>
       </c>
@@ -3331,7 +3328,7 @@
       <c r="J40" s="11"/>
       <c r="L40" s="11"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>103</v>
       </c>
@@ -3351,7 +3348,7 @@
       <c r="J41" s="7"/>
       <c r="L41" s="7"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>104</v>
       </c>
@@ -3367,7 +3364,7 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>105</v>
       </c>
@@ -3384,7 +3381,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>106</v>
       </c>
@@ -3397,7 +3394,7 @@
       <c r="G44" s="2"/>
       <c r="I44" s="49"/>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>107</v>
       </c>
@@ -3408,9 +3405,11 @@
         <v>121</v>
       </c>
       <c r="G45" s="2"/>
-      <c r="I45" s="13"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I45" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>108</v>
       </c>
@@ -3420,7 +3419,7 @@
       </c>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>109</v>
       </c>
@@ -3433,7 +3432,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>110</v>
       </c>
@@ -3449,7 +3448,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>111</v>
       </c>
@@ -3459,7 +3458,7 @@
       </c>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>112</v>
       </c>
@@ -3467,7 +3466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>113</v>
       </c>
@@ -3482,7 +3481,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>114</v>
       </c>
@@ -3490,19 +3489,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C54" s="2"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>16</v>
       </c>
@@ -3511,7 +3510,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -3532,50 +3531,50 @@
       <c r="R58" s="6"/>
       <c r="S58" s="6"/>
     </row>
-    <row r="59" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="61" t="s">
+    <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="C60" s="62"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="62"/>
-      <c r="F60" s="62"/>
-      <c r="G60" s="62"/>
-      <c r="H60" s="62"/>
-      <c r="I60" s="62"/>
-      <c r="J60" s="62"/>
-      <c r="K60" s="62"/>
-      <c r="L60" s="62"/>
-      <c r="M60" s="62"/>
-      <c r="N60" s="62"/>
-      <c r="O60" s="62"/>
-      <c r="P60" s="62"/>
-      <c r="Q60" s="62"/>
-      <c r="R60" s="62"/>
-      <c r="S60" s="63"/>
-    </row>
-    <row r="61" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="64"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="65"/>
-      <c r="H61" s="65"/>
-      <c r="I61" s="65"/>
-      <c r="J61" s="65"/>
-      <c r="K61" s="65"/>
-      <c r="L61" s="65"/>
-      <c r="M61" s="65"/>
-      <c r="N61" s="65"/>
-      <c r="O61" s="65"/>
-      <c r="P61" s="65"/>
-      <c r="Q61" s="65"/>
-      <c r="R61" s="65"/>
-      <c r="S61" s="66"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="58"/>
+      <c r="J60" s="58"/>
+      <c r="K60" s="58"/>
+      <c r="L60" s="58"/>
+      <c r="M60" s="58"/>
+      <c r="N60" s="58"/>
+      <c r="O60" s="58"/>
+      <c r="P60" s="58"/>
+      <c r="Q60" s="58"/>
+      <c r="R60" s="58"/>
+      <c r="S60" s="58"/>
+    </row>
+    <row r="61" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="59"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="60"/>
+      <c r="K61" s="60"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="60"/>
+      <c r="N61" s="60"/>
+      <c r="O61" s="60"/>
+      <c r="P61" s="60"/>
+      <c r="Q61" s="60"/>
+      <c r="R61" s="60"/>
+      <c r="S61" s="60"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B63" s="45" t="s">
         <v>63</v>
       </c>
@@ -3599,7 +3598,7 @@
       </c>
       <c r="S63" s="45"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>49</v>
       </c>
@@ -3649,7 +3648,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B65" s="2">
         <v>2</v>
       </c>
@@ -3686,17 +3685,21 @@
       <c r="N65" s="2">
         <v>5</v>
       </c>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
+      <c r="O65" s="2">
+        <v>10</v>
+      </c>
+      <c r="P65" s="2">
+        <v>20</v>
+      </c>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
       <c r="J67" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B68" s="49" t="s">
         <v>22</v>
       </c>
@@ -3709,34 +3712,28 @@
       </c>
       <c r="H68" s="49"/>
       <c r="J68" s="1">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B69" s="50">
         <f>SUM(B65:K65,M65:P65,R65:S65)+J68</f>
-        <v>34.5</v>
+        <v>69</v>
       </c>
       <c r="C69" s="50"/>
       <c r="E69" s="54"/>
       <c r="G69" s="50">
         <f>50-SUM(B65:K65,M65:P65,R65:S65,J68,K70)</f>
-        <v>13.5</v>
+        <v>-19</v>
       </c>
       <c r="H69" s="50"/>
     </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B70" s="50"/>
       <c r="C70" s="50"/>
       <c r="E70" s="54"/>
       <c r="G70" s="50"/>
       <c r="H70" s="50"/>
-      <c r="J70" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K70" s="1">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -3793,16 +3790,16 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.88671875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="16" customWidth="1"/>
     <col min="6" max="6" width="97" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="15" t="s">
         <v>148</v>
       </c>
@@ -3816,7 +3813,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="b">
         <v>1</v>
       </c>
@@ -3833,7 +3830,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="b">
         <v>1</v>
       </c>
@@ -3850,7 +3847,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="b">
         <v>0</v>
       </c>
@@ -3867,10 +3864,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C6" s="31"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="b">
         <v>1</v>
       </c>
@@ -3887,7 +3884,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="b">
         <v>1</v>
       </c>
@@ -3904,7 +3901,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="b">
         <v>1</v>
       </c>
@@ -3921,7 +3918,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="b">
         <v>1</v>
       </c>
@@ -3938,7 +3935,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="24" t="b">
         <v>1</v>
       </c>
@@ -3955,10 +3952,10 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C12" s="31"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="b">
         <v>1</v>
       </c>
@@ -3975,7 +3972,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="b">
         <v>1</v>
       </c>
@@ -3992,7 +3989,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="b">
         <v>1</v>
       </c>
@@ -4009,7 +4006,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="b">
         <v>1</v>
       </c>
@@ -4026,7 +4023,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="b">
         <v>0</v>
       </c>
@@ -4043,7 +4040,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="b">
         <v>0</v>
       </c>
@@ -4060,11 +4057,11 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C19" s="31"/>
       <c r="D19" s="22"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="b">
         <v>0</v>
       </c>
@@ -4079,7 +4076,7 @@
       </c>
       <c r="F20" s="24"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="19" t="b">
         <v>0</v>
       </c>
@@ -4093,11 +4090,11 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C22" s="31"/>
       <c r="D22" s="22"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="23" t="b">
         <v>1</v>
       </c>
@@ -4114,7 +4111,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="23" t="b">
         <v>1</v>
       </c>
@@ -4131,7 +4128,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="23" t="b">
         <v>1</v>
       </c>
@@ -4148,7 +4145,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="23" t="b">
         <v>1</v>
       </c>
@@ -4165,7 +4162,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="27" t="b">
         <v>1</v>
       </c>
@@ -4182,7 +4179,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="27" t="b">
         <v>1</v>
       </c>
@@ -4199,7 +4196,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="27" t="b">
         <v>1</v>
       </c>
@@ -4216,10 +4213,10 @@
         <v>212</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C30" s="31"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="23" t="b">
         <v>1</v>
       </c>
@@ -4236,10 +4233,10 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C32" s="31"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="23" t="b">
         <v>1</v>
       </c>
@@ -4256,7 +4253,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="27" t="b">
         <v>1</v>
       </c>
@@ -4282,25 +4279,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA352BE-3E69-4CCA-8EEB-A9094B74606F}">
   <dimension ref="B1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="69" t="s">
         <v>203</v>
       </c>
@@ -4317,7 +4314,7 @@
       <c r="K2" s="70"/>
       <c r="L2" s="71"/>
     </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="34" t="s">
         <v>148</v>
       </c>
@@ -4346,7 +4343,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="37" t="s">
         <v>133</v>
       </c>
@@ -4371,7 +4368,7 @@
       </c>
       <c r="L4" s="14"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
         <v>134</v>
       </c>
@@ -4396,7 +4393,7 @@
       </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
         <v>135</v>
       </c>
@@ -4423,7 +4420,7 @@
       </c>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="38" t="s">
         <v>136</v>
       </c>
@@ -4450,7 +4447,7 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="38" t="s">
         <v>137</v>
       </c>
@@ -4475,7 +4472,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="38" t="s">
         <v>138</v>
       </c>
@@ -4492,8 +4489,8 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="72" t="s">
         <v>197</v>
       </c>

--- a/IoT-points-schedule.xlsx
+++ b/IoT-points-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jczec\Pulpit\IoT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA32A689-FD2C-4684-B2BF-BAC21ED39EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED729DB3-B531-4C6D-8431-0E9640C57044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{F85F5544-1FE8-4920-A5D4-192A98B113BD}"/>
+    <workbookView xWindow="38280" yWindow="2070" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F85F5544-1FE8-4920-A5D4-192A98B113BD}"/>
   </bookViews>
   <sheets>
     <sheet name="I-semestr-24Z" sheetId="2" r:id="rId1"/>
@@ -1179,9 +1179,18 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1191,10 +1200,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1203,30 +1215,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1243,12 +1249,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1629,7 +1629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5356A30-E1AA-4069-A4C8-FC0BE8204C56}">
   <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V45" sqref="V45"/>
     </sheetView>
   </sheetViews>
@@ -1695,23 +1695,23 @@
       <c r="R3" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
       <c r="I5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="48"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="51"/>
       <c r="P5" s="4" t="s">
         <v>74</v>
       </c>
@@ -1793,28 +1793,28 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="49"/>
+      <c r="C9" s="45"/>
       <c r="E9" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="50">
+      <c r="B10" s="46">
         <f>_xlfn.CEILING.MATH(SUM(B7:G7,I7,K7:N7,P7),1,1)</f>
         <v>110</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="E10" s="51">
+      <c r="C10" s="46"/>
+      <c r="E10" s="55">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="E11" s="52"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="E11" s="56"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
@@ -1859,20 +1859,20 @@
       <c r="H15" s="44"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="F17" s="45" t="s">
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="F17" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="J17" s="49" t="s">
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="J17" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="49"/>
+      <c r="K17" s="45"/>
       <c r="M17" s="9" t="s">
         <v>67</v>
       </c>
@@ -1896,12 +1896,12 @@
       <c r="H18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="50">
+      <c r="J18" s="46">
         <f>SUM(B19:D19,F19:H19)</f>
         <v>93</v>
       </c>
-      <c r="K18" s="50"/>
-      <c r="M18" s="54">
+      <c r="K18" s="46"/>
+      <c r="M18" s="48">
         <v>5</v>
       </c>
     </row>
@@ -1924,9 +1924,9 @@
       <c r="H19" s="2">
         <v>4</v>
       </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="M19" s="54"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="M19" s="48"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
@@ -1977,20 +1977,20 @@
       <c r="K24" s="44"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="E26" s="46" t="s">
+      <c r="C26" s="47"/>
+      <c r="E26" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="47"/>
-      <c r="G26" s="48"/>
-      <c r="I26" s="45" t="s">
+      <c r="F26" s="50"/>
+      <c r="G26" s="51"/>
+      <c r="I26" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
       <c r="M26" s="10" t="s">
         <v>22</v>
       </c>
@@ -2025,12 +2025,12 @@
       <c r="K27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M27" s="53">
+      <c r="M27" s="54">
         <f>SUM(B28:C28,E28:G28,I28:K28)</f>
         <v>36</v>
       </c>
       <c r="N27" s="7"/>
-      <c r="O27" s="54">
+      <c r="O27" s="48">
         <v>4</v>
       </c>
       <c r="P27" s="8"/>
@@ -2060,9 +2060,9 @@
       <c r="K28" s="2">
         <v>3.2</v>
       </c>
-      <c r="M28" s="53"/>
+      <c r="M28" s="54"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="54"/>
+      <c r="O28" s="48"/>
       <c r="P28" s="8"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2110,17 +2110,17 @@
       <c r="I33" s="44"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="F35" s="45" t="s">
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="F35" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
     </row>
@@ -2177,14 +2177,14 @@
       <c r="O37" s="7"/>
     </row>
     <row r="40" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="F40" s="50" t="s">
+      <c r="C40" s="53"/>
+      <c r="F40" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="50"/>
+      <c r="G40" s="46"/>
       <c r="I40" s="9" t="s">
         <v>22</v>
       </c>
@@ -2240,7 +2240,7 @@
       <c r="G43" s="2">
         <v>0.44</v>
       </c>
-      <c r="I43" s="49" t="s">
+      <c r="I43" s="45" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
       <c r="G44" s="2">
         <v>1</v>
       </c>
-      <c r="I44" s="49"/>
+      <c r="I44" s="45"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
@@ -2441,27 +2441,27 @@
       <c r="R59" s="44"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B61" s="45" t="s">
+      <c r="B61" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="45"/>
-      <c r="M61" s="45" t="s">
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="47"/>
+      <c r="M61" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="N61" s="45"/>
-      <c r="O61" s="45"/>
-      <c r="Q61" s="45" t="s">
+      <c r="N61" s="47"/>
+      <c r="O61" s="47"/>
+      <c r="Q61" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="R61" s="45"/>
+      <c r="R61" s="47"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
@@ -2558,28 +2558,28 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B66" s="49" t="s">
+      <c r="B66" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="49"/>
+      <c r="C66" s="45"/>
       <c r="E66" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B67" s="50">
+      <c r="B67" s="46">
         <f xml:space="preserve"> SUM(B63:K63,M63:O63,Q63:R63)</f>
         <v>85.5</v>
       </c>
-      <c r="C67" s="50"/>
-      <c r="E67" s="54">
+      <c r="C67" s="46"/>
+      <c r="E67" s="48">
         <v>4.5</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B68" s="50"/>
-      <c r="C68" s="50"/>
-      <c r="E68" s="54"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="E68" s="48"/>
     </row>
     <row r="70" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
@@ -2650,10 +2650,10 @@
       <c r="I75" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="K75" s="49" t="s">
+      <c r="K75" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="L75" s="49"/>
+      <c r="L75" s="45"/>
       <c r="N75" s="9" t="s">
         <v>67</v>
       </c>
@@ -2683,11 +2683,11 @@
       <c r="I76" s="2">
         <v>5</v>
       </c>
-      <c r="K76" s="50">
+      <c r="K76" s="46">
         <f>SUM(B76:I76)</f>
         <v>96</v>
       </c>
-      <c r="L76" s="50"/>
+      <c r="L76" s="46"/>
       <c r="N76" s="13">
         <v>5</v>
       </c>
@@ -2715,6 +2715,30 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="B14:H15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="B23:K24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B32:I33"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="F40:G40"/>
     <mergeCell ref="B72:I73"/>
     <mergeCell ref="K75:L75"/>
     <mergeCell ref="K76:L76"/>
@@ -2725,30 +2749,6 @@
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B67:C68"/>
     <mergeCell ref="E67:E68"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="B23:K24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="B32:I33"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="B14:H15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2759,8 +2759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C86BD6-21E5-4E44-BF61-9A65607E6D85}">
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N51" sqref="N51"/>
+    <sheetView tabSelected="1" topLeftCell="D31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2789,60 +2789,60 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="65"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="66"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="68"/>
       <c r="R3" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
-      <c r="H5" s="46" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
+      <c r="H5" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="K5" s="46" t="s">
+      <c r="I5" s="51"/>
+      <c r="K5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="48"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="51"/>
       <c r="P5" s="4" t="s">
         <v>74</v>
       </c>
@@ -2910,45 +2910,47 @@
       <c r="K7" s="2">
         <v>4</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="2">
+        <v>14</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P7" s="2"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="49"/>
+      <c r="C9" s="45"/>
       <c r="E9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="49"/>
+      <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="50">
+      <c r="B10" s="46">
         <f>SUM(B7:F7,H7:I7,K7:N7,P7)</f>
-        <v>29.9</v>
-      </c>
-      <c r="C10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="G10" s="50">
+        <v>44.9</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="E10" s="55"/>
+      <c r="G10" s="46">
         <f>66-SUM(B7:F7,H7:I7,K7:N7,P7)</f>
-        <v>36.1</v>
-      </c>
-      <c r="H10" s="50"/>
+        <v>21.1</v>
+      </c>
+      <c r="H10" s="46"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="E11" s="52"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="E11" s="56"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
@@ -2984,35 +2986,35 @@
       <c r="H14" s="58"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="59"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="H17" s="46" t="s">
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="H17" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
-      <c r="L17" s="49" t="s">
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
+      <c r="L17" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="49"/>
-      <c r="O17" s="49" t="s">
+      <c r="M17" s="45"/>
+      <c r="O17" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="49"/>
+      <c r="P17" s="45"/>
       <c r="R17" s="9" t="s">
         <v>67</v>
       </c>
@@ -3042,17 +3044,17 @@
       <c r="J18" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="L18" s="50">
+      <c r="L18" s="46">
         <f>SUM(B19:F19,H19:J19)</f>
         <v>70</v>
       </c>
-      <c r="M18" s="50"/>
-      <c r="O18" s="50">
+      <c r="M18" s="46"/>
+      <c r="O18" s="46">
         <f>50-SUM(B19:F19,H19:J19)</f>
         <v>-20</v>
       </c>
-      <c r="P18" s="50"/>
-      <c r="R18" s="54">
+      <c r="P18" s="46"/>
+      <c r="R18" s="48">
         <v>4</v>
       </c>
     </row>
@@ -3079,11 +3081,11 @@
       <c r="J19" s="2">
         <v>12.5</v>
       </c>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="R19" s="54"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="R19" s="48"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
@@ -3108,56 +3110,56 @@
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="63"/>
-      <c r="N23" s="50" t="s">
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="65"/>
+      <c r="N23" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="O23" s="50"/>
+      <c r="O23" s="46"/>
     </row>
     <row r="24" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="64"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="66"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="68"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="F26" s="45" t="s">
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="F26" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="46" t="s">
+      <c r="K26" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="L26" s="48"/>
+      <c r="L26" s="51"/>
       <c r="N26" s="9" t="s">
         <v>67</v>
       </c>
@@ -3190,7 +3192,7 @@
       <c r="L27" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N27" s="51"/>
+      <c r="N27" s="55"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
@@ -3214,7 +3216,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="N28" s="52"/>
+      <c r="N28" s="56"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
@@ -3248,30 +3250,30 @@
       <c r="F32" s="58"/>
       <c r="G32" s="58"/>
       <c r="H32" s="58"/>
-      <c r="I32" s="67"/>
+      <c r="I32" s="59"/>
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="59"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="68"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="62"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="45"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="46" t="s">
+      <c r="E35" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="48"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="51"/>
     </row>
     <row r="36" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
@@ -3314,14 +3316,14 @@
       <c r="O37" s="7"/>
     </row>
     <row r="40" spans="2:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="F40" s="50" t="s">
+      <c r="C40" s="53"/>
+      <c r="F40" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="50"/>
+      <c r="G40" s="46"/>
       <c r="I40" s="9" t="s">
         <v>22</v>
       </c>
@@ -3377,7 +3379,7 @@
       <c r="G43" s="2">
         <v>10</v>
       </c>
-      <c r="I43" s="49" t="s">
+      <c r="I43" s="45" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3392,7 +3394,7 @@
         <v>120</v>
       </c>
       <c r="G44" s="2"/>
-      <c r="I44" s="49"/>
+      <c r="I44" s="45"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
@@ -3555,48 +3557,48 @@
       <c r="S60" s="58"/>
     </row>
     <row r="61" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="59"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="60"/>
-      <c r="L61" s="60"/>
-      <c r="M61" s="60"/>
-      <c r="N61" s="60"/>
-      <c r="O61" s="60"/>
-      <c r="P61" s="60"/>
-      <c r="Q61" s="60"/>
-      <c r="R61" s="60"/>
-      <c r="S61" s="60"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="61"/>
+      <c r="K61" s="61"/>
+      <c r="L61" s="61"/>
+      <c r="M61" s="61"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="61"/>
+      <c r="P61" s="61"/>
+      <c r="Q61" s="61"/>
+      <c r="R61" s="61"/>
+      <c r="S61" s="61"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B63" s="45" t="s">
+      <c r="B63" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="45"/>
-      <c r="H63" s="45"/>
-      <c r="I63" s="45"/>
-      <c r="J63" s="45"/>
-      <c r="K63" s="45"/>
-      <c r="M63" s="45" t="s">
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
+      <c r="M63" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="N63" s="45"/>
-      <c r="O63" s="45"/>
-      <c r="P63" s="45"/>
-      <c r="R63" s="45" t="s">
+      <c r="N63" s="47"/>
+      <c r="O63" s="47"/>
+      <c r="P63" s="47"/>
+      <c r="R63" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="S63" s="45"/>
+      <c r="S63" s="47"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
@@ -3700,65 +3702,43 @@
       </c>
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B68" s="49" t="s">
+      <c r="B68" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C68" s="49"/>
+      <c r="C68" s="45"/>
       <c r="E68" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G68" s="49" t="s">
+      <c r="G68" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="H68" s="49"/>
+      <c r="H68" s="45"/>
       <c r="J68" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B69" s="50">
+      <c r="B69" s="46">
         <f>SUM(B65:K65,M65:P65,R65:S65)+J68</f>
         <v>69</v>
       </c>
-      <c r="C69" s="50"/>
-      <c r="E69" s="54"/>
-      <c r="G69" s="50">
+      <c r="C69" s="46"/>
+      <c r="E69" s="48"/>
+      <c r="G69" s="46">
         <f>50-SUM(B65:K65,M65:P65,R65:S65,J68,K70)</f>
         <v>-19</v>
       </c>
-      <c r="H69" s="50"/>
+      <c r="H69" s="46"/>
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B70" s="50"/>
-      <c r="C70" s="50"/>
-      <c r="E70" s="54"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="50"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="46"/>
+      <c r="E70" s="48"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="B32:I33"/>
-    <mergeCell ref="B63:K63"/>
-    <mergeCell ref="B60:S61"/>
-    <mergeCell ref="M63:P63"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B23:L24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C70"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G69:H70"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="B14:H15"/>
     <mergeCell ref="K5:N5"/>
@@ -3775,6 +3755,28 @@
     <mergeCell ref="E35:H35"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H11"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C70"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H70"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B23:L24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="B32:I33"/>
+    <mergeCell ref="B63:K63"/>
+    <mergeCell ref="B60:S61"/>
+    <mergeCell ref="M63:P63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4279,8 +4281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA352BE-3E69-4CCA-8EEB-A9094B74606F}">
   <dimension ref="B1:L11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4463,7 +4465,9 @@
       <c r="G8" s="2">
         <v>11</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
       <c r="J8" s="38" t="s">
         <v>202</v>
       </c>
@@ -4505,7 +4509,7 @@
       <c r="G11" s="73"/>
       <c r="H11" s="33">
         <f>(H4*G4+H5*G5+H6*G6+H7*G7+H8*G8)/30</f>
-        <v>1.3333333333333333</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="J11" s="72" t="s">
         <v>197</v>

--- a/IoT-points-schedule.xlsx
+++ b/IoT-points-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jczec\Pulpit\IoT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED729DB3-B531-4C6D-8431-0E9640C57044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D7F064-C2E0-466B-9A61-FE72DD19DFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2070" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F85F5544-1FE8-4920-A5D4-192A98B113BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{F85F5544-1FE8-4920-A5D4-192A98B113BD}"/>
   </bookViews>
   <sheets>
     <sheet name="I-semestr-24Z" sheetId="2" r:id="rId1"/>
@@ -691,7 +691,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-415]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,8 +745,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -789,8 +798,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1035,11 +1049,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1179,78 +1209,78 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1266,8 +1296,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Dane wyjściowe" xfId="1" builtinId="21"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1695,23 +1729,23 @@
       <c r="R3" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
       <c r="I5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="49" t="s">
+      <c r="K5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="51"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="48"/>
       <c r="P5" s="4" t="s">
         <v>74</v>
       </c>
@@ -1793,28 +1827,28 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="45"/>
+      <c r="C9" s="49"/>
       <c r="E9" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="46">
+      <c r="B10" s="50">
         <f>_xlfn.CEILING.MATH(SUM(B7:G7,I7,K7:N7,P7),1,1)</f>
         <v>110</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="E10" s="55">
+      <c r="C10" s="50"/>
+      <c r="E10" s="51">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="E11" s="56"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="E11" s="52"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
@@ -1859,20 +1893,20 @@
       <c r="H15" s="44"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="F17" s="47" t="s">
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="F17" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="J17" s="45" t="s">
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="J17" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="45"/>
+      <c r="K17" s="49"/>
       <c r="M17" s="9" t="s">
         <v>67</v>
       </c>
@@ -1896,12 +1930,12 @@
       <c r="H18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="46">
+      <c r="J18" s="50">
         <f>SUM(B19:D19,F19:H19)</f>
         <v>93</v>
       </c>
-      <c r="K18" s="46"/>
-      <c r="M18" s="48">
+      <c r="K18" s="50"/>
+      <c r="M18" s="54">
         <v>5</v>
       </c>
     </row>
@@ -1924,9 +1958,9 @@
       <c r="H19" s="2">
         <v>4</v>
       </c>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="M19" s="48"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="M19" s="54"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
@@ -1977,20 +2011,20 @@
       <c r="K24" s="44"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="47"/>
-      <c r="E26" s="49" t="s">
+      <c r="C26" s="45"/>
+      <c r="E26" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="50"/>
-      <c r="G26" s="51"/>
-      <c r="I26" s="47" t="s">
+      <c r="F26" s="47"/>
+      <c r="G26" s="48"/>
+      <c r="I26" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
       <c r="M26" s="10" t="s">
         <v>22</v>
       </c>
@@ -2025,12 +2059,12 @@
       <c r="K27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M27" s="54">
+      <c r="M27" s="53">
         <f>SUM(B28:C28,E28:G28,I28:K28)</f>
         <v>36</v>
       </c>
       <c r="N27" s="7"/>
-      <c r="O27" s="48">
+      <c r="O27" s="54">
         <v>4</v>
       </c>
       <c r="P27" s="8"/>
@@ -2060,9 +2094,9 @@
       <c r="K28" s="2">
         <v>3.2</v>
       </c>
-      <c r="M28" s="54"/>
+      <c r="M28" s="53"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="48"/>
+      <c r="O28" s="54"/>
       <c r="P28" s="8"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2110,17 +2144,17 @@
       <c r="I33" s="44"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="F35" s="47" t="s">
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="F35" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
     </row>
@@ -2177,14 +2211,14 @@
       <c r="O37" s="7"/>
     </row>
     <row r="40" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="F40" s="46" t="s">
+      <c r="C40" s="56"/>
+      <c r="F40" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="46"/>
+      <c r="G40" s="50"/>
       <c r="I40" s="9" t="s">
         <v>22</v>
       </c>
@@ -2240,7 +2274,7 @@
       <c r="G43" s="2">
         <v>0.44</v>
       </c>
-      <c r="I43" s="45" t="s">
+      <c r="I43" s="49" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2257,7 +2291,7 @@
       <c r="G44" s="2">
         <v>1</v>
       </c>
-      <c r="I44" s="45"/>
+      <c r="I44" s="49"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
@@ -2441,27 +2475,27 @@
       <c r="R59" s="44"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B61" s="47" t="s">
+      <c r="B61" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="47"/>
-      <c r="M61" s="47" t="s">
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="45"/>
+      <c r="M61" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="N61" s="47"/>
-      <c r="O61" s="47"/>
-      <c r="Q61" s="47" t="s">
+      <c r="N61" s="45"/>
+      <c r="O61" s="45"/>
+      <c r="Q61" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="R61" s="47"/>
+      <c r="R61" s="45"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
@@ -2558,28 +2592,28 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B66" s="45" t="s">
+      <c r="B66" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="45"/>
+      <c r="C66" s="49"/>
       <c r="E66" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B67" s="46">
+      <c r="B67" s="50">
         <f xml:space="preserve"> SUM(B63:K63,M63:O63,Q63:R63)</f>
         <v>85.5</v>
       </c>
-      <c r="C67" s="46"/>
-      <c r="E67" s="48">
+      <c r="C67" s="50"/>
+      <c r="E67" s="54">
         <v>4.5</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B68" s="46"/>
-      <c r="C68" s="46"/>
-      <c r="E68" s="48"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="50"/>
+      <c r="E68" s="54"/>
     </row>
     <row r="70" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
@@ -2650,10 +2684,10 @@
       <c r="I75" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="K75" s="45" t="s">
+      <c r="K75" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L75" s="45"/>
+      <c r="L75" s="49"/>
       <c r="N75" s="9" t="s">
         <v>67</v>
       </c>
@@ -2683,11 +2717,11 @@
       <c r="I76" s="2">
         <v>5</v>
       </c>
-      <c r="K76" s="46">
+      <c r="K76" s="50">
         <f>SUM(B76:I76)</f>
         <v>96</v>
       </c>
-      <c r="L76" s="46"/>
+      <c r="L76" s="50"/>
       <c r="N76" s="13">
         <v>5</v>
       </c>
@@ -2715,20 +2749,16 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="B14:H15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K19"/>
-    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="B72:I73"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="B58:R59"/>
+    <mergeCell ref="B61:K61"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C68"/>
+    <mergeCell ref="E67:E68"/>
     <mergeCell ref="I43:I44"/>
     <mergeCell ref="B23:K24"/>
     <mergeCell ref="B26:C26"/>
@@ -2739,16 +2769,20 @@
     <mergeCell ref="F35:I35"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="F40:G40"/>
-    <mergeCell ref="B72:I73"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="B58:R59"/>
-    <mergeCell ref="B61:K61"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="B14:H15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2759,8 +2793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C86BD6-21E5-4E44-BF61-9A65607E6D85}">
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K84" sqref="K84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2789,60 +2823,60 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="65"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="63"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="68"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="66"/>
       <c r="R3" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
-      <c r="H5" s="49" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48"/>
+      <c r="H5" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="51"/>
-      <c r="K5" s="49" t="s">
+      <c r="I5" s="48"/>
+      <c r="K5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="51"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="48"/>
       <c r="P5" s="4" t="s">
         <v>74</v>
       </c>
@@ -2920,37 +2954,37 @@
       <c r="P7" s="2"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="45"/>
+      <c r="C9" s="49"/>
       <c r="E9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="45"/>
+      <c r="H9" s="49"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="46">
+      <c r="B10" s="50">
         <f>SUM(B7:F7,H7:I7,K7:N7,P7)</f>
         <v>44.9</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="E10" s="55"/>
-      <c r="G10" s="46">
+      <c r="C10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="G10" s="50">
         <f>66-SUM(B7:F7,H7:I7,K7:N7,P7)</f>
         <v>21.1</v>
       </c>
-      <c r="H10" s="46"/>
+      <c r="H10" s="50"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="E11" s="56"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="E11" s="52"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
@@ -2986,35 +3020,35 @@
       <c r="H14" s="58"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="H17" s="49" t="s">
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="H17" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
-      <c r="L17" s="45" t="s">
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
+      <c r="L17" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="45"/>
-      <c r="O17" s="45" t="s">
+      <c r="M17" s="49"/>
+      <c r="O17" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="45"/>
+      <c r="P17" s="49"/>
       <c r="R17" s="9" t="s">
         <v>67</v>
       </c>
@@ -3044,17 +3078,17 @@
       <c r="J18" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="L18" s="46">
+      <c r="L18" s="50">
         <f>SUM(B19:F19,H19:J19)</f>
         <v>70</v>
       </c>
-      <c r="M18" s="46"/>
-      <c r="O18" s="46">
+      <c r="M18" s="50"/>
+      <c r="O18" s="50">
         <f>50-SUM(B19:F19,H19:J19)</f>
         <v>-20</v>
       </c>
-      <c r="P18" s="46"/>
-      <c r="R18" s="48">
+      <c r="P18" s="50"/>
+      <c r="R18" s="54">
         <v>4</v>
       </c>
     </row>
@@ -3081,11 +3115,11 @@
       <c r="J19" s="2">
         <v>12.5</v>
       </c>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="R19" s="48"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="R19" s="54"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
@@ -3110,56 +3144,56 @@
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="65"/>
-      <c r="N23" s="46" t="s">
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="63"/>
+      <c r="N23" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="O23" s="46"/>
+      <c r="O23" s="50"/>
     </row>
     <row r="24" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="66"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="68"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="66"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="F26" s="47" t="s">
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="F26" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="49" t="s">
+      <c r="K26" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="L26" s="51"/>
+      <c r="L26" s="48"/>
       <c r="N26" s="9" t="s">
         <v>67</v>
       </c>
@@ -3192,7 +3226,7 @@
       <c r="L27" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N27" s="55"/>
+      <c r="N27" s="51"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
@@ -3216,7 +3250,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="N28" s="56"/>
+      <c r="N28" s="52"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
@@ -3250,30 +3284,30 @@
       <c r="F32" s="58"/>
       <c r="G32" s="58"/>
       <c r="H32" s="58"/>
-      <c r="I32" s="59"/>
+      <c r="I32" s="67"/>
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="60"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="62"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="68"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="47"/>
+      <c r="C35" s="45"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="49" t="s">
+      <c r="E35" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="51"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="48"/>
     </row>
     <row r="36" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
@@ -3316,14 +3350,14 @@
       <c r="O37" s="7"/>
     </row>
     <row r="40" spans="2:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="F40" s="46" t="s">
+      <c r="C40" s="56"/>
+      <c r="F40" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="46"/>
+      <c r="G40" s="50"/>
       <c r="I40" s="9" t="s">
         <v>22</v>
       </c>
@@ -3379,7 +3413,7 @@
       <c r="G43" s="2">
         <v>10</v>
       </c>
-      <c r="I43" s="45" t="s">
+      <c r="I43" s="49" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3394,7 +3428,7 @@
         <v>120</v>
       </c>
       <c r="G44" s="2"/>
-      <c r="I44" s="45"/>
+      <c r="I44" s="49"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
@@ -3557,48 +3591,48 @@
       <c r="S60" s="58"/>
     </row>
     <row r="61" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="60"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="61"/>
-      <c r="J61" s="61"/>
-      <c r="K61" s="61"/>
-      <c r="L61" s="61"/>
-      <c r="M61" s="61"/>
-      <c r="N61" s="61"/>
-      <c r="O61" s="61"/>
-      <c r="P61" s="61"/>
-      <c r="Q61" s="61"/>
-      <c r="R61" s="61"/>
-      <c r="S61" s="61"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="60"/>
+      <c r="K61" s="60"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="60"/>
+      <c r="N61" s="60"/>
+      <c r="O61" s="60"/>
+      <c r="P61" s="60"/>
+      <c r="Q61" s="60"/>
+      <c r="R61" s="60"/>
+      <c r="S61" s="60"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B63" s="47" t="s">
+      <c r="B63" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-      <c r="J63" s="47"/>
-      <c r="K63" s="47"/>
-      <c r="M63" s="47" t="s">
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
+      <c r="J63" s="45"/>
+      <c r="K63" s="45"/>
+      <c r="M63" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="N63" s="47"/>
-      <c r="O63" s="47"/>
-      <c r="P63" s="47"/>
-      <c r="R63" s="47" t="s">
+      <c r="N63" s="45"/>
+      <c r="O63" s="45"/>
+      <c r="P63" s="45"/>
+      <c r="R63" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="S63" s="47"/>
+      <c r="S63" s="45"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
@@ -3697,48 +3731,70 @@
       <c r="S65" s="2"/>
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="J67" s="1" t="s">
+      <c r="J67" s="74" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B68" s="45" t="s">
+      <c r="B68" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C68" s="45"/>
+      <c r="C68" s="49"/>
       <c r="E68" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G68" s="45" t="s">
+      <c r="G68" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="H68" s="45"/>
-      <c r="J68" s="1">
+      <c r="H68" s="49"/>
+      <c r="J68" s="74">
         <v>9</v>
       </c>
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B69" s="46">
+      <c r="B69" s="50">
         <f>SUM(B65:K65,M65:P65,R65:S65)+J68</f>
         <v>69</v>
       </c>
-      <c r="C69" s="46"/>
-      <c r="E69" s="48"/>
-      <c r="G69" s="46">
+      <c r="C69" s="50"/>
+      <c r="E69" s="54"/>
+      <c r="G69" s="50">
         <f>50-SUM(B65:K65,M65:P65,R65:S65,J68,K70)</f>
         <v>-19</v>
       </c>
-      <c r="H69" s="46"/>
+      <c r="H69" s="50"/>
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B70" s="46"/>
-      <c r="C70" s="46"/>
-      <c r="E70" s="48"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="46"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="50"/>
+      <c r="E70" s="54"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="B32:I33"/>
+    <mergeCell ref="B63:K63"/>
+    <mergeCell ref="B60:S61"/>
+    <mergeCell ref="M63:P63"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B23:L24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C70"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H70"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="B14:H15"/>
     <mergeCell ref="K5:N5"/>
@@ -3755,28 +3811,6 @@
     <mergeCell ref="E35:H35"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H11"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C70"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G69:H70"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B23:L24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="B32:I33"/>
-    <mergeCell ref="B63:K63"/>
-    <mergeCell ref="B60:S61"/>
-    <mergeCell ref="M63:P63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IoT-points-schedule.xlsx
+++ b/IoT-points-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jczec\Pulpit\IoT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D7F064-C2E0-466B-9A61-FE72DD19DFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198C5E2B-3E73-4CB9-BAA8-8632F01A4937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{F85F5544-1FE8-4920-A5D4-192A98B113BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F85F5544-1FE8-4920-A5D4-192A98B113BD}"/>
   </bookViews>
   <sheets>
     <sheet name="I-semestr-24Z" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="215">
   <si>
     <t>1. Krypto</t>
   </si>
@@ -681,6 +681,9 @@
   </si>
   <si>
     <t>Ext.</t>
+  </si>
+  <si>
+    <t>Suma pkt</t>
   </si>
 </sst>
 </file>
@@ -1191,6 +1194,9 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1209,9 +1215,18 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1221,10 +1236,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1233,30 +1251,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1275,12 +1287,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1294,9 +1300,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1663,8 +1666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5356A30-E1AA-4069-A4C8-FC0BE8204C56}">
   <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V45" sqref="V45"/>
+    <sheetView tabSelected="1" topLeftCell="C42" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P70" sqref="P70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,60 +1695,60 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="42"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="44"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="45"/>
       <c r="R3" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
       <c r="I5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="48"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="52"/>
       <c r="P5" s="4" t="s">
         <v>74</v>
       </c>
@@ -1808,47 +1811,47 @@
         <v>2.25</v>
       </c>
       <c r="I7" s="2">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="K7" s="2">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="L7" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M7" s="2">
         <v>5</v>
       </c>
       <c r="N7" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P7" s="2">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="49"/>
+      <c r="C9" s="46"/>
       <c r="E9" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="50">
+      <c r="B10" s="47">
         <f>_xlfn.CEILING.MATH(SUM(B7:G7,I7,K7:N7,P7),1,1)</f>
-        <v>110</v>
-      </c>
-      <c r="C10" s="50"/>
-      <c r="E10" s="51">
+        <v>95</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="E10" s="56">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="E11" s="52"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="E11" s="57"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
@@ -1873,40 +1876,40 @@
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="F17" s="45" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="F17" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="J17" s="49" t="s">
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="J17" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="49"/>
+      <c r="K17" s="46"/>
       <c r="M17" s="9" t="s">
         <v>67</v>
       </c>
@@ -1930,19 +1933,17 @@
       <c r="H18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="50">
+      <c r="J18" s="47">
         <f>SUM(B19:D19,F19:H19)</f>
-        <v>93</v>
-      </c>
-      <c r="K18" s="50"/>
-      <c r="M18" s="54">
-        <v>5</v>
+        <v>19.7</v>
+      </c>
+      <c r="K18" s="47"/>
+      <c r="M18" s="49">
+        <v>3.5</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <v>46</v>
-      </c>
+      <c r="B19" s="2"/>
       <c r="C19" s="2">
         <v>7</v>
       </c>
@@ -1950,17 +1951,18 @@
         <v>9</v>
       </c>
       <c r="F19" s="2">
-        <v>22</v>
-      </c>
-      <c r="G19" s="2">
-        <v>5</v>
-      </c>
-      <c r="H19" s="2">
-        <v>4</v>
-      </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="M19" s="54"/>
+        <v>3.7</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="M19" s="49"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K20" s="1" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
@@ -1973,7 +1975,9 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="K21" s="6">
+        <v>62</v>
+      </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
@@ -1985,46 +1989,46 @@
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="42"/>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="44"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="45"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="E26" s="46" t="s">
+      <c r="C26" s="48"/>
+      <c r="E26" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="47"/>
-      <c r="G26" s="48"/>
-      <c r="I26" s="45" t="s">
+      <c r="F26" s="51"/>
+      <c r="G26" s="52"/>
+      <c r="I26" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
       <c r="M26" s="10" t="s">
         <v>22</v>
       </c>
@@ -2059,12 +2063,12 @@
       <c r="K27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M27" s="53">
+      <c r="M27" s="55">
         <f>SUM(B28:C28,E28:G28,I28:K28)</f>
-        <v>36</v>
+        <v>37.5</v>
       </c>
       <c r="N27" s="7"/>
-      <c r="O27" s="54">
+      <c r="O27" s="49">
         <v>4</v>
       </c>
       <c r="P27" s="8"/>
@@ -2080,7 +2084,7 @@
         <v>3.5</v>
       </c>
       <c r="F28" s="2">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="G28" s="2">
         <v>0</v>
@@ -2094,9 +2098,9 @@
       <c r="K28" s="2">
         <v>3.2</v>
       </c>
-      <c r="M28" s="53"/>
+      <c r="M28" s="55"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="54"/>
+      <c r="O28" s="49"/>
       <c r="P28" s="8"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2122,39 +2126,39 @@
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="42"/>
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="44"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="45"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="F35" s="45" t="s">
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="F35" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
     </row>
@@ -2185,40 +2189,40 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
-        <v>10</v>
+        <v>7.08</v>
       </c>
       <c r="C37" s="2">
-        <v>6.5</v>
+        <v>5.33</v>
       </c>
       <c r="D37" s="2">
         <f>C54</f>
-        <v>9.8000000000000007</v>
+        <v>10.38</v>
       </c>
       <c r="F37" s="2">
         <v>5</v>
       </c>
       <c r="G37" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H37" s="2">
         <f>G52</f>
-        <v>8.4</v>
+        <v>8.32</v>
       </c>
       <c r="I37" s="2">
-        <v>22.5</v>
+        <v>18</v>
       </c>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
     </row>
     <row r="40" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="F40" s="50" t="s">
+      <c r="C40" s="54"/>
+      <c r="F40" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="50"/>
+      <c r="G40" s="47"/>
       <c r="I40" s="9" t="s">
         <v>22</v>
       </c>
@@ -2236,11 +2240,11 @@
         <v>38</v>
       </c>
       <c r="G41" s="2">
-        <v>0.81</v>
+        <v>0.72</v>
       </c>
       <c r="I41" s="2">
         <f>SUM(B37:D37,F37:I37)</f>
-        <v>70.199999999999989</v>
+        <v>58.11</v>
       </c>
       <c r="J41" s="7"/>
       <c r="L41" s="7"/>
@@ -2256,7 +2260,7 @@
         <v>39</v>
       </c>
       <c r="G42" s="2">
-        <v>0.65</v>
+        <v>0.54</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
@@ -2272,9 +2276,9 @@
         <v>40</v>
       </c>
       <c r="G43" s="2">
-        <v>0.44</v>
-      </c>
-      <c r="I43" s="49" t="s">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I43" s="46" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2291,7 +2295,7 @@
       <c r="G44" s="2">
         <v>1</v>
       </c>
-      <c r="I44" s="49"/>
+      <c r="I44" s="46"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
@@ -2307,7 +2311,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
@@ -2315,7 +2319,7 @@
         <v>54</v>
       </c>
       <c r="C46" s="2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>43</v>
@@ -2343,7 +2347,7 @@
         <v>56</v>
       </c>
       <c r="C48" s="2">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>45</v>
@@ -2400,7 +2404,7 @@
       </c>
       <c r="G52" s="2">
         <f>SUM(G41:G50)</f>
-        <v>8.4</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
@@ -2409,7 +2413,7 @@
       </c>
       <c r="C54" s="2">
         <f>SUM(C41:C52)</f>
-        <v>9.8000000000000007</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2435,67 +2439,67 @@
     </row>
     <row r="57" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B58" s="39" t="s">
+      <c r="B58" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="40"/>
-      <c r="K58" s="40"/>
-      <c r="L58" s="40"/>
-      <c r="M58" s="40"/>
-      <c r="N58" s="40"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="40"/>
-      <c r="R58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="41"/>
+      <c r="M58" s="41"/>
+      <c r="N58" s="41"/>
+      <c r="O58" s="41"/>
+      <c r="P58" s="41"/>
+      <c r="Q58" s="41"/>
+      <c r="R58" s="42"/>
     </row>
     <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="42"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="43"/>
-      <c r="M59" s="43"/>
-      <c r="N59" s="43"/>
-      <c r="O59" s="43"/>
-      <c r="P59" s="43"/>
-      <c r="Q59" s="43"/>
-      <c r="R59" s="44"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="44"/>
+      <c r="P59" s="44"/>
+      <c r="Q59" s="44"/>
+      <c r="R59" s="45"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B61" s="45" t="s">
+      <c r="B61" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="45"/>
-      <c r="M61" s="45" t="s">
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="48"/>
+      <c r="K61" s="48"/>
+      <c r="M61" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="N61" s="45"/>
-      <c r="O61" s="45"/>
-      <c r="Q61" s="45" t="s">
+      <c r="N61" s="48"/>
+      <c r="O61" s="48"/>
+      <c r="Q61" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="R61" s="45"/>
+      <c r="R61" s="48"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
@@ -2588,32 +2592,32 @@
         <v>15</v>
       </c>
       <c r="R63" s="2">
-        <v>14.5</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B66" s="49" t="s">
+      <c r="B66" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="49"/>
+      <c r="C66" s="46"/>
       <c r="E66" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B67" s="50">
+      <c r="B67" s="47">
         <f xml:space="preserve"> SUM(B63:K63,M63:O63,Q63:R63)</f>
-        <v>85.5</v>
-      </c>
-      <c r="C67" s="50"/>
-      <c r="E67" s="54">
+        <v>81.7</v>
+      </c>
+      <c r="C67" s="47"/>
+      <c r="E67" s="49">
         <v>4.5</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B68" s="50"/>
-      <c r="C68" s="50"/>
-      <c r="E68" s="54"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
+      <c r="E68" s="49"/>
     </row>
     <row r="70" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
@@ -2638,26 +2642,26 @@
     </row>
     <row r="71" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B72" s="39" t="s">
+      <c r="B72" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="40"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="40"/>
-      <c r="I72" s="41"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="42"/>
     </row>
     <row r="73" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="42"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="43"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="43"/>
-      <c r="I73" s="44"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="45"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B75" s="4" t="s">
@@ -2684,10 +2688,10 @@
       <c r="I75" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="K75" s="49" t="s">
+      <c r="K75" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="L75" s="49"/>
+      <c r="L75" s="46"/>
       <c r="N75" s="9" t="s">
         <v>67</v>
       </c>
@@ -2697,33 +2701,33 @@
         <v>11</v>
       </c>
       <c r="C76" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2">
         <v>13</v>
       </c>
       <c r="E76" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F76" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2">
         <v>14</v>
       </c>
       <c r="H76" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I76" s="2">
         <v>5</v>
       </c>
-      <c r="K76" s="50">
+      <c r="K76" s="47">
         <f>SUM(B76:I76)</f>
-        <v>96</v>
-      </c>
-      <c r="L76" s="50"/>
+        <v>86</v>
+      </c>
+      <c r="L76" s="47"/>
       <c r="N76" s="13">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2749,6 +2753,30 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="B14:H15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="B23:K24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B32:I33"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="F40:G40"/>
     <mergeCell ref="B72:I73"/>
     <mergeCell ref="K75:L75"/>
     <mergeCell ref="K76:L76"/>
@@ -2759,30 +2787,6 @@
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B67:C68"/>
     <mergeCell ref="E67:E68"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="B23:K24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="B32:I33"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="B14:H15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2793,7 +2797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C86BD6-21E5-4E44-BF61-9A65607E6D85}">
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K84" sqref="K84"/>
     </sheetView>
   </sheetViews>
@@ -2823,60 +2827,60 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="63"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="66"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="69"/>
       <c r="R3" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
-      <c r="H5" s="46" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="52"/>
+      <c r="H5" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="K5" s="46" t="s">
+      <c r="I5" s="52"/>
+      <c r="K5" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="48"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="52"/>
       <c r="P5" s="4" t="s">
         <v>74</v>
       </c>
@@ -2954,37 +2958,37 @@
       <c r="P7" s="2"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="49"/>
+      <c r="C9" s="46"/>
       <c r="E9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="49"/>
+      <c r="H9" s="46"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="50">
+      <c r="B10" s="47">
         <f>SUM(B7:F7,H7:I7,K7:N7,P7)</f>
         <v>44.9</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="G10" s="50">
+      <c r="C10" s="47"/>
+      <c r="E10" s="56"/>
+      <c r="G10" s="47">
         <f>66-SUM(B7:F7,H7:I7,K7:N7,P7)</f>
         <v>21.1</v>
       </c>
-      <c r="H10" s="50"/>
+      <c r="H10" s="47"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="E11" s="52"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="E11" s="57"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
@@ -3009,46 +3013,46 @@
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="59"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="H17" s="46" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="H17" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
-      <c r="L17" s="49" t="s">
+      <c r="I17" s="51"/>
+      <c r="J17" s="52"/>
+      <c r="L17" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="49"/>
-      <c r="O17" s="49" t="s">
+      <c r="M17" s="46"/>
+      <c r="O17" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="49"/>
+      <c r="P17" s="46"/>
       <c r="R17" s="9" t="s">
         <v>67</v>
       </c>
@@ -3078,17 +3082,17 @@
       <c r="J18" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="L18" s="50">
+      <c r="L18" s="47">
         <f>SUM(B19:F19,H19:J19)</f>
         <v>70</v>
       </c>
-      <c r="M18" s="50"/>
-      <c r="O18" s="50">
+      <c r="M18" s="47"/>
+      <c r="O18" s="47">
         <f>50-SUM(B19:F19,H19:J19)</f>
         <v>-20</v>
       </c>
-      <c r="P18" s="50"/>
-      <c r="R18" s="54">
+      <c r="P18" s="47"/>
+      <c r="R18" s="49">
         <v>4</v>
       </c>
     </row>
@@ -3115,11 +3119,11 @@
       <c r="J19" s="2">
         <v>12.5</v>
       </c>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="R19" s="54"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="R19" s="49"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
@@ -3144,56 +3148,56 @@
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="63"/>
-      <c r="N23" s="50" t="s">
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="66"/>
+      <c r="N23" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="O23" s="50"/>
+      <c r="O23" s="47"/>
     </row>
     <row r="24" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="64"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="66"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="69"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="F26" s="45" t="s">
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="F26" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="46" t="s">
+      <c r="K26" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="L26" s="48"/>
+      <c r="L26" s="52"/>
       <c r="N26" s="9" t="s">
         <v>67</v>
       </c>
@@ -3226,7 +3230,7 @@
       <c r="L27" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N27" s="51"/>
+      <c r="N27" s="56"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
@@ -3250,7 +3254,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="N28" s="52"/>
+      <c r="N28" s="57"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
@@ -3275,39 +3279,39 @@
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="67"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="60"/>
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="59"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="68"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="63"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="45"/>
+      <c r="C35" s="48"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="46" t="s">
+      <c r="E35" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="48"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="52"/>
     </row>
     <row r="36" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
@@ -3350,14 +3354,14 @@
       <c r="O37" s="7"/>
     </row>
     <row r="40" spans="2:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="F40" s="50" t="s">
+      <c r="C40" s="54"/>
+      <c r="F40" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="50"/>
+      <c r="G40" s="47"/>
       <c r="I40" s="9" t="s">
         <v>22</v>
       </c>
@@ -3413,7 +3417,7 @@
       <c r="G43" s="2">
         <v>10</v>
       </c>
-      <c r="I43" s="49" t="s">
+      <c r="I43" s="46" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3428,7 +3432,7 @@
         <v>120</v>
       </c>
       <c r="G44" s="2"/>
-      <c r="I44" s="49"/>
+      <c r="I44" s="46"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
@@ -3569,70 +3573,70 @@
     </row>
     <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="57" t="s">
+      <c r="B60" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="58"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="58"/>
-      <c r="J60" s="58"/>
-      <c r="K60" s="58"/>
-      <c r="L60" s="58"/>
-      <c r="M60" s="58"/>
-      <c r="N60" s="58"/>
-      <c r="O60" s="58"/>
-      <c r="P60" s="58"/>
-      <c r="Q60" s="58"/>
-      <c r="R60" s="58"/>
-      <c r="S60" s="58"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="59"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="59"/>
+      <c r="M60" s="59"/>
+      <c r="N60" s="59"/>
+      <c r="O60" s="59"/>
+      <c r="P60" s="59"/>
+      <c r="Q60" s="59"/>
+      <c r="R60" s="59"/>
+      <c r="S60" s="59"/>
     </row>
     <row r="61" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="59"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="60"/>
-      <c r="L61" s="60"/>
-      <c r="M61" s="60"/>
-      <c r="N61" s="60"/>
-      <c r="O61" s="60"/>
-      <c r="P61" s="60"/>
-      <c r="Q61" s="60"/>
-      <c r="R61" s="60"/>
-      <c r="S61" s="60"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="62"/>
+      <c r="G61" s="62"/>
+      <c r="H61" s="62"/>
+      <c r="I61" s="62"/>
+      <c r="J61" s="62"/>
+      <c r="K61" s="62"/>
+      <c r="L61" s="62"/>
+      <c r="M61" s="62"/>
+      <c r="N61" s="62"/>
+      <c r="O61" s="62"/>
+      <c r="P61" s="62"/>
+      <c r="Q61" s="62"/>
+      <c r="R61" s="62"/>
+      <c r="S61" s="62"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B63" s="45" t="s">
+      <c r="B63" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="45"/>
-      <c r="H63" s="45"/>
-      <c r="I63" s="45"/>
-      <c r="J63" s="45"/>
-      <c r="K63" s="45"/>
-      <c r="M63" s="45" t="s">
+      <c r="C63" s="48"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="48"/>
+      <c r="K63" s="48"/>
+      <c r="M63" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="N63" s="45"/>
-      <c r="O63" s="45"/>
-      <c r="P63" s="45"/>
-      <c r="R63" s="45" t="s">
+      <c r="N63" s="48"/>
+      <c r="O63" s="48"/>
+      <c r="P63" s="48"/>
+      <c r="R63" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="S63" s="45"/>
+      <c r="S63" s="48"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
@@ -3731,70 +3735,48 @@
       <c r="S65" s="2"/>
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="J67" s="74" t="s">
+      <c r="J67" s="39" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B68" s="49" t="s">
+      <c r="B68" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C68" s="49"/>
+      <c r="C68" s="46"/>
       <c r="E68" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G68" s="49" t="s">
+      <c r="G68" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="H68" s="49"/>
-      <c r="J68" s="74">
+      <c r="H68" s="46"/>
+      <c r="J68" s="39">
         <v>9</v>
       </c>
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B69" s="50">
+      <c r="B69" s="47">
         <f>SUM(B65:K65,M65:P65,R65:S65)+J68</f>
         <v>69</v>
       </c>
-      <c r="C69" s="50"/>
-      <c r="E69" s="54"/>
-      <c r="G69" s="50">
+      <c r="C69" s="47"/>
+      <c r="E69" s="49"/>
+      <c r="G69" s="47">
         <f>50-SUM(B65:K65,M65:P65,R65:S65,J68,K70)</f>
         <v>-19</v>
       </c>
-      <c r="H69" s="50"/>
+      <c r="H69" s="47"/>
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B70" s="50"/>
-      <c r="C70" s="50"/>
-      <c r="E70" s="54"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="50"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="47"/>
+      <c r="E70" s="49"/>
+      <c r="G70" s="47"/>
+      <c r="H70" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="B32:I33"/>
-    <mergeCell ref="B63:K63"/>
-    <mergeCell ref="B60:S61"/>
-    <mergeCell ref="M63:P63"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B23:L24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C70"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G69:H70"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="B14:H15"/>
     <mergeCell ref="K5:N5"/>
@@ -3811,6 +3793,28 @@
     <mergeCell ref="E35:H35"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H11"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C70"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H70"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B23:L24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="B32:I33"/>
+    <mergeCell ref="B63:K63"/>
+    <mergeCell ref="B60:S61"/>
+    <mergeCell ref="M63:P63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4334,21 +4338,21 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71"/>
-      <c r="F2" s="69" t="s">
+      <c r="C2" s="71"/>
+      <c r="D2" s="72"/>
+      <c r="F2" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
-      <c r="J2" s="69" t="s">
+      <c r="G2" s="71"/>
+      <c r="H2" s="72"/>
+      <c r="J2" s="70" t="s">
         <v>205</v>
       </c>
-      <c r="K2" s="70"/>
-      <c r="L2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="72"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="34" t="s">
@@ -4529,26 +4533,26 @@
     </row>
     <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="C11" s="73"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="33">
         <f>(D4*C4+D5*C5+D6*C6+D7*C7+D8*C8+D9*C9)/30</f>
         <v>3.9666666666666668</v>
       </c>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="G11" s="73"/>
+      <c r="G11" s="74"/>
       <c r="H11" s="33">
         <f>(H4*G4+H5*G5+H6*G6+H7*G7+H8*G8)/30</f>
         <v>3.1666666666666665</v>
       </c>
-      <c r="J11" s="72" t="s">
+      <c r="J11" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="K11" s="73"/>
+      <c r="K11" s="74"/>
       <c r="L11" s="33">
         <f>(L4*K4+L5*K5+L6*K6+L7*K7+L8*K8)/30</f>
         <v>0</v>

--- a/IoT-points-schedule.xlsx
+++ b/IoT-points-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jczec\Pulpit\IoT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198C5E2B-3E73-4CB9-BAA8-8632F01A4937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C596683-D460-4BF4-8F8A-26DA46080460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F85F5544-1FE8-4920-A5D4-192A98B113BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{F85F5544-1FE8-4920-A5D4-192A98B113BD}"/>
   </bookViews>
   <sheets>
     <sheet name="I-semestr-24Z" sheetId="2" r:id="rId1"/>
@@ -1215,76 +1215,76 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1666,7 +1666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5356A30-E1AA-4069-A4C8-FC0BE8204C56}">
   <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C42" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P70" sqref="P70"/>
     </sheetView>
   </sheetViews>
@@ -1732,23 +1732,23 @@
       <c r="R3" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
       <c r="I5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="50" t="s">
+      <c r="K5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="52"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="49"/>
       <c r="P5" s="4" t="s">
         <v>74</v>
       </c>
@@ -1830,28 +1830,28 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="46"/>
+      <c r="C9" s="50"/>
       <c r="E9" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="47">
+      <c r="B10" s="51">
         <f>_xlfn.CEILING.MATH(SUM(B7:G7,I7,K7:N7,P7),1,1)</f>
         <v>95</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="E10" s="56">
+      <c r="C10" s="51"/>
+      <c r="E10" s="52">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="E11" s="57"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="E11" s="53"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
@@ -1896,20 +1896,20 @@
       <c r="H15" s="45"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="F17" s="48" t="s">
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="F17" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="J17" s="46" t="s">
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="J17" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="46"/>
+      <c r="K17" s="50"/>
       <c r="M17" s="9" t="s">
         <v>67</v>
       </c>
@@ -1933,12 +1933,12 @@
       <c r="H18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="47">
+      <c r="J18" s="51">
         <f>SUM(B19:D19,F19:H19)</f>
         <v>19.7</v>
       </c>
-      <c r="K18" s="47"/>
-      <c r="M18" s="49">
+      <c r="K18" s="51"/>
+      <c r="M18" s="55">
         <v>3.5</v>
       </c>
     </row>
@@ -1955,9 +1955,9 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="M19" s="49"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="M19" s="55"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K20" s="1" t="s">
@@ -2015,20 +2015,20 @@
       <c r="K24" s="45"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="E26" s="50" t="s">
+      <c r="C26" s="46"/>
+      <c r="E26" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="51"/>
-      <c r="G26" s="52"/>
-      <c r="I26" s="48" t="s">
+      <c r="F26" s="48"/>
+      <c r="G26" s="49"/>
+      <c r="I26" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
       <c r="M26" s="10" t="s">
         <v>22</v>
       </c>
@@ -2063,12 +2063,12 @@
       <c r="K27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M27" s="55">
+      <c r="M27" s="54">
         <f>SUM(B28:C28,E28:G28,I28:K28)</f>
         <v>37.5</v>
       </c>
       <c r="N27" s="7"/>
-      <c r="O27" s="49">
+      <c r="O27" s="55">
         <v>4</v>
       </c>
       <c r="P27" s="8"/>
@@ -2098,9 +2098,9 @@
       <c r="K28" s="2">
         <v>3.2</v>
       </c>
-      <c r="M28" s="55"/>
+      <c r="M28" s="54"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="49"/>
+      <c r="O28" s="55"/>
       <c r="P28" s="8"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2148,17 +2148,17 @@
       <c r="I33" s="45"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="F35" s="48" t="s">
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="F35" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
     </row>
@@ -2215,14 +2215,14 @@
       <c r="O37" s="7"/>
     </row>
     <row r="40" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="54"/>
-      <c r="F40" s="47" t="s">
+      <c r="C40" s="57"/>
+      <c r="F40" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="47"/>
+      <c r="G40" s="51"/>
       <c r="I40" s="9" t="s">
         <v>22</v>
       </c>
@@ -2278,7 +2278,7 @@
       <c r="G43" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I43" s="46" t="s">
+      <c r="I43" s="50" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
       <c r="G44" s="2">
         <v>1</v>
       </c>
-      <c r="I44" s="46"/>
+      <c r="I44" s="50"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
@@ -2479,27 +2479,27 @@
       <c r="R59" s="45"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B61" s="48" t="s">
+      <c r="B61" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="48"/>
-      <c r="J61" s="48"/>
-      <c r="K61" s="48"/>
-      <c r="M61" s="48" t="s">
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
+      <c r="M61" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="N61" s="48"/>
-      <c r="O61" s="48"/>
-      <c r="Q61" s="48" t="s">
+      <c r="N61" s="46"/>
+      <c r="O61" s="46"/>
+      <c r="Q61" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="R61" s="48"/>
+      <c r="R61" s="46"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
@@ -2596,28 +2596,28 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B66" s="46" t="s">
+      <c r="B66" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="46"/>
+      <c r="C66" s="50"/>
       <c r="E66" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B67" s="47">
+      <c r="B67" s="51">
         <f xml:space="preserve"> SUM(B63:K63,M63:O63,Q63:R63)</f>
         <v>81.7</v>
       </c>
-      <c r="C67" s="47"/>
-      <c r="E67" s="49">
+      <c r="C67" s="51"/>
+      <c r="E67" s="55">
         <v>4.5</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B68" s="47"/>
-      <c r="C68" s="47"/>
-      <c r="E68" s="49"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="51"/>
+      <c r="E68" s="55"/>
     </row>
     <row r="70" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
@@ -2688,10 +2688,10 @@
       <c r="I75" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="K75" s="46" t="s">
+      <c r="K75" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="L75" s="46"/>
+      <c r="L75" s="50"/>
       <c r="N75" s="9" t="s">
         <v>67</v>
       </c>
@@ -2721,11 +2721,11 @@
       <c r="I76" s="2">
         <v>5</v>
       </c>
-      <c r="K76" s="47">
+      <c r="K76" s="51">
         <f>SUM(B76:I76)</f>
         <v>86</v>
       </c>
-      <c r="L76" s="47"/>
+      <c r="L76" s="51"/>
       <c r="N76" s="13">
         <v>4.5</v>
       </c>
@@ -2753,20 +2753,16 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="B14:H15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K19"/>
-    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="B72:I73"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="B58:R59"/>
+    <mergeCell ref="B61:K61"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C68"/>
+    <mergeCell ref="E67:E68"/>
     <mergeCell ref="I43:I44"/>
     <mergeCell ref="B23:K24"/>
     <mergeCell ref="B26:C26"/>
@@ -2777,16 +2773,20 @@
     <mergeCell ref="F35:I35"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="F40:G40"/>
-    <mergeCell ref="B72:I73"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="B58:R59"/>
-    <mergeCell ref="B61:K61"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="B14:H15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2797,8 +2797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C86BD6-21E5-4E44-BF61-9A65607E6D85}">
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K84" sqref="K84"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2827,60 +2827,60 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="66"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="64"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="69"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="67"/>
       <c r="R3" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="52"/>
-      <c r="H5" s="50" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="49"/>
+      <c r="H5" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="K5" s="50" t="s">
+      <c r="I5" s="49"/>
+      <c r="K5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="52"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="49"/>
       <c r="P5" s="4" t="s">
         <v>74</v>
       </c>
@@ -2958,37 +2958,37 @@
       <c r="P7" s="2"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="46"/>
+      <c r="C9" s="50"/>
       <c r="E9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="46"/>
+      <c r="H9" s="50"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="47">
+      <c r="B10" s="51">
         <f>SUM(B7:F7,H7:I7,K7:N7,P7)</f>
         <v>44.9</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="E10" s="56"/>
-      <c r="G10" s="47">
+      <c r="C10" s="51"/>
+      <c r="E10" s="52"/>
+      <c r="G10" s="51">
         <f>66-SUM(B7:F7,H7:I7,K7:N7,P7)</f>
         <v>21.1</v>
       </c>
-      <c r="H10" s="47"/>
+      <c r="H10" s="51"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="E11" s="57"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="E11" s="53"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
@@ -3024,35 +3024,35 @@
       <c r="H14" s="59"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="H17" s="50" t="s">
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="H17" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="I17" s="51"/>
-      <c r="J17" s="52"/>
-      <c r="L17" s="46" t="s">
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
+      <c r="L17" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="46"/>
-      <c r="O17" s="46" t="s">
+      <c r="M17" s="50"/>
+      <c r="O17" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="46"/>
+      <c r="P17" s="50"/>
       <c r="R17" s="9" t="s">
         <v>67</v>
       </c>
@@ -3082,17 +3082,17 @@
       <c r="J18" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="L18" s="47">
+      <c r="L18" s="51">
         <f>SUM(B19:F19,H19:J19)</f>
         <v>70</v>
       </c>
-      <c r="M18" s="47"/>
-      <c r="O18" s="47">
+      <c r="M18" s="51"/>
+      <c r="O18" s="51">
         <f>50-SUM(B19:F19,H19:J19)</f>
         <v>-20</v>
       </c>
-      <c r="P18" s="47"/>
-      <c r="R18" s="49">
+      <c r="P18" s="51"/>
+      <c r="R18" s="55">
         <v>4</v>
       </c>
     </row>
@@ -3119,11 +3119,11 @@
       <c r="J19" s="2">
         <v>12.5</v>
       </c>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="R19" s="49"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="R19" s="55"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
@@ -3148,56 +3148,56 @@
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="66"/>
-      <c r="N23" s="47" t="s">
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="N23" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="O23" s="47"/>
+      <c r="O23" s="51"/>
     </row>
     <row r="24" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="67"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="69"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="F26" s="48" t="s">
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="F26" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="50" t="s">
+      <c r="K26" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="L26" s="52"/>
+      <c r="L26" s="49"/>
       <c r="N26" s="9" t="s">
         <v>67</v>
       </c>
@@ -3230,7 +3230,9 @@
       <c r="L27" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N27" s="56"/>
+      <c r="N27" s="52">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
@@ -3252,9 +3254,13 @@
       <c r="I28" s="2">
         <v>5</v>
       </c>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="N28" s="57"/>
+      <c r="K28" s="2">
+        <v>5</v>
+      </c>
+      <c r="L28" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="N28" s="53"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
@@ -3288,30 +3294,30 @@
       <c r="F32" s="59"/>
       <c r="G32" s="59"/>
       <c r="H32" s="59"/>
-      <c r="I32" s="60"/>
+      <c r="I32" s="68"/>
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="61"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="63"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="69"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="48"/>
+      <c r="C35" s="46"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="50" t="s">
+      <c r="E35" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="52"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="49"/>
     </row>
     <row r="36" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
@@ -3354,14 +3360,14 @@
       <c r="O37" s="7"/>
     </row>
     <row r="40" spans="2:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="54"/>
-      <c r="F40" s="47" t="s">
+      <c r="C40" s="57"/>
+      <c r="F40" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="47"/>
+      <c r="G40" s="51"/>
       <c r="I40" s="9" t="s">
         <v>22</v>
       </c>
@@ -3417,7 +3423,7 @@
       <c r="G43" s="2">
         <v>10</v>
       </c>
-      <c r="I43" s="46" t="s">
+      <c r="I43" s="50" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3432,7 +3438,7 @@
         <v>120</v>
       </c>
       <c r="G44" s="2"/>
-      <c r="I44" s="46"/>
+      <c r="I44" s="50"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
@@ -3595,48 +3601,48 @@
       <c r="S60" s="59"/>
     </row>
     <row r="61" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="61"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="62"/>
-      <c r="G61" s="62"/>
-      <c r="H61" s="62"/>
-      <c r="I61" s="62"/>
-      <c r="J61" s="62"/>
-      <c r="K61" s="62"/>
-      <c r="L61" s="62"/>
-      <c r="M61" s="62"/>
-      <c r="N61" s="62"/>
-      <c r="O61" s="62"/>
-      <c r="P61" s="62"/>
-      <c r="Q61" s="62"/>
-      <c r="R61" s="62"/>
-      <c r="S61" s="62"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="61"/>
+      <c r="K61" s="61"/>
+      <c r="L61" s="61"/>
+      <c r="M61" s="61"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="61"/>
+      <c r="P61" s="61"/>
+      <c r="Q61" s="61"/>
+      <c r="R61" s="61"/>
+      <c r="S61" s="61"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B63" s="48" t="s">
+      <c r="B63" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="48"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="48"/>
-      <c r="K63" s="48"/>
-      <c r="M63" s="48" t="s">
+      <c r="C63" s="46"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="46"/>
+      <c r="K63" s="46"/>
+      <c r="M63" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="N63" s="48"/>
-      <c r="O63" s="48"/>
-      <c r="P63" s="48"/>
-      <c r="R63" s="48" t="s">
+      <c r="N63" s="46"/>
+      <c r="O63" s="46"/>
+      <c r="P63" s="46"/>
+      <c r="R63" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="S63" s="48"/>
+      <c r="S63" s="46"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
@@ -3740,43 +3746,65 @@
       </c>
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B68" s="46" t="s">
+      <c r="B68" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C68" s="46"/>
+      <c r="C68" s="50"/>
       <c r="E68" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G68" s="46" t="s">
+      <c r="G68" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="H68" s="46"/>
+      <c r="H68" s="50"/>
       <c r="J68" s="39">
         <v>9</v>
       </c>
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B69" s="47">
+      <c r="B69" s="51">
         <f>SUM(B65:K65,M65:P65,R65:S65)+J68</f>
         <v>69</v>
       </c>
-      <c r="C69" s="47"/>
-      <c r="E69" s="49"/>
-      <c r="G69" s="47">
+      <c r="C69" s="51"/>
+      <c r="E69" s="55"/>
+      <c r="G69" s="51">
         <f>50-SUM(B65:K65,M65:P65,R65:S65,J68,K70)</f>
         <v>-19</v>
       </c>
-      <c r="H69" s="47"/>
+      <c r="H69" s="51"/>
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B70" s="47"/>
-      <c r="C70" s="47"/>
-      <c r="E70" s="49"/>
-      <c r="G70" s="47"/>
-      <c r="H70" s="47"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="51"/>
+      <c r="E70" s="55"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="B32:I33"/>
+    <mergeCell ref="B63:K63"/>
+    <mergeCell ref="B60:S61"/>
+    <mergeCell ref="M63:P63"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B23:L24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C70"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H70"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="B14:H15"/>
     <mergeCell ref="K5:N5"/>
@@ -3793,28 +3821,6 @@
     <mergeCell ref="E35:H35"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H11"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C70"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G69:H70"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B23:L24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="B32:I33"/>
-    <mergeCell ref="B63:K63"/>
-    <mergeCell ref="B60:S61"/>
-    <mergeCell ref="M63:P63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
